--- a/inst/time.xlsx
+++ b/inst/time.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="1736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4010" uniqueCount="2037">
   <si>
     <t>City</t>
   </si>
@@ -5219,6 +5219,909 @@
   </si>
   <si>
     <t>Žilina *</t>
+  </si>
+  <si>
+    <t>Alagoinhas</t>
+  </si>
+  <si>
+    <t>Thu 12:47 pm</t>
+  </si>
+  <si>
+    <t>Ambato</t>
+  </si>
+  <si>
+    <t>Thu 10:47 am</t>
+  </si>
+  <si>
+    <t>Anápolis</t>
+  </si>
+  <si>
+    <t>Antofagasta</t>
+  </si>
+  <si>
+    <t>Thu 11:47 am</t>
+  </si>
+  <si>
+    <t>Aracaju</t>
+  </si>
+  <si>
+    <t>Araguaína</t>
+  </si>
+  <si>
+    <t>Arauca</t>
+  </si>
+  <si>
+    <t>Arequipa</t>
+  </si>
+  <si>
+    <t>Arica</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Artigas</t>
+  </si>
+  <si>
+    <t>Asuncion</t>
+  </si>
+  <si>
+    <t>Atuntaqui</t>
+  </si>
+  <si>
+    <t>Bacabal</t>
+  </si>
+  <si>
+    <t>Bahía Blanca</t>
+  </si>
+  <si>
+    <t>Balneário Camboriú</t>
+  </si>
+  <si>
+    <t>Balsas</t>
+  </si>
+  <si>
+    <t>Bariloche</t>
+  </si>
+  <si>
+    <t>Barquisimeto</t>
+  </si>
+  <si>
+    <t>Barra do Garças</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>Barreiras</t>
+  </si>
+  <si>
+    <t>Bauru</t>
+  </si>
+  <si>
+    <t>Belém</t>
+  </si>
+  <si>
+    <t>Belgrano II Base</t>
+  </si>
+  <si>
+    <t>Bella Vista</t>
+  </si>
+  <si>
+    <t>Belo Horizonte</t>
+  </si>
+  <si>
+    <t>Blumenau</t>
+  </si>
+  <si>
+    <t>Boa Vista</t>
+  </si>
+  <si>
+    <t>Bogota</t>
+  </si>
+  <si>
+    <t>Bragado</t>
+  </si>
+  <si>
+    <t>Brasilia</t>
+  </si>
+  <si>
+    <t>Bucaramanga</t>
+  </si>
+  <si>
+    <t>Buenaventura</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Cali</t>
+  </si>
+  <si>
+    <t>Callao</t>
+  </si>
+  <si>
+    <t>Camaçari</t>
+  </si>
+  <si>
+    <t>Camarones</t>
+  </si>
+  <si>
+    <t>Campina Grande</t>
+  </si>
+  <si>
+    <t>Campinas</t>
+  </si>
+  <si>
+    <t>Campo Grande</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>Canelones</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Caraguatay</t>
+  </si>
+  <si>
+    <t>Carlini Base</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Caruaru</t>
+  </si>
+  <si>
+    <t>Catamarca</t>
+  </si>
+  <si>
+    <t>Caxias do Sul</t>
+  </si>
+  <si>
+    <t>Cayenne</t>
+  </si>
+  <si>
+    <t>Chaguanas</t>
+  </si>
+  <si>
+    <t>Chiclayo</t>
+  </si>
+  <si>
+    <t>Chillán</t>
+  </si>
+  <si>
+    <t>Ciudad Bolívar</t>
+  </si>
+  <si>
+    <t>Ciudad del Este</t>
+  </si>
+  <si>
+    <t>Ciudad Guayana</t>
+  </si>
+  <si>
+    <t>Ciudad Ojeda</t>
+  </si>
+  <si>
+    <t>Cobija</t>
+  </si>
+  <si>
+    <t>Cochabamba</t>
+  </si>
+  <si>
+    <t>Codó</t>
+  </si>
+  <si>
+    <t>Colonia del Sacramento</t>
+  </si>
+  <si>
+    <t>Comodoro Rivadavia</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>Copiapó</t>
+  </si>
+  <si>
+    <t>Córdoba</t>
+  </si>
+  <si>
+    <t>Corrientes</t>
+  </si>
+  <si>
+    <t>Cotacachi</t>
+  </si>
+  <si>
+    <t>Coyhaique</t>
+  </si>
+  <si>
+    <t>Criciúma</t>
+  </si>
+  <si>
+    <t>Cruzeiro do Sul</t>
+  </si>
+  <si>
+    <t>Cúcuta</t>
+  </si>
+  <si>
+    <t>Cuenca</t>
+  </si>
+  <si>
+    <t>Cuiabá</t>
+  </si>
+  <si>
+    <t>Cumaná</t>
+  </si>
+  <si>
+    <t>Curitiba</t>
+  </si>
+  <si>
+    <t>Cuzco</t>
+  </si>
+  <si>
+    <t>Dourados</t>
+  </si>
+  <si>
+    <t>Durazno</t>
+  </si>
+  <si>
+    <t>Easter Island</t>
+  </si>
+  <si>
+    <t>Thu 9:47 am</t>
+  </si>
+  <si>
+    <t>Eirunepé</t>
+  </si>
+  <si>
+    <t>El Calafate</t>
+  </si>
+  <si>
+    <t>Encarnación</t>
+  </si>
+  <si>
+    <t>Esmeraldas</t>
+  </si>
+  <si>
+    <t>Esperanza Base</t>
+  </si>
+  <si>
+    <t>Esquel</t>
+  </si>
+  <si>
+    <t>Facundo</t>
+  </si>
+  <si>
+    <t>Feira de Santana</t>
+  </si>
+  <si>
+    <t>Fernando de Noronha</t>
+  </si>
+  <si>
+    <t>Thu 1:47 pm</t>
+  </si>
+  <si>
+    <t>Florencia</t>
+  </si>
+  <si>
+    <t>Florianópolis</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Formosa</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Foz do Iguaçu</t>
+  </si>
+  <si>
+    <t>Fray Bentos</t>
+  </si>
+  <si>
+    <t>Fuerte Olimpo</t>
+  </si>
+  <si>
+    <t>Galapagos Islands</t>
+  </si>
+  <si>
+    <t>Garagoa</t>
+  </si>
+  <si>
+    <t>Garanhuns</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Goiânia</t>
+  </si>
+  <si>
+    <t>Governador Valadares</t>
+  </si>
+  <si>
+    <t>Gualeguaychú</t>
+  </si>
+  <si>
+    <t>Guarulhos</t>
+  </si>
+  <si>
+    <t>Guayaquil</t>
+  </si>
+  <si>
+    <t>Gustavia</t>
+  </si>
+  <si>
+    <t>Huancayo</t>
+  </si>
+  <si>
+    <t>Ibagué</t>
+  </si>
+  <si>
+    <t>Ibarra</t>
+  </si>
+  <si>
+    <t>Ica</t>
+  </si>
+  <si>
+    <t>Ilha de Itamaracá</t>
+  </si>
+  <si>
+    <t>Ilhéus</t>
+  </si>
+  <si>
+    <t>Imperatriz</t>
+  </si>
+  <si>
+    <t>Inírida</t>
+  </si>
+  <si>
+    <t>Ipatinga</t>
+  </si>
+  <si>
+    <t>Iquique</t>
+  </si>
+  <si>
+    <t>Iquitos</t>
+  </si>
+  <si>
+    <t>Itabuna</t>
+  </si>
+  <si>
+    <t>Itumbiara</t>
+  </si>
+  <si>
+    <t>Jequié</t>
+  </si>
+  <si>
+    <t>João Pessoa</t>
+  </si>
+  <si>
+    <t>Joinville</t>
+  </si>
+  <si>
+    <t>Juàzeiro do Norte</t>
+  </si>
+  <si>
+    <t>Juiz de Fora</t>
+  </si>
+  <si>
+    <t>Jujuy</t>
+  </si>
+  <si>
+    <t>Junín</t>
+  </si>
+  <si>
+    <t>Kourou</t>
+  </si>
+  <si>
+    <t>La Paz</t>
+  </si>
+  <si>
+    <t>La Plata</t>
+  </si>
+  <si>
+    <t>La Rioja</t>
+  </si>
+  <si>
+    <t>La Serena</t>
+  </si>
+  <si>
+    <t>Leticia</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Linden</t>
+  </si>
+  <si>
+    <t>Loja</t>
+  </si>
+  <si>
+    <t>Londrina</t>
+  </si>
+  <si>
+    <t>Macaé</t>
+  </si>
+  <si>
+    <t>Macapá</t>
+  </si>
+  <si>
+    <t>Macas</t>
+  </si>
+  <si>
+    <t>Maceió</t>
+  </si>
+  <si>
+    <t>Machu Picchu Pueblo</t>
+  </si>
+  <si>
+    <t>Maldonado</t>
+  </si>
+  <si>
+    <t>Manaus</t>
+  </si>
+  <si>
+    <t>Manicoré</t>
+  </si>
+  <si>
+    <t>Manizales</t>
+  </si>
+  <si>
+    <t>Mar del Plata</t>
+  </si>
+  <si>
+    <t>Maracaibo</t>
+  </si>
+  <si>
+    <t>Maracay</t>
+  </si>
+  <si>
+    <t>Marambio Base</t>
+  </si>
+  <si>
+    <t>Marigot</t>
+  </si>
+  <si>
+    <t>Maripasoula</t>
+  </si>
+  <si>
+    <t>Maturín</t>
+  </si>
+  <si>
+    <t>Medellin</t>
+  </si>
+  <si>
+    <t>Melo</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>Minas</t>
+  </si>
+  <si>
+    <t>Mitú</t>
+  </si>
+  <si>
+    <t>Mocoa</t>
+  </si>
+  <si>
+    <t>Montería</t>
+  </si>
+  <si>
+    <t>Montes Claros</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>Mossoró</t>
+  </si>
+  <si>
+    <t>Natal</t>
+  </si>
+  <si>
+    <t>Neiva</t>
+  </si>
+  <si>
+    <t>Neuquén</t>
+  </si>
+  <si>
+    <t>New Amsterdam</t>
+  </si>
+  <si>
+    <t>Nieuw Nickerie</t>
+  </si>
+  <si>
+    <t>Niterói</t>
+  </si>
+  <si>
+    <t>Nueva Loja</t>
+  </si>
+  <si>
+    <t>Olímpia</t>
+  </si>
+  <si>
+    <t>Oruro</t>
+  </si>
+  <si>
+    <t>Osorno</t>
+  </si>
+  <si>
+    <t>Palmas</t>
+  </si>
+  <si>
+    <t>Paramaribo</t>
+  </si>
+  <si>
+    <t>Paraná</t>
+  </si>
+  <si>
+    <t>Parnaíba</t>
+  </si>
+  <si>
+    <t>Passo Fundo</t>
+  </si>
+  <si>
+    <t>Paysandú</t>
+  </si>
+  <si>
+    <t>Pedro Juan Caballero</t>
+  </si>
+  <si>
+    <t>Pelotas</t>
+  </si>
+  <si>
+    <t>Pereira</t>
+  </si>
+  <si>
+    <t>Petrópolis</t>
+  </si>
+  <si>
+    <t>Philipsburg</t>
+  </si>
+  <si>
+    <t>Pirassununga</t>
+  </si>
+  <si>
+    <t>Piura</t>
+  </si>
+  <si>
+    <t>Ponta Grossa</t>
+  </si>
+  <si>
+    <t>Popayán</t>
+  </si>
+  <si>
+    <t>Port of Spain</t>
+  </si>
+  <si>
+    <t>Porto Acre</t>
+  </si>
+  <si>
+    <t>Porto Alegre</t>
+  </si>
+  <si>
+    <t>Porto Velho</t>
+  </si>
+  <si>
+    <t>Portoviejo</t>
+  </si>
+  <si>
+    <t>Posadas</t>
+  </si>
+  <si>
+    <t>Potosi</t>
+  </si>
+  <si>
+    <t>Pucallpa</t>
+  </si>
+  <si>
+    <t>Puerto Asís</t>
+  </si>
+  <si>
+    <t>Puerto Ayacucho</t>
+  </si>
+  <si>
+    <t>Puerto Carreño</t>
+  </si>
+  <si>
+    <t>Puerto Deseado</t>
+  </si>
+  <si>
+    <t>Puerto Montt</t>
+  </si>
+  <si>
+    <t>Puerto Williams *</t>
+  </si>
+  <si>
+    <t>Punta Arenas *</t>
+  </si>
+  <si>
+    <t>Punta del Este</t>
+  </si>
+  <si>
+    <t>Puyo</t>
+  </si>
+  <si>
+    <t>Quibdó</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>Rancagua</t>
+  </si>
+  <si>
+    <t>Rawson</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>Resistencia</t>
+  </si>
+  <si>
+    <t>Ribeirão Prêto</t>
+  </si>
+  <si>
+    <t>Riberalta</t>
+  </si>
+  <si>
+    <t>Rio Branco</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Río Gallegos</t>
+  </si>
+  <si>
+    <t>Río Grande (Argentina)</t>
+  </si>
+  <si>
+    <t>Rio Grande (Brazil)</t>
+  </si>
+  <si>
+    <t>Riohacha</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>Rocha</t>
+  </si>
+  <si>
+    <t>Rosario</t>
+  </si>
+  <si>
+    <t>Rothera Research Station</t>
+  </si>
+  <si>
+    <t>Sabaneta</t>
+  </si>
+  <si>
+    <t>Saint-Laurent-du-Maroni</t>
+  </si>
+  <si>
+    <t>Salta</t>
+  </si>
+  <si>
+    <t>Salto</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>San Andrés</t>
+  </si>
+  <si>
+    <t>San Cristóbal</t>
+  </si>
+  <si>
+    <t>San Fernando</t>
+  </si>
+  <si>
+    <t>San Fernando de Apure</t>
+  </si>
+  <si>
+    <t>San Ignacio de Velasco</t>
+  </si>
+  <si>
+    <t>San José de Jáchal</t>
+  </si>
+  <si>
+    <t>San José de Mayo</t>
+  </si>
+  <si>
+    <t>San José del Guaviare</t>
+  </si>
+  <si>
+    <t>San Juan de Pasto</t>
+  </si>
+  <si>
+    <t>San Luis</t>
+  </si>
+  <si>
+    <t>San Martín Base</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Santa Fe</t>
+  </si>
+  <si>
+    <t>Santa María</t>
+  </si>
+  <si>
+    <t>Santa Marta</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Santarém</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Santiago del Estero</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>São Félix do Xingu</t>
+  </si>
+  <si>
+    <t>São Gabriel da Cachoeira</t>
+  </si>
+  <si>
+    <t>São José do Rio Preto</t>
+  </si>
+  <si>
+    <t>São José dos Campos</t>
+  </si>
+  <si>
+    <t>São Luis</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Scarborough</t>
+  </si>
+  <si>
+    <t>Sincelejo</t>
+  </si>
+  <si>
+    <t>Sinop</t>
+  </si>
+  <si>
+    <t>Sobral</t>
+  </si>
+  <si>
+    <t>Sorocaba</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>Tabatinga</t>
+  </si>
+  <si>
+    <t>Tacuarembó</t>
+  </si>
+  <si>
+    <t>Talca</t>
+  </si>
+  <si>
+    <t>Talcahuano</t>
+  </si>
+  <si>
+    <t>Tandil</t>
+  </si>
+  <si>
+    <t>Tarija</t>
+  </si>
+  <si>
+    <t>Tefé</t>
+  </si>
+  <si>
+    <t>Temuco</t>
+  </si>
+  <si>
+    <t>Teófilo Otoni</t>
+  </si>
+  <si>
+    <t>Teresina</t>
+  </si>
+  <si>
+    <t>Treinta y Tres</t>
+  </si>
+  <si>
+    <t>Trinidad (Bolivia)</t>
+  </si>
+  <si>
+    <t>Trinidad (Uruguay)</t>
+  </si>
+  <si>
+    <t>Trujillo</t>
+  </si>
+  <si>
+    <t>Tucumán</t>
+  </si>
+  <si>
+    <t>Tunja</t>
+  </si>
+  <si>
+    <t>Uberaba</t>
+  </si>
+  <si>
+    <t>Uberlândia</t>
+  </si>
+  <si>
+    <t>Uruguaiana</t>
+  </si>
+  <si>
+    <t>Ushuaia</t>
+  </si>
+  <si>
+    <t>Valdivia</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Valledupar</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>Viedma</t>
+  </si>
+  <si>
+    <t>Villarrica</t>
+  </si>
+  <si>
+    <t>Villavicencio</t>
+  </si>
+  <si>
+    <t>Viña del Mar</t>
+  </si>
+  <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Vitória da Conquista</t>
+  </si>
+  <si>
+    <t>Volta Redonda</t>
+  </si>
+  <si>
+    <t>Yopal</t>
+  </si>
+  <si>
+    <t>Zárate</t>
   </si>
 </sst>
 </file>
@@ -19129,1196 +20032,2388 @@
       </c>
     </row>
     <row r="1708" ht="15.75" customHeight="1">
-      <c r="A1708" s="1"/>
-      <c r="B1708" s="1"/>
+      <c r="A1708" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B1708" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1709" ht="15.75" customHeight="1">
-      <c r="A1709" s="1"/>
-      <c r="B1709" s="1"/>
+      <c r="A1709" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1709" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1710" ht="15.75" customHeight="1">
-      <c r="A1710" s="1"/>
-      <c r="B1710" s="1"/>
+      <c r="A1710" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B1710" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1711" ht="15.75" customHeight="1">
-      <c r="A1711" s="1"/>
-      <c r="B1711" s="1"/>
+      <c r="A1711" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1711" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1712" ht="15.75" customHeight="1">
-      <c r="A1712" s="1"/>
-      <c r="B1712" s="1"/>
+      <c r="A1712" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1712" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1713" ht="15.75" customHeight="1">
-      <c r="A1713" s="1"/>
-      <c r="B1713" s="1"/>
+      <c r="A1713" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B1713" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1714" ht="15.75" customHeight="1">
-      <c r="A1714" s="1"/>
-      <c r="B1714" s="1"/>
+      <c r="A1714" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1714" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1715" ht="15.75" customHeight="1">
-      <c r="A1715" s="1"/>
-      <c r="B1715" s="1"/>
+      <c r="A1715" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1715" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1716" ht="15.75" customHeight="1">
-      <c r="A1716" s="1"/>
-      <c r="B1716" s="1"/>
+      <c r="A1716" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B1716" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1717" ht="15.75" customHeight="1">
-      <c r="A1717" s="1"/>
-      <c r="B1717" s="1"/>
+      <c r="A1717" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1717" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1718" ht="15.75" customHeight="1">
-      <c r="A1718" s="1"/>
-      <c r="B1718" s="1"/>
+      <c r="A1718" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1718" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1719" ht="15.75" customHeight="1">
-      <c r="A1719" s="1"/>
-      <c r="B1719" s="1"/>
+      <c r="A1719" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1719" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1720" ht="15.75" customHeight="1">
-      <c r="A1720" s="1"/>
-      <c r="B1720" s="1"/>
+      <c r="A1720" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1720" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1721" ht="15.75" customHeight="1">
-      <c r="A1721" s="1"/>
-      <c r="B1721" s="1"/>
+      <c r="A1721" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1721" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1722" ht="15.75" customHeight="1">
-      <c r="A1722" s="1"/>
-      <c r="B1722" s="1"/>
+      <c r="A1722" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1722" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1723" ht="15.75" customHeight="1">
-      <c r="A1723" s="1"/>
-      <c r="B1723" s="1"/>
+      <c r="A1723" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1723" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1724" ht="15.75" customHeight="1">
-      <c r="A1724" s="1"/>
-      <c r="B1724" s="1"/>
+      <c r="A1724" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B1724" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1725" ht="15.75" customHeight="1">
-      <c r="A1725" s="1"/>
-      <c r="B1725" s="1"/>
+      <c r="A1725" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1725" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1726" ht="15.75" customHeight="1">
-      <c r="A1726" s="1"/>
-      <c r="B1726" s="1"/>
+      <c r="A1726" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B1726" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1727" ht="15.75" customHeight="1">
-      <c r="A1727" s="1"/>
-      <c r="B1727" s="1"/>
+      <c r="A1727" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B1727" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1728" ht="15.75" customHeight="1">
-      <c r="A1728" s="1"/>
-      <c r="B1728" s="1"/>
+      <c r="A1728" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1728" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1729" ht="15.75" customHeight="1">
-      <c r="A1729" s="1"/>
-      <c r="B1729" s="1"/>
+      <c r="A1729" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B1729" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1730" ht="15.75" customHeight="1">
-      <c r="A1730" s="1"/>
-      <c r="B1730" s="1"/>
+      <c r="A1730" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1730" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1731" ht="15.75" customHeight="1">
-      <c r="A1731" s="1"/>
-      <c r="B1731" s="1"/>
+      <c r="A1731" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B1731" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1732" ht="15.75" customHeight="1">
-      <c r="A1732" s="1"/>
-      <c r="B1732" s="1"/>
+      <c r="A1732" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B1732" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1733" ht="15.75" customHeight="1">
-      <c r="A1733" s="1"/>
-      <c r="B1733" s="1"/>
+      <c r="A1733" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1733" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1734" ht="15.75" customHeight="1">
-      <c r="A1734" s="1"/>
-      <c r="B1734" s="1"/>
+      <c r="A1734" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1734" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1735" ht="15.75" customHeight="1">
-      <c r="A1735" s="1"/>
-      <c r="B1735" s="1"/>
+      <c r="A1735" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1735" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1736" ht="15.75" customHeight="1">
-      <c r="A1736" s="1"/>
-      <c r="B1736" s="1"/>
+      <c r="A1736" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B1736" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1737" ht="15.75" customHeight="1">
-      <c r="A1737" s="1"/>
-      <c r="B1737" s="1"/>
+      <c r="A1737" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1737" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1738" ht="15.75" customHeight="1">
-      <c r="A1738" s="1"/>
-      <c r="B1738" s="1"/>
+      <c r="A1738" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B1738" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1739" ht="15.75" customHeight="1">
-      <c r="A1739" s="1"/>
-      <c r="B1739" s="1"/>
+      <c r="A1739" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1739" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1740" ht="15.75" customHeight="1">
-      <c r="A1740" s="1"/>
-      <c r="B1740" s="1"/>
+      <c r="A1740" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1740" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1741" ht="15.75" customHeight="1">
-      <c r="A1741" s="1"/>
-      <c r="B1741" s="1"/>
+      <c r="A1741" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B1741" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1742" ht="15.75" customHeight="1">
-      <c r="A1742" s="1"/>
-      <c r="B1742" s="1"/>
+      <c r="A1742" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1742" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1743" ht="15.75" customHeight="1">
-      <c r="A1743" s="1"/>
-      <c r="B1743" s="1"/>
+      <c r="A1743" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1743" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1744" ht="15.75" customHeight="1">
-      <c r="A1744" s="1"/>
-      <c r="B1744" s="1"/>
+      <c r="A1744" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1744" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1745" ht="15.75" customHeight="1">
-      <c r="A1745" s="1"/>
-      <c r="B1745" s="1"/>
+      <c r="A1745" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1745" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1746" ht="15.75" customHeight="1">
-      <c r="A1746" s="1"/>
-      <c r="B1746" s="1"/>
+      <c r="A1746" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1746" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1747" ht="15.75" customHeight="1">
-      <c r="A1747" s="1"/>
-      <c r="B1747" s="1"/>
+      <c r="A1747" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1747" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1748" ht="15.75" customHeight="1">
-      <c r="A1748" s="1"/>
-      <c r="B1748" s="1"/>
+      <c r="A1748" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1748" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1749" ht="15.75" customHeight="1">
-      <c r="A1749" s="1"/>
-      <c r="B1749" s="1"/>
+      <c r="A1749" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1749" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1750" ht="15.75" customHeight="1">
-      <c r="A1750" s="1"/>
-      <c r="B1750" s="1"/>
+      <c r="A1750" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1750" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1751" ht="15.75" customHeight="1">
-      <c r="A1751" s="1"/>
-      <c r="B1751" s="1"/>
+      <c r="A1751" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1751" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1752" ht="15.75" customHeight="1">
-      <c r="A1752" s="1"/>
-      <c r="B1752" s="1"/>
+      <c r="A1752" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1752" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1753" ht="15.75" customHeight="1">
-      <c r="A1753" s="1"/>
-      <c r="B1753" s="1"/>
+      <c r="A1753" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1753" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1754" ht="15.75" customHeight="1">
-      <c r="A1754" s="1"/>
-      <c r="B1754" s="1"/>
+      <c r="A1754" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1754" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1755" ht="15.75" customHeight="1">
-      <c r="A1755" s="1"/>
-      <c r="B1755" s="1"/>
+      <c r="A1755" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1755" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1756" ht="15.75" customHeight="1">
-      <c r="A1756" s="1"/>
-      <c r="B1756" s="1"/>
+      <c r="A1756" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1756" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1757" ht="15.75" customHeight="1">
-      <c r="A1757" s="1"/>
-      <c r="B1757" s="1"/>
+      <c r="A1757" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1757" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1758" ht="15.75" customHeight="1">
-      <c r="A1758" s="1"/>
-      <c r="B1758" s="1"/>
+      <c r="A1758" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1758" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1759" ht="15.75" customHeight="1">
-      <c r="A1759" s="1"/>
-      <c r="B1759" s="1"/>
+      <c r="A1759" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1759" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1760" ht="15.75" customHeight="1">
-      <c r="A1760" s="1"/>
-      <c r="B1760" s="1"/>
+      <c r="A1760" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1760" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1761" ht="15.75" customHeight="1">
-      <c r="A1761" s="1"/>
-      <c r="B1761" s="1"/>
+      <c r="A1761" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1761" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1762" ht="15.75" customHeight="1">
-      <c r="A1762" s="1"/>
-      <c r="B1762" s="1"/>
+      <c r="A1762" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1762" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1763" ht="15.75" customHeight="1">
-      <c r="A1763" s="1"/>
-      <c r="B1763" s="1"/>
+      <c r="A1763" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1763" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1764" ht="15.75" customHeight="1">
-      <c r="A1764" s="1"/>
-      <c r="B1764" s="1"/>
+      <c r="A1764" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1764" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1765" ht="15.75" customHeight="1">
-      <c r="A1765" s="1"/>
-      <c r="B1765" s="1"/>
+      <c r="A1765" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1765" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1766" ht="15.75" customHeight="1">
-      <c r="A1766" s="1"/>
-      <c r="B1766" s="1"/>
+      <c r="A1766" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1766" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1767" ht="15.75" customHeight="1">
-      <c r="A1767" s="1"/>
-      <c r="B1767" s="1"/>
+      <c r="A1767" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1767" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1768" ht="15.75" customHeight="1">
-      <c r="A1768" s="1"/>
-      <c r="B1768" s="1"/>
+      <c r="A1768" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1768" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1769" ht="15.75" customHeight="1">
-      <c r="A1769" s="1"/>
-      <c r="B1769" s="1"/>
+      <c r="A1769" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1769" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1770" ht="15.75" customHeight="1">
-      <c r="A1770" s="1"/>
-      <c r="B1770" s="1"/>
+      <c r="A1770" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1770" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1771" ht="15.75" customHeight="1">
-      <c r="A1771" s="1"/>
-      <c r="B1771" s="1"/>
+      <c r="A1771" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1771" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1772" ht="15.75" customHeight="1">
-      <c r="A1772" s="1"/>
-      <c r="B1772" s="1"/>
+      <c r="A1772" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1772" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1773" ht="15.75" customHeight="1">
-      <c r="A1773" s="1"/>
-      <c r="B1773" s="1"/>
+      <c r="A1773" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1773" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1774" ht="15.75" customHeight="1">
-      <c r="A1774" s="1"/>
-      <c r="B1774" s="1"/>
+      <c r="A1774" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1774" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1775" ht="15.75" customHeight="1">
-      <c r="A1775" s="1"/>
-      <c r="B1775" s="1"/>
+      <c r="A1775" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1775" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1776" ht="15.75" customHeight="1">
-      <c r="A1776" s="1"/>
-      <c r="B1776" s="1"/>
+      <c r="A1776" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B1776" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1777" ht="15.75" customHeight="1">
-      <c r="A1777" s="1"/>
-      <c r="B1777" s="1"/>
+      <c r="A1777" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1777" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1778" ht="15.75" customHeight="1">
-      <c r="A1778" s="1"/>
-      <c r="B1778" s="1"/>
+      <c r="A1778" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B1778" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1779" ht="15.75" customHeight="1">
-      <c r="A1779" s="1"/>
-      <c r="B1779" s="1"/>
+      <c r="A1779" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1779" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1780" ht="15.75" customHeight="1">
-      <c r="A1780" s="1"/>
-      <c r="B1780" s="1"/>
+      <c r="A1780" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1780" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1781" ht="15.75" customHeight="1">
-      <c r="A1781" s="1"/>
-      <c r="B1781" s="1"/>
+      <c r="A1781" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1781" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1782" ht="15.75" customHeight="1">
-      <c r="A1782" s="1"/>
-      <c r="B1782" s="1"/>
+      <c r="A1782" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1782" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1783" ht="15.75" customHeight="1">
-      <c r="A1783" s="1"/>
-      <c r="B1783" s="1"/>
+      <c r="A1783" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1783" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1784" ht="15.75" customHeight="1">
-      <c r="A1784" s="1"/>
-      <c r="B1784" s="1"/>
+      <c r="A1784" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1784" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1785" ht="15.75" customHeight="1">
-      <c r="A1785" s="1"/>
-      <c r="B1785" s="1"/>
+      <c r="A1785" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1785" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1786" ht="15.75" customHeight="1">
-      <c r="A1786" s="1"/>
-      <c r="B1786" s="1"/>
+      <c r="A1786" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1786" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1787" ht="15.75" customHeight="1">
-      <c r="A1787" s="1"/>
-      <c r="B1787" s="1"/>
+      <c r="A1787" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1787" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1788" ht="15.75" customHeight="1">
-      <c r="A1788" s="1"/>
-      <c r="B1788" s="1"/>
+      <c r="A1788" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1788" s="1" t="s">
+        <v>1820</v>
+      </c>
     </row>
     <row r="1789" ht="15.75" customHeight="1">
-      <c r="A1789" s="1"/>
-      <c r="B1789" s="1"/>
+      <c r="A1789" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1789" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1790" ht="15.75" customHeight="1">
-      <c r="A1790" s="1"/>
-      <c r="B1790" s="1"/>
+      <c r="A1790" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1790" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1791" ht="15.75" customHeight="1">
-      <c r="A1791" s="1"/>
-      <c r="B1791" s="1"/>
+      <c r="A1791" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1791" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1792" ht="15.75" customHeight="1">
-      <c r="A1792" s="1"/>
-      <c r="B1792" s="1"/>
+      <c r="A1792" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1792" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1793" ht="15.75" customHeight="1">
-      <c r="A1793" s="1"/>
-      <c r="B1793" s="1"/>
+      <c r="A1793" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B1793" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1794" ht="15.75" customHeight="1">
-      <c r="A1794" s="1"/>
-      <c r="B1794" s="1"/>
+      <c r="A1794" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1794" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1795" ht="15.75" customHeight="1">
-      <c r="A1795" s="1"/>
-      <c r="B1795" s="1"/>
+      <c r="A1795" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B1795" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1796" ht="15.75" customHeight="1">
-      <c r="A1796" s="1"/>
-      <c r="B1796" s="1"/>
+      <c r="A1796" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1796" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1797" ht="15.75" customHeight="1">
-      <c r="A1797" s="1"/>
-      <c r="B1797" s="1"/>
+      <c r="A1797" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B1797" s="1" t="s">
+        <v>1830</v>
+      </c>
     </row>
     <row r="1798" ht="15.75" customHeight="1">
-      <c r="A1798" s="1"/>
-      <c r="B1798" s="1"/>
+      <c r="A1798" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B1798" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1799" ht="15.75" customHeight="1">
-      <c r="A1799" s="1"/>
-      <c r="B1799" s="1"/>
+      <c r="A1799" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B1799" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1800" ht="15.75" customHeight="1">
-      <c r="A1800" s="1"/>
-      <c r="B1800" s="1"/>
+      <c r="A1800" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1800" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1801" ht="15.75" customHeight="1">
-      <c r="A1801" s="1"/>
-      <c r="B1801" s="1"/>
+      <c r="A1801" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B1801" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1802" ht="15.75" customHeight="1">
-      <c r="A1802" s="1"/>
-      <c r="B1802" s="1"/>
+      <c r="A1802" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1802" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1803" ht="15.75" customHeight="1">
-      <c r="A1803" s="1"/>
-      <c r="B1803" s="1"/>
+      <c r="A1803" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1803" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1804" ht="15.75" customHeight="1">
-      <c r="A1804" s="1"/>
-      <c r="B1804" s="1"/>
+      <c r="A1804" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1804" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1805" ht="15.75" customHeight="1">
-      <c r="A1805" s="1"/>
-      <c r="B1805" s="1"/>
+      <c r="A1805" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1805" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1806" ht="15.75" customHeight="1">
-      <c r="A1806" s="1"/>
-      <c r="B1806" s="1"/>
+      <c r="A1806" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1806" s="1" t="s">
+        <v>1820</v>
+      </c>
     </row>
     <row r="1807" ht="15.75" customHeight="1">
-      <c r="A1807" s="1"/>
-      <c r="B1807" s="1"/>
+      <c r="A1807" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1807" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1808" ht="15.75" customHeight="1">
-      <c r="A1808" s="1"/>
-      <c r="B1808" s="1"/>
+      <c r="A1808" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1808" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1809" ht="15.75" customHeight="1">
-      <c r="A1809" s="1"/>
-      <c r="B1809" s="1"/>
+      <c r="A1809" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B1809" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1810" ht="15.75" customHeight="1">
-      <c r="A1810" s="1"/>
-      <c r="B1810" s="1"/>
+      <c r="A1810" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1810" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1811" ht="15.75" customHeight="1">
-      <c r="A1811" s="1"/>
-      <c r="B1811" s="1"/>
+      <c r="A1811" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1811" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1812" ht="15.75" customHeight="1">
-      <c r="A1812" s="1"/>
-      <c r="B1812" s="1"/>
+      <c r="A1812" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1812" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1813" ht="15.75" customHeight="1">
-      <c r="A1813" s="1"/>
-      <c r="B1813" s="1"/>
+      <c r="A1813" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1813" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1814" ht="15.75" customHeight="1">
-      <c r="A1814" s="1"/>
-      <c r="B1814" s="1"/>
+      <c r="A1814" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1814" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1815" ht="15.75" customHeight="1">
-      <c r="A1815" s="1"/>
-      <c r="B1815" s="1"/>
+      <c r="A1815" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1815" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1816" ht="15.75" customHeight="1">
-      <c r="A1816" s="1"/>
-      <c r="B1816" s="1"/>
+      <c r="A1816" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1816" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1817" ht="15.75" customHeight="1">
-      <c r="A1817" s="1"/>
-      <c r="B1817" s="1"/>
+      <c r="A1817" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B1817" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1818" ht="15.75" customHeight="1">
-      <c r="A1818" s="1"/>
-      <c r="B1818" s="1"/>
+      <c r="A1818" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1818" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1819" ht="15.75" customHeight="1">
-      <c r="A1819" s="1"/>
-      <c r="B1819" s="1"/>
+      <c r="A1819" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B1819" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1820" ht="15.75" customHeight="1">
-      <c r="A1820" s="1"/>
-      <c r="B1820" s="1"/>
+      <c r="A1820" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1820" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1821" ht="15.75" customHeight="1">
-      <c r="A1821" s="1"/>
-      <c r="B1821" s="1"/>
+      <c r="A1821" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1821" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1822" ht="15.75" customHeight="1">
-      <c r="A1822" s="1"/>
-      <c r="B1822" s="1"/>
+      <c r="A1822" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1822" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1823" ht="15.75" customHeight="1">
-      <c r="A1823" s="1"/>
-      <c r="B1823" s="1"/>
+      <c r="A1823" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1823" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1824" ht="15.75" customHeight="1">
-      <c r="A1824" s="1"/>
-      <c r="B1824" s="1"/>
+      <c r="A1824" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1824" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1825" ht="15.75" customHeight="1">
-      <c r="A1825" s="1"/>
-      <c r="B1825" s="1"/>
+      <c r="A1825" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1825" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1826" ht="15.75" customHeight="1">
-      <c r="A1826" s="1"/>
-      <c r="B1826" s="1"/>
+      <c r="A1826" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1826" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1827" ht="15.75" customHeight="1">
-      <c r="A1827" s="1"/>
-      <c r="B1827" s="1"/>
+      <c r="A1827" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1827" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1828" ht="15.75" customHeight="1">
-      <c r="A1828" s="1"/>
-      <c r="B1828" s="1"/>
+      <c r="A1828" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1828" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1829" ht="15.75" customHeight="1">
-      <c r="A1829" s="1"/>
-      <c r="B1829" s="1"/>
+      <c r="A1829" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1829" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1830" ht="15.75" customHeight="1">
-      <c r="A1830" s="1"/>
-      <c r="B1830" s="1"/>
+      <c r="A1830" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1830" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1831" ht="15.75" customHeight="1">
-      <c r="A1831" s="1"/>
-      <c r="B1831" s="1"/>
+      <c r="A1831" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1831" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1832" ht="15.75" customHeight="1">
-      <c r="A1832" s="1"/>
-      <c r="B1832" s="1"/>
+      <c r="A1832" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1832" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1833" ht="15.75" customHeight="1">
-      <c r="A1833" s="1"/>
-      <c r="B1833" s="1"/>
+      <c r="A1833" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1833" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1834" ht="15.75" customHeight="1">
-      <c r="A1834" s="1"/>
-      <c r="B1834" s="1"/>
+      <c r="A1834" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1834" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1835" ht="15.75" customHeight="1">
-      <c r="A1835" s="1"/>
-      <c r="B1835" s="1"/>
+      <c r="A1835" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1835" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1836" ht="15.75" customHeight="1">
-      <c r="A1836" s="1"/>
-      <c r="B1836" s="1"/>
+      <c r="A1836" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1836" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1837" ht="15.75" customHeight="1">
-      <c r="A1837" s="1"/>
-      <c r="B1837" s="1"/>
+      <c r="A1837" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1837" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1838" ht="15.75" customHeight="1">
-      <c r="A1838" s="1"/>
-      <c r="B1838" s="1"/>
+      <c r="A1838" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1838" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1839" ht="15.75" customHeight="1">
-      <c r="A1839" s="1"/>
-      <c r="B1839" s="1"/>
+      <c r="A1839" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1839" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1840" ht="15.75" customHeight="1">
-      <c r="A1840" s="1"/>
-      <c r="B1840" s="1"/>
+      <c r="A1840" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1840" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1841" ht="15.75" customHeight="1">
-      <c r="A1841" s="1"/>
-      <c r="B1841" s="1"/>
+      <c r="A1841" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1841" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1842" ht="15.75" customHeight="1">
-      <c r="A1842" s="1"/>
-      <c r="B1842" s="1"/>
+      <c r="A1842" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1842" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1843" ht="15.75" customHeight="1">
-      <c r="A1843" s="1"/>
-      <c r="B1843" s="1"/>
+      <c r="A1843" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1843" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1844" ht="15.75" customHeight="1">
-      <c r="A1844" s="1"/>
-      <c r="B1844" s="1"/>
+      <c r="A1844" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1844" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1845" ht="15.75" customHeight="1">
-      <c r="A1845" s="1"/>
-      <c r="B1845" s="1"/>
+      <c r="A1845" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1845" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1846" ht="15.75" customHeight="1">
-      <c r="A1846" s="1"/>
-      <c r="B1846" s="1"/>
+      <c r="A1846" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1846" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1847" ht="15.75" customHeight="1">
-      <c r="A1847" s="1"/>
-      <c r="B1847" s="1"/>
+      <c r="A1847" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1847" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1848" ht="15.75" customHeight="1">
-      <c r="A1848" s="1"/>
-      <c r="B1848" s="1"/>
+      <c r="A1848" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1848" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1849" ht="15.75" customHeight="1">
-      <c r="A1849" s="1"/>
-      <c r="B1849" s="1"/>
+      <c r="A1849" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1849" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1850" ht="15.75" customHeight="1">
-      <c r="A1850" s="1"/>
-      <c r="B1850" s="1"/>
+      <c r="A1850" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B1850" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1851" ht="15.75" customHeight="1">
-      <c r="A1851" s="1"/>
-      <c r="B1851" s="1"/>
+      <c r="A1851" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B1851" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1852" ht="15.75" customHeight="1">
-      <c r="A1852" s="1"/>
-      <c r="B1852" s="1"/>
+      <c r="A1852" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B1852" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1853" ht="15.75" customHeight="1">
-      <c r="A1853" s="1"/>
-      <c r="B1853" s="1"/>
+      <c r="A1853" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B1853" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1854" ht="15.75" customHeight="1">
-      <c r="A1854" s="1"/>
-      <c r="B1854" s="1"/>
+      <c r="A1854" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1854" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1855" ht="15.75" customHeight="1">
-      <c r="A1855" s="1"/>
-      <c r="B1855" s="1"/>
+      <c r="A1855" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1855" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1856" ht="15.75" customHeight="1">
-      <c r="A1856" s="1"/>
-      <c r="B1856" s="1"/>
+      <c r="A1856" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1856" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1857" ht="15.75" customHeight="1">
-      <c r="A1857" s="1"/>
-      <c r="B1857" s="1"/>
+      <c r="A1857" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1857" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1858" ht="15.75" customHeight="1">
-      <c r="A1858" s="1"/>
-      <c r="B1858" s="1"/>
+      <c r="A1858" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1858" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1859" ht="15.75" customHeight="1">
-      <c r="A1859" s="1"/>
-      <c r="B1859" s="1"/>
+      <c r="A1859" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1859" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1860" ht="15.75" customHeight="1">
-      <c r="A1860" s="1"/>
-      <c r="B1860" s="1"/>
+      <c r="A1860" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1860" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1861" ht="15.75" customHeight="1">
-      <c r="A1861" s="1"/>
-      <c r="B1861" s="1"/>
+      <c r="A1861" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B1861" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1862" ht="15.75" customHeight="1">
-      <c r="A1862" s="1"/>
-      <c r="B1862" s="1"/>
+      <c r="A1862" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1862" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1863" ht="15.75" customHeight="1">
-      <c r="A1863" s="1"/>
-      <c r="B1863" s="1"/>
+      <c r="A1863" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1863" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1864" ht="15.75" customHeight="1">
-      <c r="A1864" s="1"/>
-      <c r="B1864" s="1"/>
+      <c r="A1864" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1864" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1865" ht="15.75" customHeight="1">
-      <c r="A1865" s="1"/>
-      <c r="B1865" s="1"/>
+      <c r="A1865" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1865" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1866" ht="15.75" customHeight="1">
-      <c r="A1866" s="1"/>
-      <c r="B1866" s="1"/>
+      <c r="A1866" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1866" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1867" ht="15.75" customHeight="1">
-      <c r="A1867" s="1"/>
-      <c r="B1867" s="1"/>
+      <c r="A1867" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1867" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1868" ht="15.75" customHeight="1">
-      <c r="A1868" s="1"/>
-      <c r="B1868" s="1"/>
+      <c r="A1868" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1868" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1869" ht="15.75" customHeight="1">
-      <c r="A1869" s="1"/>
-      <c r="B1869" s="1"/>
+      <c r="A1869" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1869" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1870" ht="15.75" customHeight="1">
-      <c r="A1870" s="1"/>
-      <c r="B1870" s="1"/>
+      <c r="A1870" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1870" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1871" ht="15.75" customHeight="1">
-      <c r="A1871" s="1"/>
-      <c r="B1871" s="1"/>
+      <c r="A1871" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1871" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1872" ht="15.75" customHeight="1">
-      <c r="A1872" s="1"/>
-      <c r="B1872" s="1"/>
+      <c r="A1872" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B1872" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1873" ht="15.75" customHeight="1">
-      <c r="A1873" s="1"/>
-      <c r="B1873" s="1"/>
+      <c r="A1873" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B1873" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1874" ht="15.75" customHeight="1">
-      <c r="A1874" s="1"/>
-      <c r="B1874" s="1"/>
+      <c r="A1874" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B1874" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1875" ht="15.75" customHeight="1">
-      <c r="A1875" s="1"/>
-      <c r="B1875" s="1"/>
+      <c r="A1875" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1875" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1876" ht="15.75" customHeight="1">
-      <c r="A1876" s="1"/>
-      <c r="B1876" s="1"/>
+      <c r="A1876" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B1876" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1877" ht="15.75" customHeight="1">
-      <c r="A1877" s="1"/>
-      <c r="B1877" s="1"/>
+      <c r="A1877" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B1877" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1878" ht="15.75" customHeight="1">
-      <c r="A1878" s="1"/>
-      <c r="B1878" s="1"/>
+      <c r="A1878" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1878" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1879" ht="15.75" customHeight="1">
-      <c r="A1879" s="1"/>
-      <c r="B1879" s="1"/>
+      <c r="A1879" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B1879" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1880" ht="15.75" customHeight="1">
-      <c r="A1880" s="1"/>
-      <c r="B1880" s="1"/>
+      <c r="A1880" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1880" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1881" ht="15.75" customHeight="1">
-      <c r="A1881" s="1"/>
-      <c r="B1881" s="1"/>
+      <c r="A1881" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B1881" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1882" ht="15.75" customHeight="1">
-      <c r="A1882" s="1"/>
-      <c r="B1882" s="1"/>
+      <c r="A1882" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1882" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1883" ht="15.75" customHeight="1">
-      <c r="A1883" s="1"/>
-      <c r="B1883" s="1"/>
+      <c r="A1883" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B1883" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1884" ht="15.75" customHeight="1">
-      <c r="A1884" s="1"/>
-      <c r="B1884" s="1"/>
+      <c r="A1884" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B1884" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1885" ht="15.75" customHeight="1">
-      <c r="A1885" s="1"/>
-      <c r="B1885" s="1"/>
+      <c r="A1885" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1885" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1886" ht="15.75" customHeight="1">
-      <c r="A1886" s="1"/>
-      <c r="B1886" s="1"/>
+      <c r="A1886" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B1886" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1887" ht="15.75" customHeight="1">
-      <c r="A1887" s="1"/>
-      <c r="B1887" s="1"/>
+      <c r="A1887" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1887" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1888" ht="15.75" customHeight="1">
-      <c r="A1888" s="1"/>
-      <c r="B1888" s="1"/>
+      <c r="A1888" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B1888" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1889" ht="15.75" customHeight="1">
-      <c r="A1889" s="1"/>
-      <c r="B1889" s="1"/>
+      <c r="A1889" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B1889" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1890" ht="15.75" customHeight="1">
-      <c r="A1890" s="1"/>
-      <c r="B1890" s="1"/>
+      <c r="A1890" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B1890" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1891" ht="15.75" customHeight="1">
-      <c r="A1891" s="1"/>
-      <c r="B1891" s="1"/>
+      <c r="A1891" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B1891" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1892" ht="15.75" customHeight="1">
-      <c r="A1892" s="1"/>
-      <c r="B1892" s="1"/>
+      <c r="A1892" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B1892" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1893" ht="15.75" customHeight="1">
-      <c r="A1893" s="1"/>
-      <c r="B1893" s="1"/>
+      <c r="A1893" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B1893" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1894" ht="15.75" customHeight="1">
-      <c r="A1894" s="1"/>
-      <c r="B1894" s="1"/>
+      <c r="A1894" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1894" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1895" ht="15.75" customHeight="1">
-      <c r="A1895" s="1"/>
-      <c r="B1895" s="1"/>
+      <c r="A1895" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B1895" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1896" ht="15.75" customHeight="1">
-      <c r="A1896" s="1"/>
-      <c r="B1896" s="1"/>
+      <c r="A1896" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B1896" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1897" ht="15.75" customHeight="1">
-      <c r="A1897" s="1"/>
-      <c r="B1897" s="1"/>
+      <c r="A1897" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1897" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1898" ht="15.75" customHeight="1">
-      <c r="A1898" s="1"/>
-      <c r="B1898" s="1"/>
+      <c r="A1898" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B1898" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1899" ht="15.75" customHeight="1">
-      <c r="A1899" s="1"/>
-      <c r="B1899" s="1"/>
+      <c r="A1899" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B1899" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1900" ht="15.75" customHeight="1">
-      <c r="A1900" s="1"/>
-      <c r="B1900" s="1"/>
+      <c r="A1900" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1900" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1901" ht="15.75" customHeight="1">
-      <c r="A1901" s="1"/>
-      <c r="B1901" s="1"/>
+      <c r="A1901" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B1901" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1902" ht="15.75" customHeight="1">
-      <c r="A1902" s="1"/>
-      <c r="B1902" s="1"/>
+      <c r="A1902" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1902" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1903" ht="15.75" customHeight="1">
-      <c r="A1903" s="1"/>
-      <c r="B1903" s="1"/>
+      <c r="A1903" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1903" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1904" ht="15.75" customHeight="1">
-      <c r="A1904" s="1"/>
-      <c r="B1904" s="1"/>
+      <c r="A1904" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1904" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1905" ht="15.75" customHeight="1">
-      <c r="A1905" s="1"/>
-      <c r="B1905" s="1"/>
+      <c r="A1905" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1905" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1906" ht="15.75" customHeight="1">
-      <c r="A1906" s="1"/>
-      <c r="B1906" s="1"/>
+      <c r="A1906" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1906" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1907" ht="15.75" customHeight="1">
-      <c r="A1907" s="1"/>
-      <c r="B1907" s="1"/>
+      <c r="A1907" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1907" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1908" ht="15.75" customHeight="1">
-      <c r="A1908" s="1"/>
-      <c r="B1908" s="1"/>
+      <c r="A1908" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B1908" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1909" ht="15.75" customHeight="1">
-      <c r="A1909" s="1"/>
-      <c r="B1909" s="1"/>
+      <c r="A1909" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B1909" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1910" ht="15.75" customHeight="1">
-      <c r="A1910" s="1"/>
-      <c r="B1910" s="1"/>
+      <c r="A1910" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B1910" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1911" ht="15.75" customHeight="1">
-      <c r="A1911" s="1"/>
-      <c r="B1911" s="1"/>
+      <c r="A1911" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B1911" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1912" ht="15.75" customHeight="1">
-      <c r="A1912" s="1"/>
-      <c r="B1912" s="1"/>
+      <c r="A1912" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1912" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1913" ht="15.75" customHeight="1">
-      <c r="A1913" s="1"/>
-      <c r="B1913" s="1"/>
+      <c r="A1913" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B1913" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1914" ht="15.75" customHeight="1">
-      <c r="A1914" s="1"/>
-      <c r="B1914" s="1"/>
+      <c r="A1914" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1914" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1915" ht="15.75" customHeight="1">
-      <c r="A1915" s="1"/>
-      <c r="B1915" s="1"/>
+      <c r="A1915" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1915" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1916" ht="15.75" customHeight="1">
-      <c r="A1916" s="1"/>
-      <c r="B1916" s="1"/>
+      <c r="A1916" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1916" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1917" ht="15.75" customHeight="1">
-      <c r="A1917" s="1"/>
-      <c r="B1917" s="1"/>
+      <c r="A1917" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1917" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1918" ht="15.75" customHeight="1">
-      <c r="A1918" s="1"/>
-      <c r="B1918" s="1"/>
+      <c r="A1918" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B1918" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1919" ht="15.75" customHeight="1">
-      <c r="A1919" s="1"/>
-      <c r="B1919" s="1"/>
+      <c r="A1919" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B1919" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1920" ht="15.75" customHeight="1">
-      <c r="A1920" s="1"/>
-      <c r="B1920" s="1"/>
+      <c r="A1920" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B1920" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1921" ht="15.75" customHeight="1">
-      <c r="A1921" s="1"/>
-      <c r="B1921" s="1"/>
+      <c r="A1921" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1921" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1922" ht="15.75" customHeight="1">
-      <c r="A1922" s="1"/>
-      <c r="B1922" s="1"/>
+      <c r="A1922" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B1922" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1923" ht="15.75" customHeight="1">
-      <c r="A1923" s="1"/>
-      <c r="B1923" s="1"/>
+      <c r="A1923" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1923" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1924" ht="15.75" customHeight="1">
-      <c r="A1924" s="1"/>
-      <c r="B1924" s="1"/>
+      <c r="A1924" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B1924" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1925" ht="15.75" customHeight="1">
-      <c r="A1925" s="1"/>
-      <c r="B1925" s="1"/>
+      <c r="A1925" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1925" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1926" ht="15.75" customHeight="1">
-      <c r="A1926" s="1"/>
-      <c r="B1926" s="1"/>
+      <c r="A1926" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B1926" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1927" ht="15.75" customHeight="1">
-      <c r="A1927" s="1"/>
-      <c r="B1927" s="1"/>
+      <c r="A1927" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B1927" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1928" ht="15.75" customHeight="1">
-      <c r="A1928" s="1"/>
-      <c r="B1928" s="1"/>
+      <c r="A1928" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1928" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1929" ht="15.75" customHeight="1">
-      <c r="A1929" s="1"/>
-      <c r="B1929" s="1"/>
+      <c r="A1929" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B1929" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1930" ht="15.75" customHeight="1">
-      <c r="A1930" s="1"/>
-      <c r="B1930" s="1"/>
+      <c r="A1930" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B1930" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1931" ht="15.75" customHeight="1">
-      <c r="A1931" s="1"/>
-      <c r="B1931" s="1"/>
+      <c r="A1931" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1931" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1932" ht="15.75" customHeight="1">
-      <c r="A1932" s="1"/>
-      <c r="B1932" s="1"/>
+      <c r="A1932" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B1932" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1933" ht="15.75" customHeight="1">
-      <c r="A1933" s="1"/>
-      <c r="B1933" s="1"/>
+      <c r="A1933" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B1933" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1934" ht="15.75" customHeight="1">
-      <c r="A1934" s="1"/>
-      <c r="B1934" s="1"/>
+      <c r="A1934" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1934" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1935" ht="15.75" customHeight="1">
-      <c r="A1935" s="1"/>
-      <c r="B1935" s="1"/>
+      <c r="A1935" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1935" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1936" ht="15.75" customHeight="1">
-      <c r="A1936" s="1"/>
-      <c r="B1936" s="1"/>
+      <c r="A1936" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1936" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1937" ht="15.75" customHeight="1">
-      <c r="A1937" s="1"/>
-      <c r="B1937" s="1"/>
+      <c r="A1937" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B1937" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1938" ht="15.75" customHeight="1">
-      <c r="A1938" s="1"/>
-      <c r="B1938" s="1"/>
+      <c r="A1938" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1938" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1939" ht="15.75" customHeight="1">
-      <c r="A1939" s="1"/>
-      <c r="B1939" s="1"/>
+      <c r="A1939" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1939" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1940" ht="15.75" customHeight="1">
-      <c r="A1940" s="1"/>
-      <c r="B1940" s="1"/>
+      <c r="A1940" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B1940" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1941" ht="15.75" customHeight="1">
-      <c r="A1941" s="1"/>
-      <c r="B1941" s="1"/>
+      <c r="A1941" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1941" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1942" ht="15.75" customHeight="1">
-      <c r="A1942" s="1"/>
-      <c r="B1942" s="1"/>
+      <c r="A1942" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B1942" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1943" ht="15.75" customHeight="1">
-      <c r="A1943" s="1"/>
-      <c r="B1943" s="1"/>
+      <c r="A1943" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B1943" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1944" ht="15.75" customHeight="1">
-      <c r="A1944" s="1"/>
-      <c r="B1944" s="1"/>
+      <c r="A1944" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B1944" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1945" ht="15.75" customHeight="1">
-      <c r="A1945" s="1"/>
-      <c r="B1945" s="1"/>
+      <c r="A1945" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1945" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1946" ht="15.75" customHeight="1">
-      <c r="A1946" s="1"/>
-      <c r="B1946" s="1"/>
+      <c r="A1946" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B1946" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1947" ht="15.75" customHeight="1">
-      <c r="A1947" s="1"/>
-      <c r="B1947" s="1"/>
+      <c r="A1947" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1947" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1948" ht="15.75" customHeight="1">
-      <c r="A1948" s="1"/>
-      <c r="B1948" s="1"/>
+      <c r="A1948" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1948" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1949" ht="15.75" customHeight="1">
-      <c r="A1949" s="1"/>
-      <c r="B1949" s="1"/>
+      <c r="A1949" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B1949" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1950" ht="15.75" customHeight="1">
-      <c r="A1950" s="1"/>
-      <c r="B1950" s="1"/>
+      <c r="A1950" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1950" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1951" ht="15.75" customHeight="1">
-      <c r="A1951" s="1"/>
-      <c r="B1951" s="1"/>
+      <c r="A1951" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1951" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1952" ht="15.75" customHeight="1">
-      <c r="A1952" s="1"/>
-      <c r="B1952" s="1"/>
+      <c r="A1952" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1952" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1953" ht="15.75" customHeight="1">
-      <c r="A1953" s="1"/>
-      <c r="B1953" s="1"/>
+      <c r="A1953" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1953" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1954" ht="15.75" customHeight="1">
-      <c r="A1954" s="1"/>
-      <c r="B1954" s="1"/>
+      <c r="A1954" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1954" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1955" ht="15.75" customHeight="1">
-      <c r="A1955" s="1"/>
-      <c r="B1955" s="1"/>
+      <c r="A1955" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B1955" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1956" ht="15.75" customHeight="1">
-      <c r="A1956" s="1"/>
-      <c r="B1956" s="1"/>
+      <c r="A1956" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1956" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1957" ht="15.75" customHeight="1">
-      <c r="A1957" s="1"/>
-      <c r="B1957" s="1"/>
+      <c r="A1957" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1957" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1958" ht="15.75" customHeight="1">
-      <c r="A1958" s="1"/>
-      <c r="B1958" s="1"/>
+      <c r="A1958" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B1958" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1959" ht="15.75" customHeight="1">
-      <c r="A1959" s="1"/>
-      <c r="B1959" s="1"/>
+      <c r="A1959" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1959" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1960" ht="15.75" customHeight="1">
-      <c r="A1960" s="1"/>
-      <c r="B1960" s="1"/>
+      <c r="A1960" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1960" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1961" ht="15.75" customHeight="1">
-      <c r="A1961" s="1"/>
-      <c r="B1961" s="1"/>
+      <c r="A1961" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B1961" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1962" ht="15.75" customHeight="1">
-      <c r="A1962" s="1"/>
-      <c r="B1962" s="1"/>
+      <c r="A1962" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B1962" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1963" ht="15.75" customHeight="1">
-      <c r="A1963" s="1"/>
-      <c r="B1963" s="1"/>
+      <c r="A1963" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B1963" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1964" ht="15.75" customHeight="1">
-      <c r="A1964" s="1"/>
-      <c r="B1964" s="1"/>
+      <c r="A1964" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1964" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1965" ht="15.75" customHeight="1">
-      <c r="A1965" s="1"/>
-      <c r="B1965" s="1"/>
+      <c r="A1965" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1965" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1966" ht="15.75" customHeight="1">
-      <c r="A1966" s="1"/>
-      <c r="B1966" s="1"/>
+      <c r="A1966" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B1966" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1967" ht="15.75" customHeight="1">
-      <c r="A1967" s="1"/>
-      <c r="B1967" s="1"/>
+      <c r="A1967" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1967" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1968" ht="15.75" customHeight="1">
-      <c r="A1968" s="1"/>
-      <c r="B1968" s="1"/>
+      <c r="A1968" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B1968" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1969" ht="15.75" customHeight="1">
-      <c r="A1969" s="1"/>
-      <c r="B1969" s="1"/>
+      <c r="A1969" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1969" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1970" ht="15.75" customHeight="1">
-      <c r="A1970" s="1"/>
-      <c r="B1970" s="1"/>
+      <c r="A1970" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B1970" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1971" ht="15.75" customHeight="1">
-      <c r="A1971" s="1"/>
-      <c r="B1971" s="1"/>
+      <c r="A1971" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1971" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1972" ht="15.75" customHeight="1">
-      <c r="A1972" s="1"/>
-      <c r="B1972" s="1"/>
+      <c r="A1972" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B1972" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1973" ht="15.75" customHeight="1">
-      <c r="A1973" s="1"/>
-      <c r="B1973" s="1"/>
+      <c r="A1973" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1973" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1974" ht="15.75" customHeight="1">
-      <c r="A1974" s="1"/>
-      <c r="B1974" s="1"/>
+      <c r="A1974" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B1974" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1975" ht="15.75" customHeight="1">
-      <c r="A1975" s="1"/>
-      <c r="B1975" s="1"/>
+      <c r="A1975" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B1975" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1976" ht="15.75" customHeight="1">
-      <c r="A1976" s="1"/>
-      <c r="B1976" s="1"/>
+      <c r="A1976" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B1976" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1977" ht="15.75" customHeight="1">
-      <c r="A1977" s="1"/>
-      <c r="B1977" s="1"/>
+      <c r="A1977" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1977" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1978" ht="15.75" customHeight="1">
-      <c r="A1978" s="1"/>
-      <c r="B1978" s="1"/>
+      <c r="A1978" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B1978" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1979" ht="15.75" customHeight="1">
-      <c r="A1979" s="1"/>
-      <c r="B1979" s="1"/>
+      <c r="A1979" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1979" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1980" ht="15.75" customHeight="1">
-      <c r="A1980" s="1"/>
-      <c r="B1980" s="1"/>
+      <c r="A1980" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B1980" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1981" ht="15.75" customHeight="1">
-      <c r="A1981" s="1"/>
-      <c r="B1981" s="1"/>
+      <c r="A1981" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B1981" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1982" ht="15.75" customHeight="1">
-      <c r="A1982" s="1"/>
-      <c r="B1982" s="1"/>
+      <c r="A1982" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B1982" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1983" ht="15.75" customHeight="1">
-      <c r="A1983" s="1"/>
-      <c r="B1983" s="1"/>
+      <c r="A1983" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1983" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1984" ht="15.75" customHeight="1">
-      <c r="A1984" s="1"/>
-      <c r="B1984" s="1"/>
+      <c r="A1984" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B1984" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1985" ht="15.75" customHeight="1">
-      <c r="A1985" s="1"/>
-      <c r="B1985" s="1"/>
+      <c r="A1985" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B1985" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1986" ht="15.75" customHeight="1">
-      <c r="A1986" s="1"/>
-      <c r="B1986" s="1"/>
+      <c r="A1986" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B1986" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1987" ht="15.75" customHeight="1">
-      <c r="A1987" s="1"/>
-      <c r="B1987" s="1"/>
+      <c r="A1987" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B1987" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1988" ht="15.75" customHeight="1">
-      <c r="A1988" s="1"/>
-      <c r="B1988" s="1"/>
+      <c r="A1988" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B1988" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1989" ht="15.75" customHeight="1">
-      <c r="A1989" s="1"/>
-      <c r="B1989" s="1"/>
+      <c r="A1989" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1989" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1990" ht="15.75" customHeight="1">
-      <c r="A1990" s="1"/>
-      <c r="B1990" s="1"/>
+      <c r="A1990" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1990" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1991" ht="15.75" customHeight="1">
-      <c r="A1991" s="1"/>
-      <c r="B1991" s="1"/>
+      <c r="A1991" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1991" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1992" ht="15.75" customHeight="1">
-      <c r="A1992" s="1"/>
-      <c r="B1992" s="1"/>
+      <c r="A1992" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1992" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1993" ht="15.75" customHeight="1">
-      <c r="A1993" s="1"/>
-      <c r="B1993" s="1"/>
+      <c r="A1993" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1993" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1994" ht="15.75" customHeight="1">
-      <c r="A1994" s="1"/>
-      <c r="B1994" s="1"/>
+      <c r="A1994" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B1994" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1995" ht="15.75" customHeight="1">
-      <c r="A1995" s="1"/>
-      <c r="B1995" s="1"/>
+      <c r="A1995" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1995" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1996" ht="15.75" customHeight="1">
-      <c r="A1996" s="1"/>
-      <c r="B1996" s="1"/>
+      <c r="A1996" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1996" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1997" ht="15.75" customHeight="1">
-      <c r="A1997" s="1"/>
-      <c r="B1997" s="1"/>
+      <c r="A1997" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1997" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1998" ht="15.75" customHeight="1">
-      <c r="A1998" s="1"/>
-      <c r="B1998" s="1"/>
+      <c r="A1998" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B1998" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1999" ht="15.75" customHeight="1">
-      <c r="A1999" s="1"/>
-      <c r="B1999" s="1"/>
+      <c r="A1999" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1999" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="2000" ht="15.75" customHeight="1">
-      <c r="A2000" s="1"/>
-      <c r="B2000" s="1"/>
+      <c r="A2000" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B2000" s="1" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="2001" ht="15.75" customHeight="1">
-      <c r="A2001" s="1"/>
-      <c r="B2001" s="1"/>
+      <c r="A2001" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B2001" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="2002" ht="15.75" customHeight="1">
-      <c r="A2002" s="1"/>
-      <c r="B2002" s="1"/>
+      <c r="A2002" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B2002" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="2003" ht="15.75" customHeight="1">
-      <c r="A2003" s="1"/>
-      <c r="B2003" s="1"/>
+      <c r="A2003" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B2003" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="2004" ht="15.75" customHeight="1">
-      <c r="A2004" s="1"/>
-      <c r="B2004" s="1"/>
+      <c r="A2004" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B2004" s="1" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="2005" ht="15.75" customHeight="1">
-      <c r="A2005" s="1"/>
-      <c r="B2005" s="1"/>
+      <c r="A2005" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B2005" s="1" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="2006" ht="15.75" customHeight="1">
       <c r="A2006" s="1"/>

--- a/inst/time.xlsx
+++ b/inst/time.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4010" uniqueCount="2037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4454" uniqueCount="2271">
   <si>
     <t>City</t>
   </si>
@@ -6122,6 +6122,708 @@
   </si>
   <si>
     <t>Zárate</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Fri 2:49 am</t>
+  </si>
+  <si>
+    <t>Adamstown</t>
+  </si>
+  <si>
+    <t>Thu 8:49 am</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
+  </si>
+  <si>
+    <t>Fri 2:19 am</t>
+  </si>
+  <si>
+    <t>Aitutaki</t>
+  </si>
+  <si>
+    <t>Thu 6:49 am</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>Fri 12:49 am</t>
+  </si>
+  <si>
+    <t>Albury</t>
+  </si>
+  <si>
+    <t>Alice Springs</t>
+  </si>
+  <si>
+    <t>Alofi</t>
+  </si>
+  <si>
+    <t>Thu 5:49 am</t>
+  </si>
+  <si>
+    <t>Apia</t>
+  </si>
+  <si>
+    <t>Fri 5:49 am</t>
+  </si>
+  <si>
+    <t>Ararat</t>
+  </si>
+  <si>
+    <t>Arawa</t>
+  </si>
+  <si>
+    <t>Fri 3:49 am</t>
+  </si>
+  <si>
+    <t>Armidale</t>
+  </si>
+  <si>
+    <t>Atafu</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>Fri 4:49 am</t>
+  </si>
+  <si>
+    <t>Bairnsdale</t>
+  </si>
+  <si>
+    <t>Baker Island</t>
+  </si>
+  <si>
+    <t>Thu 4:49 am</t>
+  </si>
+  <si>
+    <t>Ballarat</t>
+  </si>
+  <si>
+    <t>Ballina</t>
+  </si>
+  <si>
+    <t>Bantam</t>
+  </si>
+  <si>
+    <t>Thu 11:19 pm</t>
+  </si>
+  <si>
+    <t>Bathurst</t>
+  </si>
+  <si>
+    <t>Bendigo</t>
+  </si>
+  <si>
+    <t>Birdsville</t>
+  </si>
+  <si>
+    <t>Blacktown</t>
+  </si>
+  <si>
+    <t>Blenheim</t>
+  </si>
+  <si>
+    <t>Bluff</t>
+  </si>
+  <si>
+    <t>Bourke</t>
+  </si>
+  <si>
+    <t>Bowral</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>Broken Hill</t>
+  </si>
+  <si>
+    <t>Broome</t>
+  </si>
+  <si>
+    <t>Buka</t>
+  </si>
+  <si>
+    <t>Bunbury</t>
+  </si>
+  <si>
+    <t>Bundaberg</t>
+  </si>
+  <si>
+    <t>Byron Bay</t>
+  </si>
+  <si>
+    <t>Cairns</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Campbelltown</t>
+  </si>
+  <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>Canterbury</t>
+  </si>
+  <si>
+    <t>Carnarvon</t>
+  </si>
+  <si>
+    <t>Ceduna</t>
+  </si>
+  <si>
+    <t>Charleville</t>
+  </si>
+  <si>
+    <t>Charters Towers</t>
+  </si>
+  <si>
+    <t>Chatham Islands</t>
+  </si>
+  <si>
+    <t>Fri 5:34 am</t>
+  </si>
+  <si>
+    <t>Christchurch</t>
+  </si>
+  <si>
+    <t>Clipperton Island</t>
+  </si>
+  <si>
+    <t>Cobar</t>
+  </si>
+  <si>
+    <t>Coffs Harbour</t>
+  </si>
+  <si>
+    <t>Colonia</t>
+  </si>
+  <si>
+    <t>Coober Pedy</t>
+  </si>
+  <si>
+    <t>Currie</t>
+  </si>
+  <si>
+    <t>Curtin Springs</t>
+  </si>
+  <si>
+    <t>Dalby</t>
+  </si>
+  <si>
+    <t>Darlinghurst</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>Dubbo</t>
+  </si>
+  <si>
+    <t>Dunedin</t>
+  </si>
+  <si>
+    <t>Echuca</t>
+  </si>
+  <si>
+    <t>Eden</t>
+  </si>
+  <si>
+    <t>Esperance</t>
+  </si>
+  <si>
+    <t>Eucla</t>
+  </si>
+  <si>
+    <t>Fri 1:34 am</t>
+  </si>
+  <si>
+    <t>Exmouth</t>
+  </si>
+  <si>
+    <t>Fakaofo</t>
+  </si>
+  <si>
+    <t>Frankston</t>
+  </si>
+  <si>
+    <t>Funafuti</t>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+  </si>
+  <si>
+    <t>Thu 7:49 am</t>
+  </si>
+  <si>
+    <t>Geelong</t>
+  </si>
+  <si>
+    <t>Geraldton</t>
+  </si>
+  <si>
+    <t>Gisborne</t>
+  </si>
+  <si>
+    <t>Gizo</t>
+  </si>
+  <si>
+    <t>Gold Coast</t>
+  </si>
+  <si>
+    <t>Gordonvale</t>
+  </si>
+  <si>
+    <t>Gosford</t>
+  </si>
+  <si>
+    <t>Goulburn</t>
+  </si>
+  <si>
+    <t>Grafton</t>
+  </si>
+  <si>
+    <t>Greymouth</t>
+  </si>
+  <si>
+    <t>Griffith</t>
+  </si>
+  <si>
+    <t>Halls Creek</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Hervey Bay</t>
+  </si>
+  <si>
+    <t>Hikurangi</t>
+  </si>
+  <si>
+    <t>Hobart</t>
+  </si>
+  <si>
+    <t>Honiara</t>
+  </si>
+  <si>
+    <t>Horsham</t>
+  </si>
+  <si>
+    <t>Howland Island</t>
+  </si>
+  <si>
+    <t>Invercargill</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Kaikohe</t>
+  </si>
+  <si>
+    <t>Kalgoorlie</t>
+  </si>
+  <si>
+    <t>Kanton Island</t>
+  </si>
+  <si>
+    <t>Kapolei</t>
+  </si>
+  <si>
+    <t>Karratha</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>Katoomba</t>
+  </si>
+  <si>
+    <t>Kerikeri</t>
+  </si>
+  <si>
+    <t>Kiama</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>Kiritimati</t>
+  </si>
+  <si>
+    <t>Fri 6:49 am</t>
+  </si>
+  <si>
+    <t>Kolonia</t>
+  </si>
+  <si>
+    <t>Koror</t>
+  </si>
+  <si>
+    <t>Fri 1:49 am</t>
+  </si>
+  <si>
+    <t>Kwajalein</t>
+  </si>
+  <si>
+    <t>Kyneton</t>
+  </si>
+  <si>
+    <t>Labasa</t>
+  </si>
+  <si>
+    <t>Lae</t>
+  </si>
+  <si>
+    <t>Launceston</t>
+  </si>
+  <si>
+    <t>Lautoka</t>
+  </si>
+  <si>
+    <t>Leeton</t>
+  </si>
+  <si>
+    <t>Levuka</t>
+  </si>
+  <si>
+    <t>Lihue</t>
+  </si>
+  <si>
+    <t>Lindeman Island</t>
+  </si>
+  <si>
+    <t>Lismore</t>
+  </si>
+  <si>
+    <t>Longreach</t>
+  </si>
+  <si>
+    <t>Lord Howe Island</t>
+  </si>
+  <si>
+    <t>Fri 3:19 am</t>
+  </si>
+  <si>
+    <t>Luganville</t>
+  </si>
+  <si>
+    <t>Mackay</t>
+  </si>
+  <si>
+    <t>Macquarie Island</t>
+  </si>
+  <si>
+    <t>Majuro</t>
+  </si>
+  <si>
+    <t>Mandurah</t>
+  </si>
+  <si>
+    <t>Mata-Utu</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Melekeok</t>
+  </si>
+  <si>
+    <t>Melton</t>
+  </si>
+  <si>
+    <t>Midway</t>
+  </si>
+  <si>
+    <t>Mildura</t>
+  </si>
+  <si>
+    <t>Moree</t>
+  </si>
+  <si>
+    <t>Mosman</t>
+  </si>
+  <si>
+    <t>Mount Gambier</t>
+  </si>
+  <si>
+    <t>Mount Hagen</t>
+  </si>
+  <si>
+    <t>Mount Isa</t>
+  </si>
+  <si>
+    <t>Mudgee</t>
+  </si>
+  <si>
+    <t>Nadi</t>
+  </si>
+  <si>
+    <t>Napier</t>
+  </si>
+  <si>
+    <t>Napili-Honokowai</t>
+  </si>
+  <si>
+    <t>Neiafu</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>New Plymouth</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Newman</t>
+  </si>
+  <si>
+    <t>Ngerulmud</t>
+  </si>
+  <si>
+    <t>Norah Head</t>
+  </si>
+  <si>
+    <t>Normanton</t>
+  </si>
+  <si>
+    <t>Noumea</t>
+  </si>
+  <si>
+    <t>Nowra</t>
+  </si>
+  <si>
+    <t>Nuku'alofa</t>
+  </si>
+  <si>
+    <t>Oamaru</t>
+  </si>
+  <si>
+    <t>Oban</t>
+  </si>
+  <si>
+    <t>Oodnadatta</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Pago Pago</t>
+  </si>
+  <si>
+    <t>Palikir</t>
+  </si>
+  <si>
+    <t>Palmerston North</t>
+  </si>
+  <si>
+    <t>Palmyra Atoll</t>
+  </si>
+  <si>
+    <t>Pangai</t>
+  </si>
+  <si>
+    <t>Papeete</t>
+  </si>
+  <si>
+    <t>Paraparaumu</t>
+  </si>
+  <si>
+    <t>Parkes</t>
+  </si>
+  <si>
+    <t>Pennant Hills</t>
+  </si>
+  <si>
+    <t>Penrith</t>
+  </si>
+  <si>
+    <t>Perth</t>
+  </si>
+  <si>
+    <t>Port Hedland</t>
+  </si>
+  <si>
+    <t>Port Lincoln</t>
+  </si>
+  <si>
+    <t>Port Macquarie</t>
+  </si>
+  <si>
+    <t>Port Moresby</t>
+  </si>
+  <si>
+    <t>Port Vila</t>
+  </si>
+  <si>
+    <t>Queenstown</t>
+  </si>
+  <si>
+    <t>Rabaul</t>
+  </si>
+  <si>
+    <t>Ranfurly</t>
+  </si>
+  <si>
+    <t>Rarotonga</t>
+  </si>
+  <si>
+    <t>Rawaki</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Rockhampton</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Rotorua</t>
+  </si>
+  <si>
+    <t>Salelologa (Savai'i)</t>
+  </si>
+  <si>
+    <t>Samford</t>
+  </si>
+  <si>
+    <t>Shepparton</t>
+  </si>
+  <si>
+    <t>Sigatoka</t>
+  </si>
+  <si>
+    <t>St Arnaud</t>
+  </si>
+  <si>
+    <t>Sunshine Coast</t>
+  </si>
+  <si>
+    <t>Suva</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Tabiteuea</t>
+  </si>
+  <si>
+    <t>Taiohae</t>
+  </si>
+  <si>
+    <t>Thu 7:19 am</t>
+  </si>
+  <si>
+    <t>Tamworth</t>
+  </si>
+  <si>
+    <t>Tarawa</t>
+  </si>
+  <si>
+    <t>Taupo</t>
+  </si>
+  <si>
+    <t>Tauranga</t>
+  </si>
+  <si>
+    <t>Te Awamutu</t>
+  </si>
+  <si>
+    <t>Tennant Creek</t>
+  </si>
+  <si>
+    <t>Timaru</t>
+  </si>
+  <si>
+    <t>Tofol</t>
+  </si>
+  <si>
+    <t>Toowoomba</t>
+  </si>
+  <si>
+    <t>Torrensville</t>
+  </si>
+  <si>
+    <t>Townsville</t>
+  </si>
+  <si>
+    <t>Traralgon</t>
+  </si>
+  <si>
+    <t>Tubou</t>
+  </si>
+  <si>
+    <t>Tweed Heads</t>
+  </si>
+  <si>
+    <t>Uluru</t>
+  </si>
+  <si>
+    <t>Vaitape (Bora Bora)</t>
+  </si>
+  <si>
+    <t>Wagga Wagga</t>
+  </si>
+  <si>
+    <t>Waipahu</t>
+  </si>
+  <si>
+    <t>Waitangi</t>
+  </si>
+  <si>
+    <t>Warragul</t>
+  </si>
+  <si>
+    <t>Warrnambool</t>
+  </si>
+  <si>
+    <t>Weipa</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>Weno</t>
+  </si>
+  <si>
+    <t>Whakatane</t>
+  </si>
+  <si>
+    <t>Whanganui</t>
+  </si>
+  <si>
+    <t>Whangarei</t>
+  </si>
+  <si>
+    <t>Whitianga</t>
+  </si>
+  <si>
+    <t>Whyalla</t>
+  </si>
+  <si>
+    <t>Wiluna</t>
+  </si>
+  <si>
+    <t>Wodonga</t>
+  </si>
+  <si>
+    <t>Wollongong</t>
+  </si>
+  <si>
+    <t>Yaren</t>
   </si>
 </sst>
 </file>
@@ -22416,464 +23118,5352 @@
       </c>
     </row>
     <row r="2006" ht="15.75" customHeight="1">
-      <c r="A2006" s="1"/>
-      <c r="B2006" s="1"/>
+      <c r="A2006" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B2006" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2007" ht="15.75" customHeight="1">
-      <c r="A2007" s="1"/>
-      <c r="B2007" s="1"/>
+      <c r="A2007" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B2007" s="1" t="s">
+        <v>2040</v>
+      </c>
     </row>
     <row r="2008" ht="15.75" customHeight="1">
-      <c r="A2008" s="1"/>
-      <c r="B2008" s="1"/>
+      <c r="A2008" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B2008" s="1" t="s">
+        <v>2042</v>
+      </c>
     </row>
     <row r="2009" ht="15.75" customHeight="1">
-      <c r="A2009" s="1"/>
-      <c r="B2009" s="1"/>
+      <c r="A2009" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B2009" s="1" t="s">
+        <v>2044</v>
+      </c>
     </row>
     <row r="2010" ht="15.75" customHeight="1">
-      <c r="A2010" s="1"/>
-      <c r="B2010" s="1"/>
+      <c r="A2010" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B2010" s="1" t="s">
+        <v>2046</v>
+      </c>
     </row>
     <row r="2011" ht="15.75" customHeight="1">
-      <c r="A2011" s="1"/>
-      <c r="B2011" s="1"/>
+      <c r="A2011" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B2011" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2012" ht="15.75" customHeight="1">
-      <c r="A2012" s="1"/>
-      <c r="B2012" s="1"/>
+      <c r="A2012" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B2012" s="1" t="s">
+        <v>2042</v>
+      </c>
     </row>
     <row r="2013" ht="15.75" customHeight="1">
-      <c r="A2013" s="1"/>
-      <c r="B2013" s="1"/>
+      <c r="A2013" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B2013" s="1" t="s">
+        <v>2050</v>
+      </c>
     </row>
     <row r="2014" ht="15.75" customHeight="1">
-      <c r="A2014" s="1"/>
-      <c r="B2014" s="1"/>
+      <c r="A2014" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B2014" s="1" t="s">
+        <v>2052</v>
+      </c>
     </row>
     <row r="2015" ht="15.75" customHeight="1">
-      <c r="A2015" s="1"/>
-      <c r="B2015" s="1"/>
+      <c r="A2015" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B2015" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2016" ht="15.75" customHeight="1">
-      <c r="A2016" s="1"/>
-      <c r="B2016" s="1"/>
+      <c r="A2016" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B2016" s="1" t="s">
+        <v>2055</v>
+      </c>
     </row>
     <row r="2017" ht="15.75" customHeight="1">
-      <c r="A2017" s="1"/>
-      <c r="B2017" s="1"/>
+      <c r="A2017" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B2017" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2018" ht="15.75" customHeight="1">
-      <c r="A2018" s="1"/>
-      <c r="B2018" s="1"/>
+      <c r="A2018" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B2018" s="1" t="s">
+        <v>2052</v>
+      </c>
     </row>
     <row r="2019" ht="15.75" customHeight="1">
-      <c r="A2019" s="1"/>
-      <c r="B2019" s="1"/>
+      <c r="A2019" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B2019" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2020" ht="15.75" customHeight="1">
-      <c r="A2020" s="1"/>
-      <c r="B2020" s="1"/>
+      <c r="A2020" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B2020" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2021" ht="15.75" customHeight="1">
-      <c r="A2021" s="1"/>
-      <c r="B2021" s="1"/>
+      <c r="A2021" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B2021" s="1" t="s">
+        <v>2062</v>
+      </c>
     </row>
     <row r="2022" ht="15.75" customHeight="1">
-      <c r="A2022" s="1"/>
-      <c r="B2022" s="1"/>
+      <c r="A2022" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B2022" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2023" ht="15.75" customHeight="1">
-      <c r="A2023" s="1"/>
-      <c r="B2023" s="1"/>
+      <c r="A2023" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B2023" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2024" ht="15.75" customHeight="1">
-      <c r="A2024" s="1"/>
-      <c r="B2024" s="1"/>
+      <c r="A2024" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B2024" s="1" t="s">
+        <v>2066</v>
+      </c>
     </row>
     <row r="2025" ht="15.75" customHeight="1">
-      <c r="A2025" s="1"/>
-      <c r="B2025" s="1"/>
+      <c r="A2025" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B2025" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2026" ht="15.75" customHeight="1">
-      <c r="A2026" s="1"/>
-      <c r="B2026" s="1"/>
+      <c r="A2026" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B2026" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2027" ht="15.75" customHeight="1">
-      <c r="A2027" s="1"/>
-      <c r="B2027" s="1"/>
+      <c r="A2027" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B2027" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2028" ht="15.75" customHeight="1">
-      <c r="A2028" s="1"/>
-      <c r="B2028" s="1"/>
+      <c r="A2028" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B2028" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2029" ht="15.75" customHeight="1">
-      <c r="A2029" s="1"/>
-      <c r="B2029" s="1"/>
+      <c r="A2029" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B2029" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2030" ht="15.75" customHeight="1">
-      <c r="A2030" s="1"/>
-      <c r="B2030" s="1"/>
+      <c r="A2030" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B2030" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2031" ht="15.75" customHeight="1">
-      <c r="A2031" s="1"/>
-      <c r="B2031" s="1"/>
+      <c r="A2031" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B2031" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2032" ht="15.75" customHeight="1">
-      <c r="A2032" s="1"/>
-      <c r="B2032" s="1"/>
+      <c r="A2032" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B2032" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2033" ht="15.75" customHeight="1">
-      <c r="A2033" s="1"/>
-      <c r="B2033" s="1"/>
+      <c r="A2033" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B2033" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2034" ht="15.75" customHeight="1">
-      <c r="A2034" s="1"/>
-      <c r="B2034" s="1"/>
+      <c r="A2034" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B2034" s="1" t="s">
+        <v>2042</v>
+      </c>
     </row>
     <row r="2035" ht="15.75" customHeight="1">
-      <c r="A2035" s="1"/>
-      <c r="B2035" s="1"/>
+      <c r="A2035" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B2035" s="1" t="s">
+        <v>2046</v>
+      </c>
     </row>
     <row r="2036" ht="15.75" customHeight="1">
-      <c r="A2036" s="1"/>
-      <c r="B2036" s="1"/>
+      <c r="A2036" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B2036" s="1" t="s">
+        <v>2055</v>
+      </c>
     </row>
     <row r="2037" ht="15.75" customHeight="1">
-      <c r="A2037" s="1"/>
-      <c r="B2037" s="1"/>
+      <c r="A2037" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B2037" s="1" t="s">
+        <v>2046</v>
+      </c>
     </row>
     <row r="2038" ht="15.75" customHeight="1">
-      <c r="A2038" s="1"/>
-      <c r="B2038" s="1"/>
+      <c r="A2038" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B2038" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2039" ht="15.75" customHeight="1">
-      <c r="A2039" s="1"/>
-      <c r="B2039" s="1"/>
+      <c r="A2039" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B2039" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2040" ht="15.75" customHeight="1">
-      <c r="A2040" s="1"/>
-      <c r="B2040" s="1"/>
+      <c r="A2040" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B2040" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2041" ht="15.75" customHeight="1">
-      <c r="A2041" s="1"/>
-      <c r="B2041" s="1"/>
+      <c r="A2041" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B2041" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2042" ht="15.75" customHeight="1">
-      <c r="A2042" s="1"/>
-      <c r="B2042" s="1"/>
+      <c r="A2042" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B2042" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2043" ht="15.75" customHeight="1">
-      <c r="A2043" s="1"/>
-      <c r="B2043" s="1"/>
+      <c r="A2043" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B2043" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2044" ht="15.75" customHeight="1">
-      <c r="A2044" s="1"/>
-      <c r="B2044" s="1"/>
+      <c r="A2044" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B2044" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2045" ht="15.75" customHeight="1">
-      <c r="A2045" s="1"/>
-      <c r="B2045" s="1"/>
+      <c r="A2045" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B2045" s="1" t="s">
+        <v>2046</v>
+      </c>
     </row>
     <row r="2046" ht="15.75" customHeight="1">
-      <c r="A2046" s="1"/>
-      <c r="B2046" s="1"/>
+      <c r="A2046" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B2046" s="1" t="s">
+        <v>2042</v>
+      </c>
     </row>
     <row r="2047" ht="15.75" customHeight="1">
-      <c r="A2047" s="1"/>
-      <c r="B2047" s="1"/>
+      <c r="A2047" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B2047" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2048" ht="15.75" customHeight="1">
-      <c r="A2048" s="1"/>
-      <c r="B2048" s="1"/>
+      <c r="A2048" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B2048" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2049" ht="15.75" customHeight="1">
-      <c r="A2049" s="1"/>
-      <c r="B2049" s="1"/>
+      <c r="A2049" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B2049" s="1" t="s">
+        <v>2092</v>
+      </c>
     </row>
     <row r="2050" ht="15.75" customHeight="1">
-      <c r="A2050" s="1"/>
-      <c r="B2050" s="1"/>
+      <c r="A2050" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B2050" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2051" ht="15.75" customHeight="1">
-      <c r="A2051" s="1"/>
-      <c r="B2051" s="1"/>
+      <c r="A2051" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B2051" s="1" t="s">
+        <v>2040</v>
+      </c>
     </row>
     <row r="2052" ht="15.75" customHeight="1">
-      <c r="A2052" s="1"/>
-      <c r="B2052" s="1"/>
+      <c r="A2052" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B2052" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2053" ht="15.75" customHeight="1">
-      <c r="A2053" s="1"/>
-      <c r="B2053" s="1"/>
+      <c r="A2053" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B2053" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2054" ht="15.75" customHeight="1">
-      <c r="A2054" s="1"/>
-      <c r="B2054" s="1"/>
+      <c r="A2054" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B2054" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2055" ht="15.75" customHeight="1">
-      <c r="A2055" s="1"/>
-      <c r="B2055" s="1"/>
+      <c r="A2055" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B2055" s="1" t="s">
+        <v>2042</v>
+      </c>
     </row>
     <row r="2056" ht="15.75" customHeight="1">
-      <c r="A2056" s="1"/>
-      <c r="B2056" s="1"/>
+      <c r="A2056" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B2056" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2057" ht="15.75" customHeight="1">
-      <c r="A2057" s="1"/>
-      <c r="B2057" s="1"/>
+      <c r="A2057" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B2057" s="1" t="s">
+        <v>2042</v>
+      </c>
     </row>
     <row r="2058" ht="15.75" customHeight="1">
-      <c r="A2058" s="1"/>
-      <c r="B2058" s="1"/>
+      <c r="A2058" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B2058" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2059" ht="15.75" customHeight="1">
-      <c r="A2059" s="1"/>
-      <c r="B2059" s="1"/>
+      <c r="A2059" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B2059" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2060" ht="15.75" customHeight="1">
-      <c r="A2060" s="1"/>
-      <c r="B2060" s="1"/>
+      <c r="A2060" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B2060" s="1" t="s">
+        <v>2042</v>
+      </c>
     </row>
     <row r="2061" ht="15.75" customHeight="1">
-      <c r="A2061" s="1"/>
-      <c r="B2061" s="1"/>
+      <c r="A2061" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B2061" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2062" ht="15.75" customHeight="1">
-      <c r="A2062" s="1"/>
-      <c r="B2062" s="1"/>
+      <c r="A2062" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B2062" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2063" ht="15.75" customHeight="1">
-      <c r="A2063" s="1"/>
-      <c r="B2063" s="1"/>
+      <c r="A2063" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B2063" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2064" ht="15.75" customHeight="1">
-      <c r="A2064" s="1"/>
-      <c r="B2064" s="1"/>
+      <c r="A2064" s="1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B2064" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2065" ht="15.75" customHeight="1">
-      <c r="A2065" s="1"/>
-      <c r="B2065" s="1"/>
+      <c r="A2065" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B2065" s="1" t="s">
+        <v>2046</v>
+      </c>
     </row>
     <row r="2066" ht="15.75" customHeight="1">
-      <c r="A2066" s="1"/>
-      <c r="B2066" s="1"/>
+      <c r="A2066" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B2066" s="1" t="s">
+        <v>2110</v>
+      </c>
     </row>
     <row r="2067" ht="15.75" customHeight="1">
-      <c r="A2067" s="1"/>
-      <c r="B2067" s="1"/>
+      <c r="A2067" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B2067" s="1" t="s">
+        <v>2046</v>
+      </c>
     </row>
     <row r="2068" ht="15.75" customHeight="1">
-      <c r="A2068" s="1"/>
-      <c r="B2068" s="1"/>
+      <c r="A2068" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B2068" s="1" t="s">
+        <v>2052</v>
+      </c>
     </row>
     <row r="2069" ht="15.75" customHeight="1">
-      <c r="A2069" s="1"/>
-      <c r="B2069" s="1"/>
+      <c r="A2069" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B2069" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2070" ht="15.75" customHeight="1">
-      <c r="A2070" s="1"/>
-      <c r="B2070" s="1"/>
+      <c r="A2070" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B2070" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2071" ht="15.75" customHeight="1">
-      <c r="A2071" s="1"/>
-      <c r="B2071" s="1"/>
+      <c r="A2071" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B2071" s="1" t="s">
+        <v>2116</v>
+      </c>
     </row>
     <row r="2072" ht="15.75" customHeight="1">
-      <c r="A2072" s="1"/>
-      <c r="B2072" s="1"/>
+      <c r="A2072" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B2072" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2073" ht="15.75" customHeight="1">
-      <c r="A2073" s="1"/>
-      <c r="B2073" s="1"/>
+      <c r="A2073" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B2073" s="1" t="s">
+        <v>2046</v>
+      </c>
     </row>
     <row r="2074" ht="15.75" customHeight="1">
-      <c r="A2074" s="1"/>
-      <c r="B2074" s="1"/>
+      <c r="A2074" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B2074" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2075" ht="15.75" customHeight="1">
-      <c r="A2075" s="1"/>
-      <c r="B2075" s="1"/>
+      <c r="A2075" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B2075" s="1" t="s">
+        <v>2055</v>
+      </c>
     </row>
     <row r="2076" ht="15.75" customHeight="1">
-      <c r="A2076" s="1"/>
-      <c r="B2076" s="1"/>
+      <c r="A2076" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B2076" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2077" ht="15.75" customHeight="1">
-      <c r="A2077" s="1"/>
-      <c r="B2077" s="1"/>
+      <c r="A2077" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B2077" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2078" ht="15.75" customHeight="1">
-      <c r="A2078" s="1"/>
-      <c r="B2078" s="1"/>
+      <c r="A2078" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B2078" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2079" ht="15.75" customHeight="1">
-      <c r="A2079" s="1"/>
-      <c r="B2079" s="1"/>
+      <c r="A2079" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B2079" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2080" ht="15.75" customHeight="1">
-      <c r="A2080" s="1"/>
-      <c r="B2080" s="1"/>
+      <c r="A2080" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B2080" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2081" ht="15.75" customHeight="1">
-      <c r="A2081" s="1"/>
-      <c r="B2081" s="1"/>
+      <c r="A2081" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B2081" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2082" ht="15.75" customHeight="1">
-      <c r="A2082" s="1"/>
-      <c r="B2082" s="1"/>
+      <c r="A2082" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B2082" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2083" ht="15.75" customHeight="1">
-      <c r="A2083" s="1"/>
-      <c r="B2083" s="1"/>
+      <c r="A2083" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B2083" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2084" ht="15.75" customHeight="1">
-      <c r="A2084" s="1"/>
-      <c r="B2084" s="1"/>
+      <c r="A2084" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B2084" s="1" t="s">
+        <v>2046</v>
+      </c>
     </row>
     <row r="2085" ht="15.75" customHeight="1">
-      <c r="A2085" s="1"/>
-      <c r="B2085" s="1"/>
+      <c r="A2085" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B2085" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2086" ht="15.75" customHeight="1">
-      <c r="A2086" s="1"/>
-      <c r="B2086" s="1"/>
+      <c r="A2086" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B2086" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2087" ht="15.75" customHeight="1">
-      <c r="A2087" s="1"/>
-      <c r="B2087" s="1"/>
+      <c r="A2087" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B2087" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2088" ht="15.75" customHeight="1">
-      <c r="A2088" s="1"/>
-      <c r="B2088" s="1"/>
+      <c r="A2088" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B2088" s="1" t="s">
+        <v>2044</v>
+      </c>
     </row>
     <row r="2089" ht="15.75" customHeight="1">
-      <c r="A2089" s="1"/>
-      <c r="B2089" s="1"/>
+      <c r="A2089" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B2089" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2090" ht="15.75" customHeight="1">
-      <c r="A2090" s="1"/>
-      <c r="B2090" s="1"/>
+      <c r="A2090" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B2090" s="1" t="s">
+        <v>2055</v>
+      </c>
     </row>
     <row r="2091" ht="15.75" customHeight="1">
-      <c r="A2091" s="1"/>
-      <c r="B2091" s="1"/>
+      <c r="A2091" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B2091" s="1" t="s">
+        <v>2044</v>
+      </c>
     </row>
     <row r="2092" ht="15.75" customHeight="1">
-      <c r="A2092" s="1"/>
-      <c r="B2092" s="1"/>
+      <c r="A2092" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B2092" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2093" ht="15.75" customHeight="1">
-      <c r="A2093" s="1"/>
-      <c r="B2093" s="1"/>
+      <c r="A2093" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B2093" s="1" t="s">
+        <v>2062</v>
+      </c>
     </row>
     <row r="2094" ht="15.75" customHeight="1">
-      <c r="A2094" s="1"/>
-      <c r="B2094" s="1"/>
+      <c r="A2094" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B2094" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2095" ht="15.75" customHeight="1">
-      <c r="A2095" s="1"/>
-      <c r="B2095" s="1"/>
+      <c r="A2095" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B2095" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2096" ht="15.75" customHeight="1">
-      <c r="A2096" s="1"/>
-      <c r="B2096" s="1"/>
+      <c r="A2096" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B2096" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2097" ht="15.75" customHeight="1">
-      <c r="A2097" s="1"/>
-      <c r="B2097" s="1"/>
+      <c r="A2097" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B2097" s="1" t="s">
+        <v>2046</v>
+      </c>
     </row>
     <row r="2098" ht="15.75" customHeight="1">
-      <c r="A2098" s="1"/>
-      <c r="B2098" s="1"/>
+      <c r="A2098" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B2098" s="1" t="s">
+        <v>2052</v>
+      </c>
     </row>
     <row r="2099" ht="15.75" customHeight="1">
-      <c r="A2099" s="1"/>
-      <c r="B2099" s="1"/>
+      <c r="A2099" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B2099" s="1" t="s">
+        <v>2044</v>
+      </c>
     </row>
     <row r="2100" ht="15.75" customHeight="1">
-      <c r="A2100" s="1"/>
-      <c r="B2100" s="1"/>
+      <c r="A2100" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B2100" s="1" t="s">
+        <v>2046</v>
+      </c>
     </row>
     <row r="2101" ht="15.75" customHeight="1">
-      <c r="A2101" s="1"/>
-      <c r="B2101" s="1"/>
+      <c r="A2101" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B2101" s="1" t="s">
+        <v>2042</v>
+      </c>
     </row>
     <row r="2102" ht="15.75" customHeight="1">
-      <c r="A2102" s="1"/>
-      <c r="B2102" s="1"/>
+      <c r="A2102" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B2102" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2103" ht="15.75" customHeight="1">
-      <c r="A2103" s="1"/>
-      <c r="B2103" s="1"/>
+      <c r="A2103" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B2103" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2104" ht="15.75" customHeight="1">
-      <c r="A2104" s="1"/>
-      <c r="B2104" s="1"/>
+      <c r="A2104" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B2104" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2105" ht="15.75" customHeight="1">
-      <c r="A2105" s="1"/>
-      <c r="B2105" s="1"/>
+      <c r="A2105" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B2105" s="1" t="s">
+        <v>2055</v>
+      </c>
     </row>
     <row r="2106" ht="15.75" customHeight="1">
-      <c r="A2106" s="1"/>
-      <c r="B2106" s="1"/>
+      <c r="A2106" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B2106" s="1" t="s">
+        <v>2149</v>
+      </c>
     </row>
     <row r="2107" ht="15.75" customHeight="1">
-      <c r="A2107" s="1"/>
-      <c r="B2107" s="1"/>
+      <c r="A2107" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B2107" s="1" t="s">
+        <v>2055</v>
+      </c>
     </row>
     <row r="2108" ht="15.75" customHeight="1">
-      <c r="A2108" s="1"/>
-      <c r="B2108" s="1"/>
+      <c r="A2108" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B2108" s="1" t="s">
+        <v>2152</v>
+      </c>
     </row>
     <row r="2109" ht="15.75" customHeight="1">
-      <c r="A2109" s="1"/>
-      <c r="B2109" s="1"/>
+      <c r="A2109" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B2109" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2110" ht="15.75" customHeight="1">
-      <c r="A2110" s="1"/>
-      <c r="B2110" s="1"/>
+      <c r="A2110" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B2110" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2111" ht="15.75" customHeight="1">
-      <c r="A2111" s="1"/>
-      <c r="B2111" s="1"/>
+      <c r="A2111" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B2111" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2112" ht="15.75" customHeight="1">
-      <c r="A2112" s="1"/>
-      <c r="B2112" s="1"/>
+      <c r="A2112" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B2112" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2113" ht="15.75" customHeight="1">
-      <c r="A2113" s="1"/>
-      <c r="B2113" s="1"/>
+      <c r="A2113" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B2113" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2114" ht="15.75" customHeight="1">
-      <c r="A2114" s="1"/>
-      <c r="B2114" s="1"/>
+      <c r="A2114" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B2114" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2115" ht="15.75" customHeight="1">
-      <c r="A2115" s="1"/>
-      <c r="B2115" s="1"/>
+      <c r="A2115" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B2115" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2116" ht="15.75" customHeight="1">
-      <c r="A2116" s="1"/>
-      <c r="B2116" s="1"/>
+      <c r="A2116" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B2116" s="1" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="2117" ht="15.75" customHeight="1">
-      <c r="A2117" s="1"/>
-      <c r="B2117" s="1"/>
+      <c r="A2117" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B2117" s="1" t="s">
+        <v>2044</v>
+      </c>
     </row>
     <row r="2118" ht="15.75" customHeight="1">
-      <c r="A2118" s="1"/>
-      <c r="B2118" s="1"/>
+      <c r="A2118" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B2118" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2119" ht="15.75" customHeight="1">
-      <c r="A2119" s="1"/>
-      <c r="B2119" s="1"/>
+      <c r="A2119" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B2119" s="1" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="2120" ht="15.75" customHeight="1">
-      <c r="A2120" s="1"/>
-      <c r="B2120" s="1"/>
+      <c r="A2120" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B2120" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2121" ht="15.75" customHeight="1">
+      <c r="A2121" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B2121" s="1" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="2122" ht="15.75" customHeight="1">
+      <c r="A2122" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B2122" s="1" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="2123" ht="15.75" customHeight="1">
+      <c r="A2123" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B2123" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2124" ht="15.75" customHeight="1">
+      <c r="A2124" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B2124" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2125" ht="15.75" customHeight="1">
+      <c r="A2125" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B2125" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2126" ht="15.75" customHeight="1">
+      <c r="A2126" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B2126" s="1" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="2127" ht="15.75" customHeight="1">
+      <c r="A2127" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B2127" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2128" ht="15.75" customHeight="1">
+      <c r="A2128" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B2128" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2129" ht="15.75" customHeight="1">
+      <c r="A2129" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B2129" s="1" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="2130" ht="15.75" customHeight="1">
+      <c r="A2130" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B2130" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2131" ht="15.75" customHeight="1">
+      <c r="A2131" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B2131" s="1" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2132" ht="15.75" customHeight="1">
+      <c r="A2132" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B2132" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2133" ht="15.75" customHeight="1">
+      <c r="A2133" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B2133" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2134" ht="15.75" customHeight="1">
+      <c r="A2134" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B2134" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2135" ht="15.75" customHeight="1">
+      <c r="A2135" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B2135" s="1" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="2136" ht="15.75" customHeight="1">
+      <c r="A2136" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B2136" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2137" ht="15.75" customHeight="1">
+      <c r="A2137" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B2137" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2138" ht="15.75" customHeight="1">
+      <c r="A2138" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B2138" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2139" ht="15.75" customHeight="1">
+      <c r="A2139" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B2139" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2140" ht="15.75" customHeight="1">
+      <c r="A2140" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B2140" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2141" ht="15.75" customHeight="1">
+      <c r="A2141" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B2141" s="1" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="2142" ht="15.75" customHeight="1">
+      <c r="A2142" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B2142" s="1" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="2143" ht="15.75" customHeight="1">
+      <c r="A2143" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B2143" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2144" ht="15.75" customHeight="1">
+      <c r="A2144" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B2144" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2145" ht="15.75" customHeight="1">
+      <c r="A2145" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B2145" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2146" ht="15.75" customHeight="1">
+      <c r="A2146" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B2146" s="1" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="2147" ht="15.75" customHeight="1">
+      <c r="A2147" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B2147" s="1" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="2148" ht="15.75" customHeight="1">
+      <c r="A2148" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B2148" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2149" ht="15.75" customHeight="1">
+      <c r="A2149" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B2149" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2150" ht="15.75" customHeight="1">
+      <c r="A2150" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B2150" s="1" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="2151" ht="15.75" customHeight="1">
+      <c r="A2151" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B2151" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2152" ht="15.75" customHeight="1">
+      <c r="A2152" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B2152" s="1" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="2153" ht="15.75" customHeight="1">
+      <c r="A2153" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B2153" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2154" ht="15.75" customHeight="1">
+      <c r="A2154" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B2154" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2155" ht="15.75" customHeight="1">
+      <c r="A2155" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B2155" s="1" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="2156" ht="15.75" customHeight="1">
+      <c r="A2156" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B2156" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2157" ht="15.75" customHeight="1">
+      <c r="A2157" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B2157" s="1" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2158" ht="15.75" customHeight="1">
+      <c r="A2158" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B2158" s="1" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="2159" ht="15.75" customHeight="1">
+      <c r="A2159" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B2159" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2160" ht="15.75" customHeight="1">
+      <c r="A2160" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B2160" s="1" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="2161" ht="15.75" customHeight="1">
+      <c r="A2161" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B2161" s="1" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="2162" ht="15.75" customHeight="1">
+      <c r="A2162" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B2162" s="1" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="2163" ht="15.75" customHeight="1">
+      <c r="A2163" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B2163" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2164" ht="15.75" customHeight="1">
+      <c r="A2164" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B2164" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2165" ht="15.75" customHeight="1">
+      <c r="A2165" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B2165" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2166" ht="15.75" customHeight="1">
+      <c r="A2166" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B2166" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2167" ht="15.75" customHeight="1">
+      <c r="A2167" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B2167" s="1" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="2168" ht="15.75" customHeight="1">
+      <c r="A2168" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B2168" s="1" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="2169" ht="15.75" customHeight="1">
+      <c r="A2169" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B2169" s="1" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="2170" ht="15.75" customHeight="1">
+      <c r="A2170" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B2170" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2171" ht="15.75" customHeight="1">
+      <c r="A2171" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B2171" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2172" ht="15.75" customHeight="1">
+      <c r="A2172" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B2172" s="1" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="2173" ht="15.75" customHeight="1">
+      <c r="A2173" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B2173" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2174" ht="15.75" customHeight="1">
+      <c r="A2174" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B2174" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2175" ht="15.75" customHeight="1">
+      <c r="A2175" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B2175" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2176" ht="15.75" customHeight="1">
+      <c r="A2176" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B2176" s="1" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="2177" ht="15.75" customHeight="1">
+      <c r="A2177" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B2177" s="1" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="2178" ht="15.75" customHeight="1">
+      <c r="A2178" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B2178" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2179" ht="15.75" customHeight="1">
+      <c r="A2179" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B2179" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2180" ht="15.75" customHeight="1">
+      <c r="A2180" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B2180" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2181" ht="15.75" customHeight="1">
+      <c r="A2181" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B2181" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2182" ht="15.75" customHeight="1">
+      <c r="A2182" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B2182" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2183" ht="15.75" customHeight="1">
+      <c r="A2183" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B2183" s="1" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="2184" ht="15.75" customHeight="1">
+      <c r="A2184" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B2184" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2185" ht="15.75" customHeight="1">
+      <c r="A2185" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B2185" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2186" ht="15.75" customHeight="1">
+      <c r="A2186" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B2186" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2187" ht="15.75" customHeight="1">
+      <c r="A2187" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B2187" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2188" ht="15.75" customHeight="1">
+      <c r="A2188" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B2188" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2189" ht="15.75" customHeight="1">
+      <c r="A2189" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B2189" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2190" ht="15.75" customHeight="1">
+      <c r="A2190" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B2190" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2191" ht="15.75" customHeight="1">
+      <c r="A2191" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B2191" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2192" ht="15.75" customHeight="1">
+      <c r="A2192" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B2192" s="1" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="2193" ht="15.75" customHeight="1">
+      <c r="A2193" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B2193" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2194" ht="15.75" customHeight="1">
+      <c r="A2194" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B2194" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2195" ht="15.75" customHeight="1">
+      <c r="A2195" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B2195" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2196" ht="15.75" customHeight="1">
+      <c r="A2196" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B2196" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2197" ht="15.75" customHeight="1">
+      <c r="A2197" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B2197" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2198" ht="15.75" customHeight="1">
+      <c r="A2198" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B2198" s="1" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="2199" ht="15.75" customHeight="1">
+      <c r="A2199" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B2199" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2200" ht="15.75" customHeight="1">
+      <c r="A2200" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B2200" s="1" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="2201" ht="15.75" customHeight="1">
+      <c r="A2201" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B2201" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2202" ht="15.75" customHeight="1">
+      <c r="A2202" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B2202" s="1" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="2203" ht="15.75" customHeight="1">
+      <c r="A2203" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B2203" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2204" ht="15.75" customHeight="1">
+      <c r="A2204" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B2204" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2205" ht="15.75" customHeight="1">
+      <c r="A2205" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B2205" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2206" ht="15.75" customHeight="1">
+      <c r="A2206" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B2206" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2207" ht="15.75" customHeight="1">
+      <c r="A2207" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B2207" s="1" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="2208" ht="15.75" customHeight="1">
+      <c r="A2208" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B2208" s="1" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="2209" ht="15.75" customHeight="1">
+      <c r="A2209" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B2209" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2210" ht="15.75" customHeight="1">
+      <c r="A2210" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B2210" s="1" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="2211" ht="15.75" customHeight="1">
+      <c r="A2211" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B2211" s="1" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="2212" ht="15.75" customHeight="1">
+      <c r="A2212" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B2212" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2213" ht="15.75" customHeight="1">
+      <c r="A2213" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B2213" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2214" ht="15.75" customHeight="1">
+      <c r="A2214" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B2214" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2215" ht="15.75" customHeight="1">
+      <c r="A2215" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B2215" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2216" ht="15.75" customHeight="1">
+      <c r="A2216" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B2216" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2217" ht="15.75" customHeight="1">
+      <c r="A2217" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B2217" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2218" ht="15.75" customHeight="1">
+      <c r="A2218" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B2218" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2219" ht="15.75" customHeight="1">
+      <c r="A2219" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B2219" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2220" ht="15.75" customHeight="1">
+      <c r="A2220" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B2220" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2221" ht="15.75" customHeight="1">
+      <c r="A2221" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B2221" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2222" ht="15.75" customHeight="1">
+      <c r="A2222" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B2222" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2223" ht="15.75" customHeight="1">
+      <c r="A2223" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B2223" s="1" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="2224" ht="15.75" customHeight="1">
+      <c r="A2224" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B2224" s="1" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="2225" ht="15.75" customHeight="1">
+      <c r="A2225" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B2225" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2226" ht="15.75" customHeight="1">
+      <c r="A2226" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B2226" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2227" ht="15.75" customHeight="1">
+      <c r="A2227" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B2227" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2228" ht="15.75" customHeight="1">
+      <c r="A2228" s="1"/>
+      <c r="B2228" s="1"/>
+    </row>
+    <row r="2229" ht="15.75" customHeight="1">
+      <c r="A2229" s="1"/>
+      <c r="B2229" s="1"/>
+    </row>
+    <row r="2230" ht="15.75" customHeight="1">
+      <c r="A2230" s="1"/>
+      <c r="B2230" s="1"/>
+    </row>
+    <row r="2231" ht="15.75" customHeight="1">
+      <c r="A2231" s="1"/>
+      <c r="B2231" s="1"/>
+    </row>
+    <row r="2232" ht="15.75" customHeight="1">
+      <c r="A2232" s="1"/>
+      <c r="B2232" s="1"/>
+    </row>
+    <row r="2233" ht="15.75" customHeight="1">
+      <c r="A2233" s="1"/>
+      <c r="B2233" s="1"/>
+    </row>
+    <row r="2234" ht="15.75" customHeight="1">
+      <c r="A2234" s="1"/>
+      <c r="B2234" s="1"/>
+    </row>
+    <row r="2235" ht="15.75" customHeight="1">
+      <c r="A2235" s="1"/>
+      <c r="B2235" s="1"/>
+    </row>
+    <row r="2236" ht="15.75" customHeight="1">
+      <c r="A2236" s="1"/>
+      <c r="B2236" s="1"/>
+    </row>
+    <row r="2237" ht="15.75" customHeight="1">
+      <c r="A2237" s="1"/>
+      <c r="B2237" s="1"/>
+    </row>
+    <row r="2238" ht="15.75" customHeight="1">
+      <c r="A2238" s="1"/>
+      <c r="B2238" s="1"/>
+    </row>
+    <row r="2239" ht="15.75" customHeight="1">
+      <c r="A2239" s="1"/>
+      <c r="B2239" s="1"/>
+    </row>
+    <row r="2240" ht="15.75" customHeight="1">
+      <c r="A2240" s="1"/>
+      <c r="B2240" s="1"/>
+    </row>
+    <row r="2241" ht="15.75" customHeight="1">
+      <c r="A2241" s="1"/>
+      <c r="B2241" s="1"/>
+    </row>
+    <row r="2242" ht="15.75" customHeight="1">
+      <c r="A2242" s="1"/>
+      <c r="B2242" s="1"/>
+    </row>
+    <row r="2243" ht="15.75" customHeight="1">
+      <c r="A2243" s="1"/>
+      <c r="B2243" s="1"/>
+    </row>
+    <row r="2244" ht="15.75" customHeight="1">
+      <c r="A2244" s="1"/>
+      <c r="B2244" s="1"/>
+    </row>
+    <row r="2245" ht="15.75" customHeight="1">
+      <c r="A2245" s="1"/>
+      <c r="B2245" s="1"/>
+    </row>
+    <row r="2246" ht="15.75" customHeight="1">
+      <c r="A2246" s="1"/>
+      <c r="B2246" s="1"/>
+    </row>
+    <row r="2247" ht="15.75" customHeight="1">
+      <c r="A2247" s="1"/>
+      <c r="B2247" s="1"/>
+    </row>
+    <row r="2248" ht="15.75" customHeight="1">
+      <c r="A2248" s="1"/>
+      <c r="B2248" s="1"/>
+    </row>
+    <row r="2249" ht="15.75" customHeight="1">
+      <c r="A2249" s="1"/>
+      <c r="B2249" s="1"/>
+    </row>
+    <row r="2250" ht="15.75" customHeight="1">
+      <c r="A2250" s="1"/>
+      <c r="B2250" s="1"/>
+    </row>
+    <row r="2251" ht="15.75" customHeight="1">
+      <c r="A2251" s="1"/>
+      <c r="B2251" s="1"/>
+    </row>
+    <row r="2252" ht="15.75" customHeight="1">
+      <c r="A2252" s="1"/>
+      <c r="B2252" s="1"/>
+    </row>
+    <row r="2253" ht="15.75" customHeight="1">
+      <c r="A2253" s="1"/>
+      <c r="B2253" s="1"/>
+    </row>
+    <row r="2254" ht="15.75" customHeight="1">
+      <c r="A2254" s="1"/>
+      <c r="B2254" s="1"/>
+    </row>
+    <row r="2255" ht="15.75" customHeight="1">
+      <c r="A2255" s="1"/>
+      <c r="B2255" s="1"/>
+    </row>
+    <row r="2256" ht="15.75" customHeight="1">
+      <c r="A2256" s="1"/>
+      <c r="B2256" s="1"/>
+    </row>
+    <row r="2257" ht="15.75" customHeight="1">
+      <c r="A2257" s="1"/>
+      <c r="B2257" s="1"/>
+    </row>
+    <row r="2258" ht="15.75" customHeight="1">
+      <c r="A2258" s="1"/>
+      <c r="B2258" s="1"/>
+    </row>
+    <row r="2259" ht="15.75" customHeight="1">
+      <c r="A2259" s="1"/>
+      <c r="B2259" s="1"/>
+    </row>
+    <row r="2260" ht="15.75" customHeight="1">
+      <c r="A2260" s="1"/>
+      <c r="B2260" s="1"/>
+    </row>
+    <row r="2261" ht="15.75" customHeight="1">
+      <c r="A2261" s="1"/>
+      <c r="B2261" s="1"/>
+    </row>
+    <row r="2262" ht="15.75" customHeight="1">
+      <c r="A2262" s="1"/>
+      <c r="B2262" s="1"/>
+    </row>
+    <row r="2263" ht="15.75" customHeight="1">
+      <c r="A2263" s="1"/>
+      <c r="B2263" s="1"/>
+    </row>
+    <row r="2264" ht="15.75" customHeight="1">
+      <c r="A2264" s="1"/>
+      <c r="B2264" s="1"/>
+    </row>
+    <row r="2265" ht="15.75" customHeight="1">
+      <c r="A2265" s="1"/>
+      <c r="B2265" s="1"/>
+    </row>
+    <row r="2266" ht="15.75" customHeight="1">
+      <c r="A2266" s="1"/>
+      <c r="B2266" s="1"/>
+    </row>
+    <row r="2267" ht="15.75" customHeight="1">
+      <c r="A2267" s="1"/>
+      <c r="B2267" s="1"/>
+    </row>
+    <row r="2268" ht="15.75" customHeight="1">
+      <c r="A2268" s="1"/>
+      <c r="B2268" s="1"/>
+    </row>
+    <row r="2269" ht="15.75" customHeight="1">
+      <c r="A2269" s="1"/>
+      <c r="B2269" s="1"/>
+    </row>
+    <row r="2270" ht="15.75" customHeight="1">
+      <c r="A2270" s="1"/>
+      <c r="B2270" s="1"/>
+    </row>
+    <row r="2271" ht="15.75" customHeight="1">
+      <c r="A2271" s="1"/>
+      <c r="B2271" s="1"/>
+    </row>
+    <row r="2272" ht="15.75" customHeight="1">
+      <c r="A2272" s="1"/>
+      <c r="B2272" s="1"/>
+    </row>
+    <row r="2273" ht="15.75" customHeight="1">
+      <c r="A2273" s="1"/>
+      <c r="B2273" s="1"/>
+    </row>
+    <row r="2274" ht="15.75" customHeight="1">
+      <c r="A2274" s="1"/>
+      <c r="B2274" s="1"/>
+    </row>
+    <row r="2275" ht="15.75" customHeight="1">
+      <c r="A2275" s="1"/>
+      <c r="B2275" s="1"/>
+    </row>
+    <row r="2276" ht="15.75" customHeight="1">
+      <c r="A2276" s="1"/>
+      <c r="B2276" s="1"/>
+    </row>
+    <row r="2277" ht="15.75" customHeight="1">
+      <c r="A2277" s="1"/>
+      <c r="B2277" s="1"/>
+    </row>
+    <row r="2278" ht="15.75" customHeight="1">
+      <c r="A2278" s="1"/>
+      <c r="B2278" s="1"/>
+    </row>
+    <row r="2279" ht="15.75" customHeight="1">
+      <c r="A2279" s="1"/>
+      <c r="B2279" s="1"/>
+    </row>
+    <row r="2280" ht="15.75" customHeight="1">
+      <c r="A2280" s="1"/>
+      <c r="B2280" s="1"/>
+    </row>
+    <row r="2281" ht="15.75" customHeight="1">
+      <c r="A2281" s="1"/>
+      <c r="B2281" s="1"/>
+    </row>
+    <row r="2282" ht="15.75" customHeight="1">
+      <c r="A2282" s="1"/>
+      <c r="B2282" s="1"/>
+    </row>
+    <row r="2283" ht="15.75" customHeight="1">
+      <c r="A2283" s="1"/>
+      <c r="B2283" s="1"/>
+    </row>
+    <row r="2284" ht="15.75" customHeight="1">
+      <c r="A2284" s="1"/>
+      <c r="B2284" s="1"/>
+    </row>
+    <row r="2285" ht="15.75" customHeight="1">
+      <c r="A2285" s="1"/>
+      <c r="B2285" s="1"/>
+    </row>
+    <row r="2286" ht="15.75" customHeight="1">
+      <c r="A2286" s="1"/>
+      <c r="B2286" s="1"/>
+    </row>
+    <row r="2287" ht="15.75" customHeight="1">
+      <c r="A2287" s="1"/>
+      <c r="B2287" s="1"/>
+    </row>
+    <row r="2288" ht="15.75" customHeight="1">
+      <c r="A2288" s="1"/>
+      <c r="B2288" s="1"/>
+    </row>
+    <row r="2289" ht="15.75" customHeight="1">
+      <c r="A2289" s="1"/>
+      <c r="B2289" s="1"/>
+    </row>
+    <row r="2290" ht="15.75" customHeight="1">
+      <c r="A2290" s="1"/>
+      <c r="B2290" s="1"/>
+    </row>
+    <row r="2291" ht="15.75" customHeight="1">
+      <c r="A2291" s="1"/>
+      <c r="B2291" s="1"/>
+    </row>
+    <row r="2292" ht="15.75" customHeight="1">
+      <c r="A2292" s="1"/>
+      <c r="B2292" s="1"/>
+    </row>
+    <row r="2293" ht="15.75" customHeight="1">
+      <c r="A2293" s="1"/>
+      <c r="B2293" s="1"/>
+    </row>
+    <row r="2294" ht="15.75" customHeight="1">
+      <c r="A2294" s="1"/>
+      <c r="B2294" s="1"/>
+    </row>
+    <row r="2295" ht="15.75" customHeight="1">
+      <c r="A2295" s="1"/>
+      <c r="B2295" s="1"/>
+    </row>
+    <row r="2296" ht="15.75" customHeight="1">
+      <c r="A2296" s="1"/>
+      <c r="B2296" s="1"/>
+    </row>
+    <row r="2297" ht="15.75" customHeight="1">
+      <c r="A2297" s="1"/>
+      <c r="B2297" s="1"/>
+    </row>
+    <row r="2298" ht="15.75" customHeight="1">
+      <c r="A2298" s="1"/>
+      <c r="B2298" s="1"/>
+    </row>
+    <row r="2299" ht="15.75" customHeight="1">
+      <c r="A2299" s="1"/>
+      <c r="B2299" s="1"/>
+    </row>
+    <row r="2300" ht="15.75" customHeight="1">
+      <c r="A2300" s="1"/>
+      <c r="B2300" s="1"/>
+    </row>
+    <row r="2301" ht="15.75" customHeight="1">
+      <c r="A2301" s="1"/>
+      <c r="B2301" s="1"/>
+    </row>
+    <row r="2302" ht="15.75" customHeight="1">
+      <c r="A2302" s="1"/>
+      <c r="B2302" s="1"/>
+    </row>
+    <row r="2303" ht="15.75" customHeight="1">
+      <c r="A2303" s="1"/>
+      <c r="B2303" s="1"/>
+    </row>
+    <row r="2304" ht="15.75" customHeight="1">
+      <c r="A2304" s="1"/>
+      <c r="B2304" s="1"/>
+    </row>
+    <row r="2305" ht="15.75" customHeight="1">
+      <c r="A2305" s="1"/>
+      <c r="B2305" s="1"/>
+    </row>
+    <row r="2306" ht="15.75" customHeight="1">
+      <c r="A2306" s="1"/>
+      <c r="B2306" s="1"/>
+    </row>
+    <row r="2307" ht="15.75" customHeight="1">
+      <c r="A2307" s="1"/>
+      <c r="B2307" s="1"/>
+    </row>
+    <row r="2308" ht="15.75" customHeight="1">
+      <c r="A2308" s="1"/>
+      <c r="B2308" s="1"/>
+    </row>
+    <row r="2309" ht="15.75" customHeight="1">
+      <c r="A2309" s="1"/>
+      <c r="B2309" s="1"/>
+    </row>
+    <row r="2310" ht="15.75" customHeight="1">
+      <c r="A2310" s="1"/>
+      <c r="B2310" s="1"/>
+    </row>
+    <row r="2311" ht="15.75" customHeight="1">
+      <c r="A2311" s="1"/>
+      <c r="B2311" s="1"/>
+    </row>
+    <row r="2312" ht="15.75" customHeight="1">
+      <c r="A2312" s="1"/>
+      <c r="B2312" s="1"/>
+    </row>
+    <row r="2313" ht="15.75" customHeight="1">
+      <c r="A2313" s="1"/>
+      <c r="B2313" s="1"/>
+    </row>
+    <row r="2314" ht="15.75" customHeight="1">
+      <c r="A2314" s="1"/>
+      <c r="B2314" s="1"/>
+    </row>
+    <row r="2315" ht="15.75" customHeight="1">
+      <c r="A2315" s="1"/>
+      <c r="B2315" s="1"/>
+    </row>
+    <row r="2316" ht="15.75" customHeight="1">
+      <c r="A2316" s="1"/>
+      <c r="B2316" s="1"/>
+    </row>
+    <row r="2317" ht="15.75" customHeight="1">
+      <c r="A2317" s="1"/>
+      <c r="B2317" s="1"/>
+    </row>
+    <row r="2318" ht="15.75" customHeight="1">
+      <c r="A2318" s="1"/>
+      <c r="B2318" s="1"/>
+    </row>
+    <row r="2319" ht="15.75" customHeight="1">
+      <c r="A2319" s="1"/>
+      <c r="B2319" s="1"/>
+    </row>
+    <row r="2320" ht="15.75" customHeight="1">
+      <c r="A2320" s="1"/>
+      <c r="B2320" s="1"/>
+    </row>
+    <row r="2321" ht="15.75" customHeight="1">
+      <c r="A2321" s="1"/>
+      <c r="B2321" s="1"/>
+    </row>
+    <row r="2322" ht="15.75" customHeight="1">
+      <c r="A2322" s="1"/>
+      <c r="B2322" s="1"/>
+    </row>
+    <row r="2323" ht="15.75" customHeight="1">
+      <c r="A2323" s="1"/>
+      <c r="B2323" s="1"/>
+    </row>
+    <row r="2324" ht="15.75" customHeight="1">
+      <c r="A2324" s="1"/>
+      <c r="B2324" s="1"/>
+    </row>
+    <row r="2325" ht="15.75" customHeight="1">
+      <c r="A2325" s="1"/>
+      <c r="B2325" s="1"/>
+    </row>
+    <row r="2326" ht="15.75" customHeight="1">
+      <c r="A2326" s="1"/>
+      <c r="B2326" s="1"/>
+    </row>
+    <row r="2327" ht="15.75" customHeight="1">
+      <c r="A2327" s="1"/>
+      <c r="B2327" s="1"/>
+    </row>
+    <row r="2328" ht="15.75" customHeight="1">
+      <c r="A2328" s="1"/>
+      <c r="B2328" s="1"/>
+    </row>
+    <row r="2329" ht="15.75" customHeight="1">
+      <c r="A2329" s="1"/>
+      <c r="B2329" s="1"/>
+    </row>
+    <row r="2330" ht="15.75" customHeight="1">
+      <c r="A2330" s="1"/>
+      <c r="B2330" s="1"/>
+    </row>
+    <row r="2331" ht="15.75" customHeight="1">
+      <c r="A2331" s="1"/>
+      <c r="B2331" s="1"/>
+    </row>
+    <row r="2332" ht="15.75" customHeight="1">
+      <c r="A2332" s="1"/>
+      <c r="B2332" s="1"/>
+    </row>
+    <row r="2333" ht="15.75" customHeight="1">
+      <c r="A2333" s="1"/>
+      <c r="B2333" s="1"/>
+    </row>
+    <row r="2334" ht="15.75" customHeight="1">
+      <c r="A2334" s="1"/>
+      <c r="B2334" s="1"/>
+    </row>
+    <row r="2335" ht="15.75" customHeight="1">
+      <c r="A2335" s="1"/>
+      <c r="B2335" s="1"/>
+    </row>
+    <row r="2336" ht="15.75" customHeight="1">
+      <c r="A2336" s="1"/>
+      <c r="B2336" s="1"/>
+    </row>
+    <row r="2337" ht="15.75" customHeight="1">
+      <c r="A2337" s="1"/>
+      <c r="B2337" s="1"/>
+    </row>
+    <row r="2338" ht="15.75" customHeight="1">
+      <c r="A2338" s="1"/>
+      <c r="B2338" s="1"/>
+    </row>
+    <row r="2339" ht="15.75" customHeight="1">
+      <c r="A2339" s="1"/>
+      <c r="B2339" s="1"/>
+    </row>
+    <row r="2340" ht="15.75" customHeight="1">
+      <c r="A2340" s="1"/>
+      <c r="B2340" s="1"/>
+    </row>
+    <row r="2341" ht="15.75" customHeight="1">
+      <c r="A2341" s="1"/>
+      <c r="B2341" s="1"/>
+    </row>
+    <row r="2342" ht="15.75" customHeight="1">
+      <c r="A2342" s="1"/>
+      <c r="B2342" s="1"/>
+    </row>
+    <row r="2343" ht="15.75" customHeight="1">
+      <c r="A2343" s="1"/>
+      <c r="B2343" s="1"/>
+    </row>
+    <row r="2344" ht="15.75" customHeight="1">
+      <c r="A2344" s="1"/>
+      <c r="B2344" s="1"/>
+    </row>
+    <row r="2345" ht="15.75" customHeight="1">
+      <c r="A2345" s="1"/>
+      <c r="B2345" s="1"/>
+    </row>
+    <row r="2346" ht="15.75" customHeight="1">
+      <c r="A2346" s="1"/>
+      <c r="B2346" s="1"/>
+    </row>
+    <row r="2347" ht="15.75" customHeight="1">
+      <c r="A2347" s="1"/>
+      <c r="B2347" s="1"/>
+    </row>
+    <row r="2348" ht="15.75" customHeight="1">
+      <c r="A2348" s="1"/>
+      <c r="B2348" s="1"/>
+    </row>
+    <row r="2349" ht="15.75" customHeight="1">
+      <c r="A2349" s="1"/>
+      <c r="B2349" s="1"/>
+    </row>
+    <row r="2350" ht="15.75" customHeight="1">
+      <c r="A2350" s="1"/>
+      <c r="B2350" s="1"/>
+    </row>
+    <row r="2351" ht="15.75" customHeight="1">
+      <c r="A2351" s="1"/>
+      <c r="B2351" s="1"/>
+    </row>
+    <row r="2352" ht="15.75" customHeight="1">
+      <c r="A2352" s="1"/>
+      <c r="B2352" s="1"/>
+    </row>
+    <row r="2353" ht="15.75" customHeight="1">
+      <c r="A2353" s="1"/>
+      <c r="B2353" s="1"/>
+    </row>
+    <row r="2354" ht="15.75" customHeight="1">
+      <c r="A2354" s="1"/>
+      <c r="B2354" s="1"/>
+    </row>
+    <row r="2355" ht="15.75" customHeight="1">
+      <c r="A2355" s="1"/>
+      <c r="B2355" s="1"/>
+    </row>
+    <row r="2356" ht="15.75" customHeight="1">
+      <c r="A2356" s="1"/>
+      <c r="B2356" s="1"/>
+    </row>
+    <row r="2357" ht="15.75" customHeight="1">
+      <c r="A2357" s="1"/>
+      <c r="B2357" s="1"/>
+    </row>
+    <row r="2358" ht="15.75" customHeight="1">
+      <c r="A2358" s="1"/>
+      <c r="B2358" s="1"/>
+    </row>
+    <row r="2359" ht="15.75" customHeight="1">
+      <c r="A2359" s="1"/>
+      <c r="B2359" s="1"/>
+    </row>
+    <row r="2360" ht="15.75" customHeight="1">
+      <c r="A2360" s="1"/>
+      <c r="B2360" s="1"/>
+    </row>
+    <row r="2361" ht="15.75" customHeight="1">
+      <c r="A2361" s="1"/>
+      <c r="B2361" s="1"/>
+    </row>
+    <row r="2362" ht="15.75" customHeight="1">
+      <c r="A2362" s="1"/>
+      <c r="B2362" s="1"/>
+    </row>
+    <row r="2363" ht="15.75" customHeight="1">
+      <c r="A2363" s="1"/>
+      <c r="B2363" s="1"/>
+    </row>
+    <row r="2364" ht="15.75" customHeight="1">
+      <c r="A2364" s="1"/>
+      <c r="B2364" s="1"/>
+    </row>
+    <row r="2365" ht="15.75" customHeight="1">
+      <c r="A2365" s="1"/>
+      <c r="B2365" s="1"/>
+    </row>
+    <row r="2366" ht="15.75" customHeight="1">
+      <c r="A2366" s="1"/>
+      <c r="B2366" s="1"/>
+    </row>
+    <row r="2367" ht="15.75" customHeight="1">
+      <c r="A2367" s="1"/>
+      <c r="B2367" s="1"/>
+    </row>
+    <row r="2368" ht="15.75" customHeight="1">
+      <c r="A2368" s="1"/>
+      <c r="B2368" s="1"/>
+    </row>
+    <row r="2369" ht="15.75" customHeight="1">
+      <c r="A2369" s="1"/>
+      <c r="B2369" s="1"/>
+    </row>
+    <row r="2370" ht="15.75" customHeight="1">
+      <c r="A2370" s="1"/>
+      <c r="B2370" s="1"/>
+    </row>
+    <row r="2371" ht="15.75" customHeight="1">
+      <c r="A2371" s="1"/>
+      <c r="B2371" s="1"/>
+    </row>
+    <row r="2372" ht="15.75" customHeight="1">
+      <c r="A2372" s="1"/>
+      <c r="B2372" s="1"/>
+    </row>
+    <row r="2373" ht="15.75" customHeight="1">
+      <c r="A2373" s="1"/>
+      <c r="B2373" s="1"/>
+    </row>
+    <row r="2374" ht="15.75" customHeight="1">
+      <c r="A2374" s="1"/>
+      <c r="B2374" s="1"/>
+    </row>
+    <row r="2375" ht="15.75" customHeight="1">
+      <c r="A2375" s="1"/>
+      <c r="B2375" s="1"/>
+    </row>
+    <row r="2376" ht="15.75" customHeight="1">
+      <c r="A2376" s="1"/>
+      <c r="B2376" s="1"/>
+    </row>
+    <row r="2377" ht="15.75" customHeight="1">
+      <c r="A2377" s="1"/>
+      <c r="B2377" s="1"/>
+    </row>
+    <row r="2378" ht="15.75" customHeight="1">
+      <c r="A2378" s="1"/>
+      <c r="B2378" s="1"/>
+    </row>
+    <row r="2379" ht="15.75" customHeight="1">
+      <c r="A2379" s="1"/>
+      <c r="B2379" s="1"/>
+    </row>
+    <row r="2380" ht="15.75" customHeight="1">
+      <c r="A2380" s="1"/>
+      <c r="B2380" s="1"/>
+    </row>
+    <row r="2381" ht="15.75" customHeight="1">
+      <c r="A2381" s="1"/>
+      <c r="B2381" s="1"/>
+    </row>
+    <row r="2382" ht="15.75" customHeight="1">
+      <c r="A2382" s="1"/>
+      <c r="B2382" s="1"/>
+    </row>
+    <row r="2383" ht="15.75" customHeight="1">
+      <c r="A2383" s="1"/>
+      <c r="B2383" s="1"/>
+    </row>
+    <row r="2384" ht="15.75" customHeight="1">
+      <c r="A2384" s="1"/>
+      <c r="B2384" s="1"/>
+    </row>
+    <row r="2385" ht="15.75" customHeight="1">
+      <c r="A2385" s="1"/>
+      <c r="B2385" s="1"/>
+    </row>
+    <row r="2386" ht="15.75" customHeight="1">
+      <c r="A2386" s="1"/>
+      <c r="B2386" s="1"/>
+    </row>
+    <row r="2387" ht="15.75" customHeight="1">
+      <c r="A2387" s="1"/>
+      <c r="B2387" s="1"/>
+    </row>
+    <row r="2388" ht="15.75" customHeight="1">
+      <c r="A2388" s="1"/>
+      <c r="B2388" s="1"/>
+    </row>
+    <row r="2389" ht="15.75" customHeight="1">
+      <c r="A2389" s="1"/>
+      <c r="B2389" s="1"/>
+    </row>
+    <row r="2390" ht="15.75" customHeight="1">
+      <c r="A2390" s="1"/>
+      <c r="B2390" s="1"/>
+    </row>
+    <row r="2391" ht="15.75" customHeight="1">
+      <c r="A2391" s="1"/>
+      <c r="B2391" s="1"/>
+    </row>
+    <row r="2392" ht="15.75" customHeight="1">
+      <c r="A2392" s="1"/>
+      <c r="B2392" s="1"/>
+    </row>
+    <row r="2393" ht="15.75" customHeight="1">
+      <c r="A2393" s="1"/>
+      <c r="B2393" s="1"/>
+    </row>
+    <row r="2394" ht="15.75" customHeight="1">
+      <c r="A2394" s="1"/>
+      <c r="B2394" s="1"/>
+    </row>
+    <row r="2395" ht="15.75" customHeight="1">
+      <c r="A2395" s="1"/>
+      <c r="B2395" s="1"/>
+    </row>
+    <row r="2396" ht="15.75" customHeight="1">
+      <c r="A2396" s="1"/>
+      <c r="B2396" s="1"/>
+    </row>
+    <row r="2397" ht="15.75" customHeight="1">
+      <c r="A2397" s="1"/>
+      <c r="B2397" s="1"/>
+    </row>
+    <row r="2398" ht="15.75" customHeight="1">
+      <c r="A2398" s="1"/>
+      <c r="B2398" s="1"/>
+    </row>
+    <row r="2399" ht="15.75" customHeight="1">
+      <c r="A2399" s="1"/>
+      <c r="B2399" s="1"/>
+    </row>
+    <row r="2400" ht="15.75" customHeight="1">
+      <c r="A2400" s="1"/>
+      <c r="B2400" s="1"/>
+    </row>
+    <row r="2401" ht="15.75" customHeight="1">
+      <c r="A2401" s="1"/>
+      <c r="B2401" s="1"/>
+    </row>
+    <row r="2402" ht="15.75" customHeight="1">
+      <c r="A2402" s="1"/>
+      <c r="B2402" s="1"/>
+    </row>
+    <row r="2403" ht="15.75" customHeight="1">
+      <c r="A2403" s="1"/>
+      <c r="B2403" s="1"/>
+    </row>
+    <row r="2404" ht="15.75" customHeight="1">
+      <c r="A2404" s="1"/>
+      <c r="B2404" s="1"/>
+    </row>
+    <row r="2405" ht="15.75" customHeight="1">
+      <c r="A2405" s="1"/>
+      <c r="B2405" s="1"/>
+    </row>
+    <row r="2406" ht="15.75" customHeight="1">
+      <c r="A2406" s="1"/>
+      <c r="B2406" s="1"/>
+    </row>
+    <row r="2407" ht="15.75" customHeight="1">
+      <c r="A2407" s="1"/>
+      <c r="B2407" s="1"/>
+    </row>
+    <row r="2408" ht="15.75" customHeight="1">
+      <c r="A2408" s="1"/>
+      <c r="B2408" s="1"/>
+    </row>
+    <row r="2409" ht="15.75" customHeight="1">
+      <c r="A2409" s="1"/>
+      <c r="B2409" s="1"/>
+    </row>
+    <row r="2410" ht="15.75" customHeight="1">
+      <c r="A2410" s="1"/>
+      <c r="B2410" s="1"/>
+    </row>
+    <row r="2411" ht="15.75" customHeight="1">
+      <c r="A2411" s="1"/>
+      <c r="B2411" s="1"/>
+    </row>
+    <row r="2412" ht="15.75" customHeight="1">
+      <c r="A2412" s="1"/>
+      <c r="B2412" s="1"/>
+    </row>
+    <row r="2413" ht="15.75" customHeight="1">
+      <c r="A2413" s="1"/>
+      <c r="B2413" s="1"/>
+    </row>
+    <row r="2414" ht="15.75" customHeight="1">
+      <c r="A2414" s="1"/>
+      <c r="B2414" s="1"/>
+    </row>
+    <row r="2415" ht="15.75" customHeight="1">
+      <c r="A2415" s="1"/>
+      <c r="B2415" s="1"/>
+    </row>
+    <row r="2416" ht="15.75" customHeight="1">
+      <c r="A2416" s="1"/>
+      <c r="B2416" s="1"/>
+    </row>
+    <row r="2417" ht="15.75" customHeight="1">
+      <c r="A2417" s="1"/>
+      <c r="B2417" s="1"/>
+    </row>
+    <row r="2418" ht="15.75" customHeight="1">
+      <c r="A2418" s="1"/>
+      <c r="B2418" s="1"/>
+    </row>
+    <row r="2419" ht="15.75" customHeight="1">
+      <c r="A2419" s="1"/>
+      <c r="B2419" s="1"/>
+    </row>
+    <row r="2420" ht="15.75" customHeight="1">
+      <c r="A2420" s="1"/>
+      <c r="B2420" s="1"/>
+    </row>
+    <row r="2421" ht="15.75" customHeight="1">
+      <c r="A2421" s="1"/>
+      <c r="B2421" s="1"/>
+    </row>
+    <row r="2422" ht="15.75" customHeight="1">
+      <c r="A2422" s="1"/>
+      <c r="B2422" s="1"/>
+    </row>
+    <row r="2423" ht="15.75" customHeight="1">
+      <c r="A2423" s="1"/>
+      <c r="B2423" s="1"/>
+    </row>
+    <row r="2424" ht="15.75" customHeight="1">
+      <c r="A2424" s="1"/>
+      <c r="B2424" s="1"/>
+    </row>
+    <row r="2425" ht="15.75" customHeight="1">
+      <c r="A2425" s="1"/>
+      <c r="B2425" s="1"/>
+    </row>
+    <row r="2426" ht="15.75" customHeight="1">
+      <c r="A2426" s="1"/>
+      <c r="B2426" s="1"/>
+    </row>
+    <row r="2427" ht="15.75" customHeight="1">
+      <c r="A2427" s="1"/>
+      <c r="B2427" s="1"/>
+    </row>
+    <row r="2428" ht="15.75" customHeight="1">
+      <c r="A2428" s="1"/>
+      <c r="B2428" s="1"/>
+    </row>
+    <row r="2429" ht="15.75" customHeight="1">
+      <c r="A2429" s="1"/>
+      <c r="B2429" s="1"/>
+    </row>
+    <row r="2430" ht="15.75" customHeight="1">
+      <c r="A2430" s="1"/>
+      <c r="B2430" s="1"/>
+    </row>
+    <row r="2431" ht="15.75" customHeight="1">
+      <c r="A2431" s="1"/>
+      <c r="B2431" s="1"/>
+    </row>
+    <row r="2432" ht="15.75" customHeight="1">
+      <c r="A2432" s="1"/>
+      <c r="B2432" s="1"/>
+    </row>
+    <row r="2433" ht="15.75" customHeight="1">
+      <c r="A2433" s="1"/>
+      <c r="B2433" s="1"/>
+    </row>
+    <row r="2434" ht="15.75" customHeight="1">
+      <c r="A2434" s="1"/>
+      <c r="B2434" s="1"/>
+    </row>
+    <row r="2435" ht="15.75" customHeight="1">
+      <c r="A2435" s="1"/>
+      <c r="B2435" s="1"/>
+    </row>
+    <row r="2436" ht="15.75" customHeight="1">
+      <c r="A2436" s="1"/>
+      <c r="B2436" s="1"/>
+    </row>
+    <row r="2437" ht="15.75" customHeight="1">
+      <c r="A2437" s="1"/>
+      <c r="B2437" s="1"/>
+    </row>
+    <row r="2438" ht="15.75" customHeight="1">
+      <c r="A2438" s="1"/>
+      <c r="B2438" s="1"/>
+    </row>
+    <row r="2439" ht="15.75" customHeight="1">
+      <c r="A2439" s="1"/>
+      <c r="B2439" s="1"/>
+    </row>
+    <row r="2440" ht="15.75" customHeight="1">
+      <c r="A2440" s="1"/>
+      <c r="B2440" s="1"/>
+    </row>
+    <row r="2441" ht="15.75" customHeight="1">
+      <c r="A2441" s="1"/>
+      <c r="B2441" s="1"/>
+    </row>
+    <row r="2442" ht="15.75" customHeight="1">
+      <c r="A2442" s="1"/>
+      <c r="B2442" s="1"/>
+    </row>
+    <row r="2443" ht="15.75" customHeight="1">
+      <c r="A2443" s="1"/>
+      <c r="B2443" s="1"/>
+    </row>
+    <row r="2444" ht="15.75" customHeight="1">
+      <c r="A2444" s="1"/>
+      <c r="B2444" s="1"/>
+    </row>
+    <row r="2445" ht="15.75" customHeight="1">
+      <c r="A2445" s="1"/>
+      <c r="B2445" s="1"/>
+    </row>
+    <row r="2446" ht="15.75" customHeight="1">
+      <c r="A2446" s="1"/>
+      <c r="B2446" s="1"/>
+    </row>
+    <row r="2447" ht="15.75" customHeight="1">
+      <c r="A2447" s="1"/>
+      <c r="B2447" s="1"/>
+    </row>
+    <row r="2448" ht="15.75" customHeight="1">
+      <c r="A2448" s="1"/>
+      <c r="B2448" s="1"/>
+    </row>
+    <row r="2449" ht="15.75" customHeight="1">
+      <c r="A2449" s="1"/>
+      <c r="B2449" s="1"/>
+    </row>
+    <row r="2450" ht="15.75" customHeight="1">
+      <c r="A2450" s="1"/>
+      <c r="B2450" s="1"/>
+    </row>
+    <row r="2451" ht="15.75" customHeight="1">
+      <c r="A2451" s="1"/>
+      <c r="B2451" s="1"/>
+    </row>
+    <row r="2452" ht="15.75" customHeight="1">
+      <c r="A2452" s="1"/>
+      <c r="B2452" s="1"/>
+    </row>
+    <row r="2453" ht="15.75" customHeight="1">
+      <c r="A2453" s="1"/>
+      <c r="B2453" s="1"/>
+    </row>
+    <row r="2454" ht="15.75" customHeight="1">
+      <c r="A2454" s="1"/>
+      <c r="B2454" s="1"/>
+    </row>
+    <row r="2455" ht="15.75" customHeight="1">
+      <c r="A2455" s="1"/>
+      <c r="B2455" s="1"/>
+    </row>
+    <row r="2456" ht="15.75" customHeight="1">
+      <c r="A2456" s="1"/>
+      <c r="B2456" s="1"/>
+    </row>
+    <row r="2457" ht="15.75" customHeight="1">
+      <c r="A2457" s="1"/>
+      <c r="B2457" s="1"/>
+    </row>
+    <row r="2458" ht="15.75" customHeight="1">
+      <c r="A2458" s="1"/>
+      <c r="B2458" s="1"/>
+    </row>
+    <row r="2459" ht="15.75" customHeight="1">
+      <c r="A2459" s="1"/>
+      <c r="B2459" s="1"/>
+    </row>
+    <row r="2460" ht="15.75" customHeight="1">
+      <c r="A2460" s="1"/>
+      <c r="B2460" s="1"/>
+    </row>
+    <row r="2461" ht="15.75" customHeight="1">
+      <c r="A2461" s="1"/>
+      <c r="B2461" s="1"/>
+    </row>
+    <row r="2462" ht="15.75" customHeight="1">
+      <c r="A2462" s="1"/>
+      <c r="B2462" s="1"/>
+    </row>
+    <row r="2463" ht="15.75" customHeight="1">
+      <c r="A2463" s="1"/>
+      <c r="B2463" s="1"/>
+    </row>
+    <row r="2464" ht="15.75" customHeight="1">
+      <c r="A2464" s="1"/>
+      <c r="B2464" s="1"/>
+    </row>
+    <row r="2465" ht="15.75" customHeight="1">
+      <c r="A2465" s="1"/>
+      <c r="B2465" s="1"/>
+    </row>
+    <row r="2466" ht="15.75" customHeight="1">
+      <c r="A2466" s="1"/>
+      <c r="B2466" s="1"/>
+    </row>
+    <row r="2467" ht="15.75" customHeight="1">
+      <c r="A2467" s="1"/>
+      <c r="B2467" s="1"/>
+    </row>
+    <row r="2468" ht="15.75" customHeight="1">
+      <c r="A2468" s="1"/>
+      <c r="B2468" s="1"/>
+    </row>
+    <row r="2469" ht="15.75" customHeight="1">
+      <c r="A2469" s="1"/>
+      <c r="B2469" s="1"/>
+    </row>
+    <row r="2470" ht="15.75" customHeight="1">
+      <c r="A2470" s="1"/>
+      <c r="B2470" s="1"/>
+    </row>
+    <row r="2471" ht="15.75" customHeight="1">
+      <c r="A2471" s="1"/>
+      <c r="B2471" s="1"/>
+    </row>
+    <row r="2472" ht="15.75" customHeight="1">
+      <c r="A2472" s="1"/>
+      <c r="B2472" s="1"/>
+    </row>
+    <row r="2473" ht="15.75" customHeight="1">
+      <c r="A2473" s="1"/>
+      <c r="B2473" s="1"/>
+    </row>
+    <row r="2474" ht="15.75" customHeight="1">
+      <c r="A2474" s="1"/>
+      <c r="B2474" s="1"/>
+    </row>
+    <row r="2475" ht="15.75" customHeight="1">
+      <c r="A2475" s="1"/>
+      <c r="B2475" s="1"/>
+    </row>
+    <row r="2476" ht="15.75" customHeight="1">
+      <c r="A2476" s="1"/>
+      <c r="B2476" s="1"/>
+    </row>
+    <row r="2477" ht="15.75" customHeight="1">
+      <c r="A2477" s="1"/>
+      <c r="B2477" s="1"/>
+    </row>
+    <row r="2478" ht="15.75" customHeight="1">
+      <c r="A2478" s="1"/>
+      <c r="B2478" s="1"/>
+    </row>
+    <row r="2479" ht="15.75" customHeight="1">
+      <c r="A2479" s="1"/>
+      <c r="B2479" s="1"/>
+    </row>
+    <row r="2480" ht="15.75" customHeight="1">
+      <c r="A2480" s="1"/>
+      <c r="B2480" s="1"/>
+    </row>
+    <row r="2481" ht="15.75" customHeight="1">
+      <c r="A2481" s="1"/>
+      <c r="B2481" s="1"/>
+    </row>
+    <row r="2482" ht="15.75" customHeight="1">
+      <c r="A2482" s="1"/>
+      <c r="B2482" s="1"/>
+    </row>
+    <row r="2483" ht="15.75" customHeight="1">
+      <c r="A2483" s="1"/>
+      <c r="B2483" s="1"/>
+    </row>
+    <row r="2484" ht="15.75" customHeight="1">
+      <c r="A2484" s="1"/>
+      <c r="B2484" s="1"/>
+    </row>
+    <row r="2485" ht="15.75" customHeight="1">
+      <c r="A2485" s="1"/>
+      <c r="B2485" s="1"/>
+    </row>
+    <row r="2486" ht="15.75" customHeight="1">
+      <c r="A2486" s="1"/>
+      <c r="B2486" s="1"/>
+    </row>
+    <row r="2487" ht="15.75" customHeight="1">
+      <c r="A2487" s="1"/>
+      <c r="B2487" s="1"/>
+    </row>
+    <row r="2488" ht="15.75" customHeight="1">
+      <c r="A2488" s="1"/>
+      <c r="B2488" s="1"/>
+    </row>
+    <row r="2489" ht="15.75" customHeight="1">
+      <c r="A2489" s="1"/>
+      <c r="B2489" s="1"/>
+    </row>
+    <row r="2490" ht="15.75" customHeight="1">
+      <c r="A2490" s="1"/>
+      <c r="B2490" s="1"/>
+    </row>
+    <row r="2491" ht="15.75" customHeight="1">
+      <c r="A2491" s="1"/>
+      <c r="B2491" s="1"/>
+    </row>
+    <row r="2492" ht="15.75" customHeight="1">
+      <c r="A2492" s="1"/>
+      <c r="B2492" s="1"/>
+    </row>
+    <row r="2493" ht="15.75" customHeight="1">
+      <c r="A2493" s="1"/>
+      <c r="B2493" s="1"/>
+    </row>
+    <row r="2494" ht="15.75" customHeight="1">
+      <c r="A2494" s="1"/>
+      <c r="B2494" s="1"/>
+    </row>
+    <row r="2495" ht="15.75" customHeight="1">
+      <c r="A2495" s="1"/>
+      <c r="B2495" s="1"/>
+    </row>
+    <row r="2496" ht="15.75" customHeight="1">
+      <c r="A2496" s="1"/>
+      <c r="B2496" s="1"/>
+    </row>
+    <row r="2497" ht="15.75" customHeight="1">
+      <c r="A2497" s="1"/>
+      <c r="B2497" s="1"/>
+    </row>
+    <row r="2498" ht="15.75" customHeight="1">
+      <c r="A2498" s="1"/>
+      <c r="B2498" s="1"/>
+    </row>
+    <row r="2499" ht="15.75" customHeight="1">
+      <c r="A2499" s="1"/>
+      <c r="B2499" s="1"/>
+    </row>
+    <row r="2500" ht="15.75" customHeight="1">
+      <c r="A2500" s="1"/>
+      <c r="B2500" s="1"/>
+    </row>
+    <row r="2501" ht="15.75" customHeight="1">
+      <c r="A2501" s="1"/>
+      <c r="B2501" s="1"/>
+    </row>
+    <row r="2502" ht="15.75" customHeight="1">
+      <c r="A2502" s="1"/>
+      <c r="B2502" s="1"/>
+    </row>
+    <row r="2503" ht="15.75" customHeight="1">
+      <c r="A2503" s="1"/>
+      <c r="B2503" s="1"/>
+    </row>
+    <row r="2504" ht="15.75" customHeight="1">
+      <c r="A2504" s="1"/>
+      <c r="B2504" s="1"/>
+    </row>
+    <row r="2505" ht="15.75" customHeight="1">
+      <c r="A2505" s="1"/>
+      <c r="B2505" s="1"/>
+    </row>
+    <row r="2506" ht="15.75" customHeight="1">
+      <c r="A2506" s="1"/>
+      <c r="B2506" s="1"/>
+    </row>
+    <row r="2507" ht="15.75" customHeight="1">
+      <c r="A2507" s="1"/>
+      <c r="B2507" s="1"/>
+    </row>
+    <row r="2508" ht="15.75" customHeight="1">
+      <c r="A2508" s="1"/>
+      <c r="B2508" s="1"/>
+    </row>
+    <row r="2509" ht="15.75" customHeight="1">
+      <c r="A2509" s="1"/>
+      <c r="B2509" s="1"/>
+    </row>
+    <row r="2510" ht="15.75" customHeight="1">
+      <c r="A2510" s="1"/>
+      <c r="B2510" s="1"/>
+    </row>
+    <row r="2511" ht="15.75" customHeight="1">
+      <c r="A2511" s="1"/>
+      <c r="B2511" s="1"/>
+    </row>
+    <row r="2512" ht="15.75" customHeight="1">
+      <c r="A2512" s="1"/>
+      <c r="B2512" s="1"/>
+    </row>
+    <row r="2513" ht="15.75" customHeight="1">
+      <c r="A2513" s="1"/>
+      <c r="B2513" s="1"/>
+    </row>
+    <row r="2514" ht="15.75" customHeight="1">
+      <c r="A2514" s="1"/>
+      <c r="B2514" s="1"/>
+    </row>
+    <row r="2515" ht="15.75" customHeight="1">
+      <c r="A2515" s="1"/>
+      <c r="B2515" s="1"/>
+    </row>
+    <row r="2516" ht="15.75" customHeight="1">
+      <c r="A2516" s="1"/>
+      <c r="B2516" s="1"/>
+    </row>
+    <row r="2517" ht="15.75" customHeight="1">
+      <c r="A2517" s="1"/>
+      <c r="B2517" s="1"/>
+    </row>
+    <row r="2518" ht="15.75" customHeight="1">
+      <c r="A2518" s="1"/>
+      <c r="B2518" s="1"/>
+    </row>
+    <row r="2519" ht="15.75" customHeight="1">
+      <c r="A2519" s="1"/>
+      <c r="B2519" s="1"/>
+    </row>
+    <row r="2520" ht="15.75" customHeight="1">
+      <c r="A2520" s="1"/>
+      <c r="B2520" s="1"/>
+    </row>
+    <row r="2521" ht="15.75" customHeight="1">
+      <c r="A2521" s="1"/>
+      <c r="B2521" s="1"/>
+    </row>
+    <row r="2522" ht="15.75" customHeight="1">
+      <c r="A2522" s="1"/>
+      <c r="B2522" s="1"/>
+    </row>
+    <row r="2523" ht="15.75" customHeight="1">
+      <c r="A2523" s="1"/>
+      <c r="B2523" s="1"/>
+    </row>
+    <row r="2524" ht="15.75" customHeight="1">
+      <c r="A2524" s="1"/>
+      <c r="B2524" s="1"/>
+    </row>
+    <row r="2525" ht="15.75" customHeight="1">
+      <c r="A2525" s="1"/>
+      <c r="B2525" s="1"/>
+    </row>
+    <row r="2526" ht="15.75" customHeight="1">
+      <c r="A2526" s="1"/>
+      <c r="B2526" s="1"/>
+    </row>
+    <row r="2527" ht="15.75" customHeight="1">
+      <c r="A2527" s="1"/>
+      <c r="B2527" s="1"/>
+    </row>
+    <row r="2528" ht="15.75" customHeight="1">
+      <c r="A2528" s="1"/>
+      <c r="B2528" s="1"/>
+    </row>
+    <row r="2529" ht="15.75" customHeight="1">
+      <c r="A2529" s="1"/>
+      <c r="B2529" s="1"/>
+    </row>
+    <row r="2530" ht="15.75" customHeight="1">
+      <c r="A2530" s="1"/>
+      <c r="B2530" s="1"/>
+    </row>
+    <row r="2531" ht="15.75" customHeight="1">
+      <c r="A2531" s="1"/>
+      <c r="B2531" s="1"/>
+    </row>
+    <row r="2532" ht="15.75" customHeight="1">
+      <c r="A2532" s="1"/>
+      <c r="B2532" s="1"/>
+    </row>
+    <row r="2533" ht="15.75" customHeight="1">
+      <c r="A2533" s="1"/>
+      <c r="B2533" s="1"/>
+    </row>
+    <row r="2534" ht="15.75" customHeight="1">
+      <c r="A2534" s="1"/>
+      <c r="B2534" s="1"/>
+    </row>
+    <row r="2535" ht="15.75" customHeight="1">
+      <c r="A2535" s="1"/>
+      <c r="B2535" s="1"/>
+    </row>
+    <row r="2536" ht="15.75" customHeight="1">
+      <c r="A2536" s="1"/>
+      <c r="B2536" s="1"/>
+    </row>
+    <row r="2537" ht="15.75" customHeight="1">
+      <c r="A2537" s="1"/>
+      <c r="B2537" s="1"/>
+    </row>
+    <row r="2538" ht="15.75" customHeight="1">
+      <c r="A2538" s="1"/>
+      <c r="B2538" s="1"/>
+    </row>
+    <row r="2539" ht="15.75" customHeight="1">
+      <c r="A2539" s="1"/>
+      <c r="B2539" s="1"/>
+    </row>
+    <row r="2540" ht="15.75" customHeight="1">
+      <c r="A2540" s="1"/>
+      <c r="B2540" s="1"/>
+    </row>
+    <row r="2541" ht="15.75" customHeight="1">
+      <c r="A2541" s="1"/>
+      <c r="B2541" s="1"/>
+    </row>
+    <row r="2542" ht="15.75" customHeight="1">
+      <c r="A2542" s="1"/>
+      <c r="B2542" s="1"/>
+    </row>
+    <row r="2543" ht="15.75" customHeight="1">
+      <c r="A2543" s="1"/>
+      <c r="B2543" s="1"/>
+    </row>
+    <row r="2544" ht="15.75" customHeight="1">
+      <c r="A2544" s="1"/>
+      <c r="B2544" s="1"/>
+    </row>
+    <row r="2545" ht="15.75" customHeight="1">
+      <c r="A2545" s="1"/>
+      <c r="B2545" s="1"/>
+    </row>
+    <row r="2546" ht="15.75" customHeight="1">
+      <c r="A2546" s="1"/>
+      <c r="B2546" s="1"/>
+    </row>
+    <row r="2547" ht="15.75" customHeight="1">
+      <c r="A2547" s="1"/>
+      <c r="B2547" s="1"/>
+    </row>
+    <row r="2548" ht="15.75" customHeight="1">
+      <c r="A2548" s="1"/>
+      <c r="B2548" s="1"/>
+    </row>
+    <row r="2549" ht="15.75" customHeight="1">
+      <c r="A2549" s="1"/>
+      <c r="B2549" s="1"/>
+    </row>
+    <row r="2550" ht="15.75" customHeight="1">
+      <c r="A2550" s="1"/>
+      <c r="B2550" s="1"/>
+    </row>
+    <row r="2551" ht="15.75" customHeight="1">
+      <c r="A2551" s="1"/>
+      <c r="B2551" s="1"/>
+    </row>
+    <row r="2552" ht="15.75" customHeight="1">
+      <c r="A2552" s="1"/>
+      <c r="B2552" s="1"/>
+    </row>
+    <row r="2553" ht="15.75" customHeight="1">
+      <c r="A2553" s="1"/>
+      <c r="B2553" s="1"/>
+    </row>
+    <row r="2554" ht="15.75" customHeight="1">
+      <c r="A2554" s="1"/>
+      <c r="B2554" s="1"/>
+    </row>
+    <row r="2555" ht="15.75" customHeight="1">
+      <c r="A2555" s="1"/>
+      <c r="B2555" s="1"/>
+    </row>
+    <row r="2556" ht="15.75" customHeight="1">
+      <c r="A2556" s="1"/>
+      <c r="B2556" s="1"/>
+    </row>
+    <row r="2557" ht="15.75" customHeight="1">
+      <c r="A2557" s="1"/>
+      <c r="B2557" s="1"/>
+    </row>
+    <row r="2558" ht="15.75" customHeight="1">
+      <c r="A2558" s="1"/>
+      <c r="B2558" s="1"/>
+    </row>
+    <row r="2559" ht="15.75" customHeight="1">
+      <c r="A2559" s="1"/>
+      <c r="B2559" s="1"/>
+    </row>
+    <row r="2560" ht="15.75" customHeight="1">
+      <c r="A2560" s="1"/>
+      <c r="B2560" s="1"/>
+    </row>
+    <row r="2561" ht="15.75" customHeight="1">
+      <c r="A2561" s="1"/>
+      <c r="B2561" s="1"/>
+    </row>
+    <row r="2562" ht="15.75" customHeight="1">
+      <c r="A2562" s="1"/>
+      <c r="B2562" s="1"/>
+    </row>
+    <row r="2563" ht="15.75" customHeight="1">
+      <c r="A2563" s="1"/>
+      <c r="B2563" s="1"/>
+    </row>
+    <row r="2564" ht="15.75" customHeight="1">
+      <c r="A2564" s="1"/>
+      <c r="B2564" s="1"/>
+    </row>
+    <row r="2565" ht="15.75" customHeight="1">
+      <c r="A2565" s="1"/>
+      <c r="B2565" s="1"/>
+    </row>
+    <row r="2566" ht="15.75" customHeight="1">
+      <c r="A2566" s="1"/>
+      <c r="B2566" s="1"/>
+    </row>
+    <row r="2567" ht="15.75" customHeight="1">
+      <c r="A2567" s="1"/>
+      <c r="B2567" s="1"/>
+    </row>
+    <row r="2568" ht="15.75" customHeight="1">
+      <c r="A2568" s="1"/>
+      <c r="B2568" s="1"/>
+    </row>
+    <row r="2569" ht="15.75" customHeight="1">
+      <c r="A2569" s="1"/>
+      <c r="B2569" s="1"/>
+    </row>
+    <row r="2570" ht="15.75" customHeight="1">
+      <c r="A2570" s="1"/>
+      <c r="B2570" s="1"/>
+    </row>
+    <row r="2571" ht="15.75" customHeight="1">
+      <c r="A2571" s="1"/>
+      <c r="B2571" s="1"/>
+    </row>
+    <row r="2572" ht="15.75" customHeight="1">
+      <c r="A2572" s="1"/>
+      <c r="B2572" s="1"/>
+    </row>
+    <row r="2573" ht="15.75" customHeight="1">
+      <c r="A2573" s="1"/>
+      <c r="B2573" s="1"/>
+    </row>
+    <row r="2574" ht="15.75" customHeight="1">
+      <c r="A2574" s="1"/>
+      <c r="B2574" s="1"/>
+    </row>
+    <row r="2575" ht="15.75" customHeight="1">
+      <c r="A2575" s="1"/>
+      <c r="B2575" s="1"/>
+    </row>
+    <row r="2576" ht="15.75" customHeight="1">
+      <c r="A2576" s="1"/>
+      <c r="B2576" s="1"/>
+    </row>
+    <row r="2577" ht="15.75" customHeight="1">
+      <c r="A2577" s="1"/>
+      <c r="B2577" s="1"/>
+    </row>
+    <row r="2578" ht="15.75" customHeight="1">
+      <c r="A2578" s="1"/>
+      <c r="B2578" s="1"/>
+    </row>
+    <row r="2579" ht="15.75" customHeight="1">
+      <c r="A2579" s="1"/>
+      <c r="B2579" s="1"/>
+    </row>
+    <row r="2580" ht="15.75" customHeight="1">
+      <c r="A2580" s="1"/>
+      <c r="B2580" s="1"/>
+    </row>
+    <row r="2581" ht="15.75" customHeight="1">
+      <c r="A2581" s="1"/>
+      <c r="B2581" s="1"/>
+    </row>
+    <row r="2582" ht="15.75" customHeight="1">
+      <c r="A2582" s="1"/>
+      <c r="B2582" s="1"/>
+    </row>
+    <row r="2583" ht="15.75" customHeight="1">
+      <c r="A2583" s="1"/>
+      <c r="B2583" s="1"/>
+    </row>
+    <row r="2584" ht="15.75" customHeight="1">
+      <c r="A2584" s="1"/>
+      <c r="B2584" s="1"/>
+    </row>
+    <row r="2585" ht="15.75" customHeight="1">
+      <c r="A2585" s="1"/>
+      <c r="B2585" s="1"/>
+    </row>
+    <row r="2586" ht="15.75" customHeight="1">
+      <c r="A2586" s="1"/>
+      <c r="B2586" s="1"/>
+    </row>
+    <row r="2587" ht="15.75" customHeight="1">
+      <c r="A2587" s="1"/>
+      <c r="B2587" s="1"/>
+    </row>
+    <row r="2588" ht="15.75" customHeight="1">
+      <c r="A2588" s="1"/>
+      <c r="B2588" s="1"/>
+    </row>
+    <row r="2589" ht="15.75" customHeight="1">
+      <c r="A2589" s="1"/>
+      <c r="B2589" s="1"/>
+    </row>
+    <row r="2590" ht="15.75" customHeight="1">
+      <c r="A2590" s="1"/>
+      <c r="B2590" s="1"/>
+    </row>
+    <row r="2591" ht="15.75" customHeight="1">
+      <c r="A2591" s="1"/>
+      <c r="B2591" s="1"/>
+    </row>
+    <row r="2592" ht="15.75" customHeight="1">
+      <c r="A2592" s="1"/>
+      <c r="B2592" s="1"/>
+    </row>
+    <row r="2593" ht="15.75" customHeight="1">
+      <c r="A2593" s="1"/>
+      <c r="B2593" s="1"/>
+    </row>
+    <row r="2594" ht="15.75" customHeight="1">
+      <c r="A2594" s="1"/>
+      <c r="B2594" s="1"/>
+    </row>
+    <row r="2595" ht="15.75" customHeight="1">
+      <c r="A2595" s="1"/>
+      <c r="B2595" s="1"/>
+    </row>
+    <row r="2596" ht="15.75" customHeight="1">
+      <c r="A2596" s="1"/>
+      <c r="B2596" s="1"/>
+    </row>
+    <row r="2597" ht="15.75" customHeight="1">
+      <c r="A2597" s="1"/>
+      <c r="B2597" s="1"/>
+    </row>
+    <row r="2598" ht="15.75" customHeight="1">
+      <c r="A2598" s="1"/>
+      <c r="B2598" s="1"/>
+    </row>
+    <row r="2599" ht="15.75" customHeight="1">
+      <c r="A2599" s="1"/>
+      <c r="B2599" s="1"/>
+    </row>
+    <row r="2600" ht="15.75" customHeight="1">
+      <c r="A2600" s="1"/>
+      <c r="B2600" s="1"/>
+    </row>
+    <row r="2601" ht="15.75" customHeight="1">
+      <c r="A2601" s="1"/>
+      <c r="B2601" s="1"/>
+    </row>
+    <row r="2602" ht="15.75" customHeight="1">
+      <c r="A2602" s="1"/>
+      <c r="B2602" s="1"/>
+    </row>
+    <row r="2603" ht="15.75" customHeight="1">
+      <c r="A2603" s="1"/>
+      <c r="B2603" s="1"/>
+    </row>
+    <row r="2604" ht="15.75" customHeight="1">
+      <c r="A2604" s="1"/>
+      <c r="B2604" s="1"/>
+    </row>
+    <row r="2605" ht="15.75" customHeight="1">
+      <c r="A2605" s="1"/>
+      <c r="B2605" s="1"/>
+    </row>
+    <row r="2606" ht="15.75" customHeight="1">
+      <c r="A2606" s="1"/>
+      <c r="B2606" s="1"/>
+    </row>
+    <row r="2607" ht="15.75" customHeight="1">
+      <c r="A2607" s="1"/>
+      <c r="B2607" s="1"/>
+    </row>
+    <row r="2608" ht="15.75" customHeight="1">
+      <c r="A2608" s="1"/>
+      <c r="B2608" s="1"/>
+    </row>
+    <row r="2609" ht="15.75" customHeight="1">
+      <c r="A2609" s="1"/>
+      <c r="B2609" s="1"/>
+    </row>
+    <row r="2610" ht="15.75" customHeight="1">
+      <c r="A2610" s="1"/>
+      <c r="B2610" s="1"/>
+    </row>
+    <row r="2611" ht="15.75" customHeight="1">
+      <c r="A2611" s="1"/>
+      <c r="B2611" s="1"/>
+    </row>
+    <row r="2612" ht="15.75" customHeight="1">
+      <c r="A2612" s="1"/>
+      <c r="B2612" s="1"/>
+    </row>
+    <row r="2613" ht="15.75" customHeight="1">
+      <c r="A2613" s="1"/>
+      <c r="B2613" s="1"/>
+    </row>
+    <row r="2614" ht="15.75" customHeight="1">
+      <c r="A2614" s="1"/>
+      <c r="B2614" s="1"/>
+    </row>
+    <row r="2615" ht="15.75" customHeight="1">
+      <c r="A2615" s="1"/>
+      <c r="B2615" s="1"/>
+    </row>
+    <row r="2616" ht="15.75" customHeight="1">
+      <c r="A2616" s="1"/>
+      <c r="B2616" s="1"/>
+    </row>
+    <row r="2617" ht="15.75" customHeight="1">
+      <c r="A2617" s="1"/>
+      <c r="B2617" s="1"/>
+    </row>
+    <row r="2618" ht="15.75" customHeight="1">
+      <c r="A2618" s="1"/>
+      <c r="B2618" s="1"/>
+    </row>
+    <row r="2619" ht="15.75" customHeight="1">
+      <c r="A2619" s="1"/>
+      <c r="B2619" s="1"/>
+    </row>
+    <row r="2620" ht="15.75" customHeight="1">
+      <c r="A2620" s="1"/>
+      <c r="B2620" s="1"/>
+    </row>
+    <row r="2621" ht="15.75" customHeight="1">
+      <c r="A2621" s="1"/>
+      <c r="B2621" s="1"/>
+    </row>
+    <row r="2622" ht="15.75" customHeight="1">
+      <c r="A2622" s="1"/>
+      <c r="B2622" s="1"/>
+    </row>
+    <row r="2623" ht="15.75" customHeight="1">
+      <c r="A2623" s="1"/>
+      <c r="B2623" s="1"/>
+    </row>
+    <row r="2624" ht="15.75" customHeight="1">
+      <c r="A2624" s="1"/>
+      <c r="B2624" s="1"/>
+    </row>
+    <row r="2625" ht="15.75" customHeight="1">
+      <c r="A2625" s="1"/>
+      <c r="B2625" s="1"/>
+    </row>
+    <row r="2626" ht="15.75" customHeight="1">
+      <c r="A2626" s="1"/>
+      <c r="B2626" s="1"/>
+    </row>
+    <row r="2627" ht="15.75" customHeight="1">
+      <c r="A2627" s="1"/>
+      <c r="B2627" s="1"/>
+    </row>
+    <row r="2628" ht="15.75" customHeight="1">
+      <c r="A2628" s="1"/>
+      <c r="B2628" s="1"/>
+    </row>
+    <row r="2629" ht="15.75" customHeight="1">
+      <c r="A2629" s="1"/>
+      <c r="B2629" s="1"/>
+    </row>
+    <row r="2630" ht="15.75" customHeight="1">
+      <c r="A2630" s="1"/>
+      <c r="B2630" s="1"/>
+    </row>
+    <row r="2631" ht="15.75" customHeight="1">
+      <c r="A2631" s="1"/>
+      <c r="B2631" s="1"/>
+    </row>
+    <row r="2632" ht="15.75" customHeight="1">
+      <c r="A2632" s="1"/>
+      <c r="B2632" s="1"/>
+    </row>
+    <row r="2633" ht="15.75" customHeight="1">
+      <c r="A2633" s="1"/>
+      <c r="B2633" s="1"/>
+    </row>
+    <row r="2634" ht="15.75" customHeight="1">
+      <c r="A2634" s="1"/>
+      <c r="B2634" s="1"/>
+    </row>
+    <row r="2635" ht="15.75" customHeight="1">
+      <c r="A2635" s="1"/>
+      <c r="B2635" s="1"/>
+    </row>
+    <row r="2636" ht="15.75" customHeight="1">
+      <c r="A2636" s="1"/>
+      <c r="B2636" s="1"/>
+    </row>
+    <row r="2637" ht="15.75" customHeight="1">
+      <c r="A2637" s="1"/>
+      <c r="B2637" s="1"/>
+    </row>
+    <row r="2638" ht="15.75" customHeight="1">
+      <c r="A2638" s="1"/>
+      <c r="B2638" s="1"/>
+    </row>
+    <row r="2639" ht="15.75" customHeight="1">
+      <c r="A2639" s="1"/>
+      <c r="B2639" s="1"/>
+    </row>
+    <row r="2640" ht="15.75" customHeight="1">
+      <c r="A2640" s="1"/>
+      <c r="B2640" s="1"/>
+    </row>
+    <row r="2641" ht="15.75" customHeight="1">
+      <c r="A2641" s="1"/>
+      <c r="B2641" s="1"/>
+    </row>
+    <row r="2642" ht="15.75" customHeight="1">
+      <c r="A2642" s="1"/>
+      <c r="B2642" s="1"/>
+    </row>
+    <row r="2643" ht="15.75" customHeight="1">
+      <c r="A2643" s="1"/>
+      <c r="B2643" s="1"/>
+    </row>
+    <row r="2644" ht="15.75" customHeight="1">
+      <c r="A2644" s="1"/>
+      <c r="B2644" s="1"/>
+    </row>
+    <row r="2645" ht="15.75" customHeight="1">
+      <c r="A2645" s="1"/>
+      <c r="B2645" s="1"/>
+    </row>
+    <row r="2646" ht="15.75" customHeight="1">
+      <c r="A2646" s="1"/>
+      <c r="B2646" s="1"/>
+    </row>
+    <row r="2647" ht="15.75" customHeight="1">
+      <c r="A2647" s="1"/>
+      <c r="B2647" s="1"/>
+    </row>
+    <row r="2648" ht="15.75" customHeight="1">
+      <c r="A2648" s="1"/>
+      <c r="B2648" s="1"/>
+    </row>
+    <row r="2649" ht="15.75" customHeight="1">
+      <c r="A2649" s="1"/>
+      <c r="B2649" s="1"/>
+    </row>
+    <row r="2650" ht="15.75" customHeight="1">
+      <c r="A2650" s="1"/>
+      <c r="B2650" s="1"/>
+    </row>
+    <row r="2651" ht="15.75" customHeight="1">
+      <c r="A2651" s="1"/>
+      <c r="B2651" s="1"/>
+    </row>
+    <row r="2652" ht="15.75" customHeight="1">
+      <c r="A2652" s="1"/>
+      <c r="B2652" s="1"/>
+    </row>
+    <row r="2653" ht="15.75" customHeight="1">
+      <c r="A2653" s="1"/>
+      <c r="B2653" s="1"/>
+    </row>
+    <row r="2654" ht="15.75" customHeight="1">
+      <c r="A2654" s="1"/>
+      <c r="B2654" s="1"/>
+    </row>
+    <row r="2655" ht="15.75" customHeight="1">
+      <c r="A2655" s="1"/>
+      <c r="B2655" s="1"/>
+    </row>
+    <row r="2656" ht="15.75" customHeight="1">
+      <c r="A2656" s="1"/>
+      <c r="B2656" s="1"/>
+    </row>
+    <row r="2657" ht="15.75" customHeight="1">
+      <c r="A2657" s="1"/>
+      <c r="B2657" s="1"/>
+    </row>
+    <row r="2658" ht="15.75" customHeight="1">
+      <c r="A2658" s="1"/>
+      <c r="B2658" s="1"/>
+    </row>
+    <row r="2659" ht="15.75" customHeight="1">
+      <c r="A2659" s="1"/>
+      <c r="B2659" s="1"/>
+    </row>
+    <row r="2660" ht="15.75" customHeight="1">
+      <c r="A2660" s="1"/>
+      <c r="B2660" s="1"/>
+    </row>
+    <row r="2661" ht="15.75" customHeight="1">
+      <c r="A2661" s="1"/>
+      <c r="B2661" s="1"/>
+    </row>
+    <row r="2662" ht="15.75" customHeight="1">
+      <c r="A2662" s="1"/>
+      <c r="B2662" s="1"/>
+    </row>
+    <row r="2663" ht="15.75" customHeight="1">
+      <c r="A2663" s="1"/>
+      <c r="B2663" s="1"/>
+    </row>
+    <row r="2664" ht="15.75" customHeight="1">
+      <c r="A2664" s="1"/>
+      <c r="B2664" s="1"/>
+    </row>
+    <row r="2665" ht="15.75" customHeight="1">
+      <c r="A2665" s="1"/>
+      <c r="B2665" s="1"/>
+    </row>
+    <row r="2666" ht="15.75" customHeight="1">
+      <c r="A2666" s="1"/>
+      <c r="B2666" s="1"/>
+    </row>
+    <row r="2667" ht="15.75" customHeight="1">
+      <c r="A2667" s="1"/>
+      <c r="B2667" s="1"/>
+    </row>
+    <row r="2668" ht="15.75" customHeight="1">
+      <c r="A2668" s="1"/>
+      <c r="B2668" s="1"/>
+    </row>
+    <row r="2669" ht="15.75" customHeight="1">
+      <c r="A2669" s="1"/>
+      <c r="B2669" s="1"/>
+    </row>
+    <row r="2670" ht="15.75" customHeight="1">
+      <c r="A2670" s="1"/>
+      <c r="B2670" s="1"/>
+    </row>
+    <row r="2671" ht="15.75" customHeight="1">
+      <c r="A2671" s="1"/>
+      <c r="B2671" s="1"/>
+    </row>
+    <row r="2672" ht="15.75" customHeight="1">
+      <c r="A2672" s="1"/>
+      <c r="B2672" s="1"/>
+    </row>
+    <row r="2673" ht="15.75" customHeight="1">
+      <c r="A2673" s="1"/>
+      <c r="B2673" s="1"/>
+    </row>
+    <row r="2674" ht="15.75" customHeight="1">
+      <c r="A2674" s="1"/>
+      <c r="B2674" s="1"/>
+    </row>
+    <row r="2675" ht="15.75" customHeight="1">
+      <c r="A2675" s="1"/>
+      <c r="B2675" s="1"/>
+    </row>
+    <row r="2676" ht="15.75" customHeight="1">
+      <c r="A2676" s="1"/>
+      <c r="B2676" s="1"/>
+    </row>
+    <row r="2677" ht="15.75" customHeight="1">
+      <c r="A2677" s="1"/>
+      <c r="B2677" s="1"/>
+    </row>
+    <row r="2678" ht="15.75" customHeight="1">
+      <c r="A2678" s="1"/>
+      <c r="B2678" s="1"/>
+    </row>
+    <row r="2679" ht="15.75" customHeight="1">
+      <c r="A2679" s="1"/>
+      <c r="B2679" s="1"/>
+    </row>
+    <row r="2680" ht="15.75" customHeight="1">
+      <c r="A2680" s="1"/>
+      <c r="B2680" s="1"/>
+    </row>
+    <row r="2681" ht="15.75" customHeight="1">
+      <c r="A2681" s="1"/>
+      <c r="B2681" s="1"/>
+    </row>
+    <row r="2682" ht="15.75" customHeight="1">
+      <c r="A2682" s="1"/>
+      <c r="B2682" s="1"/>
+    </row>
+    <row r="2683" ht="15.75" customHeight="1">
+      <c r="A2683" s="1"/>
+      <c r="B2683" s="1"/>
+    </row>
+    <row r="2684" ht="15.75" customHeight="1">
+      <c r="A2684" s="1"/>
+      <c r="B2684" s="1"/>
+    </row>
+    <row r="2685" ht="15.75" customHeight="1">
+      <c r="A2685" s="1"/>
+      <c r="B2685" s="1"/>
+    </row>
+    <row r="2686" ht="15.75" customHeight="1">
+      <c r="A2686" s="1"/>
+      <c r="B2686" s="1"/>
+    </row>
+    <row r="2687" ht="15.75" customHeight="1">
+      <c r="A2687" s="1"/>
+      <c r="B2687" s="1"/>
+    </row>
+    <row r="2688" ht="15.75" customHeight="1">
+      <c r="A2688" s="1"/>
+      <c r="B2688" s="1"/>
+    </row>
+    <row r="2689" ht="15.75" customHeight="1">
+      <c r="A2689" s="1"/>
+      <c r="B2689" s="1"/>
+    </row>
+    <row r="2690" ht="15.75" customHeight="1">
+      <c r="A2690" s="1"/>
+      <c r="B2690" s="1"/>
+    </row>
+    <row r="2691" ht="15.75" customHeight="1">
+      <c r="A2691" s="1"/>
+      <c r="B2691" s="1"/>
+    </row>
+    <row r="2692" ht="15.75" customHeight="1">
+      <c r="A2692" s="1"/>
+      <c r="B2692" s="1"/>
+    </row>
+    <row r="2693" ht="15.75" customHeight="1">
+      <c r="A2693" s="1"/>
+      <c r="B2693" s="1"/>
+    </row>
+    <row r="2694" ht="15.75" customHeight="1">
+      <c r="A2694" s="1"/>
+      <c r="B2694" s="1"/>
+    </row>
+    <row r="2695" ht="15.75" customHeight="1">
+      <c r="A2695" s="1"/>
+      <c r="B2695" s="1"/>
+    </row>
+    <row r="2696" ht="15.75" customHeight="1">
+      <c r="A2696" s="1"/>
+      <c r="B2696" s="1"/>
+    </row>
+    <row r="2697" ht="15.75" customHeight="1">
+      <c r="A2697" s="1"/>
+      <c r="B2697" s="1"/>
+    </row>
+    <row r="2698" ht="15.75" customHeight="1">
+      <c r="A2698" s="1"/>
+      <c r="B2698" s="1"/>
+    </row>
+    <row r="2699" ht="15.75" customHeight="1">
+      <c r="A2699" s="1"/>
+      <c r="B2699" s="1"/>
+    </row>
+    <row r="2700" ht="15.75" customHeight="1">
+      <c r="A2700" s="1"/>
+      <c r="B2700" s="1"/>
+    </row>
+    <row r="2701" ht="15.75" customHeight="1">
+      <c r="A2701" s="1"/>
+      <c r="B2701" s="1"/>
+    </row>
+    <row r="2702" ht="15.75" customHeight="1">
+      <c r="A2702" s="1"/>
+      <c r="B2702" s="1"/>
+    </row>
+    <row r="2703" ht="15.75" customHeight="1">
+      <c r="A2703" s="1"/>
+      <c r="B2703" s="1"/>
+    </row>
+    <row r="2704" ht="15.75" customHeight="1">
+      <c r="A2704" s="1"/>
+      <c r="B2704" s="1"/>
+    </row>
+    <row r="2705" ht="15.75" customHeight="1">
+      <c r="A2705" s="1"/>
+      <c r="B2705" s="1"/>
+    </row>
+    <row r="2706" ht="15.75" customHeight="1">
+      <c r="A2706" s="1"/>
+      <c r="B2706" s="1"/>
+    </row>
+    <row r="2707" ht="15.75" customHeight="1">
+      <c r="A2707" s="1"/>
+      <c r="B2707" s="1"/>
+    </row>
+    <row r="2708" ht="15.75" customHeight="1">
+      <c r="A2708" s="1"/>
+      <c r="B2708" s="1"/>
+    </row>
+    <row r="2709" ht="15.75" customHeight="1">
+      <c r="A2709" s="1"/>
+      <c r="B2709" s="1"/>
+    </row>
+    <row r="2710" ht="15.75" customHeight="1">
+      <c r="A2710" s="1"/>
+      <c r="B2710" s="1"/>
+    </row>
+    <row r="2711" ht="15.75" customHeight="1">
+      <c r="A2711" s="1"/>
+      <c r="B2711" s="1"/>
+    </row>
+    <row r="2712" ht="15.75" customHeight="1">
+      <c r="A2712" s="1"/>
+      <c r="B2712" s="1"/>
+    </row>
+    <row r="2713" ht="15.75" customHeight="1">
+      <c r="A2713" s="1"/>
+      <c r="B2713" s="1"/>
+    </row>
+    <row r="2714" ht="15.75" customHeight="1">
+      <c r="A2714" s="1"/>
+      <c r="B2714" s="1"/>
+    </row>
+    <row r="2715" ht="15.75" customHeight="1">
+      <c r="A2715" s="1"/>
+      <c r="B2715" s="1"/>
+    </row>
+    <row r="2716" ht="15.75" customHeight="1">
+      <c r="A2716" s="1"/>
+      <c r="B2716" s="1"/>
+    </row>
+    <row r="2717" ht="15.75" customHeight="1">
+      <c r="A2717" s="1"/>
+      <c r="B2717" s="1"/>
+    </row>
+    <row r="2718" ht="15.75" customHeight="1">
+      <c r="A2718" s="1"/>
+      <c r="B2718" s="1"/>
+    </row>
+    <row r="2719" ht="15.75" customHeight="1">
+      <c r="A2719" s="1"/>
+      <c r="B2719" s="1"/>
+    </row>
+    <row r="2720" ht="15.75" customHeight="1">
+      <c r="A2720" s="1"/>
+      <c r="B2720" s="1"/>
+    </row>
+    <row r="2721" ht="15.75" customHeight="1">
+      <c r="A2721" s="1"/>
+      <c r="B2721" s="1"/>
+    </row>
+    <row r="2722" ht="15.75" customHeight="1">
+      <c r="A2722" s="1"/>
+      <c r="B2722" s="1"/>
+    </row>
+    <row r="2723" ht="15.75" customHeight="1">
+      <c r="A2723" s="1"/>
+      <c r="B2723" s="1"/>
+    </row>
+    <row r="2724" ht="15.75" customHeight="1">
+      <c r="A2724" s="1"/>
+      <c r="B2724" s="1"/>
+    </row>
+    <row r="2725" ht="15.75" customHeight="1">
+      <c r="A2725" s="1"/>
+      <c r="B2725" s="1"/>
+    </row>
+    <row r="2726" ht="15.75" customHeight="1">
+      <c r="A2726" s="1"/>
+      <c r="B2726" s="1"/>
+    </row>
+    <row r="2727" ht="15.75" customHeight="1">
+      <c r="A2727" s="1"/>
+      <c r="B2727" s="1"/>
+    </row>
+    <row r="2728" ht="15.75" customHeight="1">
+      <c r="A2728" s="1"/>
+      <c r="B2728" s="1"/>
+    </row>
+    <row r="2729" ht="15.75" customHeight="1">
+      <c r="A2729" s="1"/>
+      <c r="B2729" s="1"/>
+    </row>
+    <row r="2730" ht="15.75" customHeight="1">
+      <c r="A2730" s="1"/>
+      <c r="B2730" s="1"/>
+    </row>
+    <row r="2731" ht="15.75" customHeight="1">
+      <c r="A2731" s="1"/>
+      <c r="B2731" s="1"/>
+    </row>
+    <row r="2732" ht="15.75" customHeight="1">
+      <c r="A2732" s="1"/>
+      <c r="B2732" s="1"/>
+    </row>
+    <row r="2733" ht="15.75" customHeight="1">
+      <c r="A2733" s="1"/>
+      <c r="B2733" s="1"/>
+    </row>
+    <row r="2734" ht="15.75" customHeight="1">
+      <c r="A2734" s="1"/>
+      <c r="B2734" s="1"/>
+    </row>
+    <row r="2735" ht="15.75" customHeight="1">
+      <c r="A2735" s="1"/>
+      <c r="B2735" s="1"/>
+    </row>
+    <row r="2736" ht="15.75" customHeight="1">
+      <c r="A2736" s="1"/>
+      <c r="B2736" s="1"/>
+    </row>
+    <row r="2737" ht="15.75" customHeight="1">
+      <c r="A2737" s="1"/>
+      <c r="B2737" s="1"/>
+    </row>
+    <row r="2738" ht="15.75" customHeight="1">
+      <c r="A2738" s="1"/>
+      <c r="B2738" s="1"/>
+    </row>
+    <row r="2739" ht="15.75" customHeight="1">
+      <c r="A2739" s="1"/>
+      <c r="B2739" s="1"/>
+    </row>
+    <row r="2740" ht="15.75" customHeight="1">
+      <c r="A2740" s="1"/>
+      <c r="B2740" s="1"/>
+    </row>
+    <row r="2741" ht="15.75" customHeight="1">
+      <c r="A2741" s="1"/>
+      <c r="B2741" s="1"/>
+    </row>
+    <row r="2742" ht="15.75" customHeight="1">
+      <c r="A2742" s="1"/>
+      <c r="B2742" s="1"/>
+    </row>
+    <row r="2743" ht="15.75" customHeight="1">
+      <c r="A2743" s="1"/>
+      <c r="B2743" s="1"/>
+    </row>
+    <row r="2744" ht="15.75" customHeight="1">
+      <c r="A2744" s="1"/>
+      <c r="B2744" s="1"/>
+    </row>
+    <row r="2745" ht="15.75" customHeight="1">
+      <c r="A2745" s="1"/>
+      <c r="B2745" s="1"/>
+    </row>
+    <row r="2746" ht="15.75" customHeight="1">
+      <c r="A2746" s="1"/>
+      <c r="B2746" s="1"/>
+    </row>
+    <row r="2747" ht="15.75" customHeight="1">
+      <c r="A2747" s="1"/>
+      <c r="B2747" s="1"/>
+    </row>
+    <row r="2748" ht="15.75" customHeight="1">
+      <c r="A2748" s="1"/>
+      <c r="B2748" s="1"/>
+    </row>
+    <row r="2749" ht="15.75" customHeight="1">
+      <c r="A2749" s="1"/>
+      <c r="B2749" s="1"/>
+    </row>
+    <row r="2750" ht="15.75" customHeight="1">
+      <c r="A2750" s="1"/>
+      <c r="B2750" s="1"/>
+    </row>
+    <row r="2751" ht="15.75" customHeight="1">
+      <c r="A2751" s="1"/>
+      <c r="B2751" s="1"/>
+    </row>
+    <row r="2752" ht="15.75" customHeight="1">
+      <c r="A2752" s="1"/>
+      <c r="B2752" s="1"/>
+    </row>
+    <row r="2753" ht="15.75" customHeight="1">
+      <c r="A2753" s="1"/>
+      <c r="B2753" s="1"/>
+    </row>
+    <row r="2754" ht="15.75" customHeight="1">
+      <c r="A2754" s="1"/>
+      <c r="B2754" s="1"/>
+    </row>
+    <row r="2755" ht="15.75" customHeight="1">
+      <c r="A2755" s="1"/>
+      <c r="B2755" s="1"/>
+    </row>
+    <row r="2756" ht="15.75" customHeight="1">
+      <c r="A2756" s="1"/>
+      <c r="B2756" s="1"/>
+    </row>
+    <row r="2757" ht="15.75" customHeight="1">
+      <c r="A2757" s="1"/>
+      <c r="B2757" s="1"/>
+    </row>
+    <row r="2758" ht="15.75" customHeight="1">
+      <c r="A2758" s="1"/>
+      <c r="B2758" s="1"/>
+    </row>
+    <row r="2759" ht="15.75" customHeight="1">
+      <c r="A2759" s="1"/>
+      <c r="B2759" s="1"/>
+    </row>
+    <row r="2760" ht="15.75" customHeight="1">
+      <c r="A2760" s="1"/>
+      <c r="B2760" s="1"/>
+    </row>
+    <row r="2761" ht="15.75" customHeight="1">
+      <c r="A2761" s="1"/>
+      <c r="B2761" s="1"/>
+    </row>
+    <row r="2762" ht="15.75" customHeight="1">
+      <c r="A2762" s="1"/>
+      <c r="B2762" s="1"/>
+    </row>
+    <row r="2763" ht="15.75" customHeight="1">
+      <c r="A2763" s="1"/>
+      <c r="B2763" s="1"/>
+    </row>
+    <row r="2764" ht="15.75" customHeight="1">
+      <c r="A2764" s="1"/>
+      <c r="B2764" s="1"/>
+    </row>
+    <row r="2765" ht="15.75" customHeight="1">
+      <c r="A2765" s="1"/>
+      <c r="B2765" s="1"/>
+    </row>
+    <row r="2766" ht="15.75" customHeight="1">
+      <c r="A2766" s="1"/>
+      <c r="B2766" s="1"/>
+    </row>
+    <row r="2767" ht="15.75" customHeight="1">
+      <c r="A2767" s="1"/>
+      <c r="B2767" s="1"/>
+    </row>
+    <row r="2768" ht="15.75" customHeight="1">
+      <c r="A2768" s="1"/>
+      <c r="B2768" s="1"/>
+    </row>
+    <row r="2769" ht="15.75" customHeight="1">
+      <c r="A2769" s="1"/>
+      <c r="B2769" s="1"/>
+    </row>
+    <row r="2770" ht="15.75" customHeight="1">
+      <c r="A2770" s="1"/>
+      <c r="B2770" s="1"/>
+    </row>
+    <row r="2771" ht="15.75" customHeight="1">
+      <c r="A2771" s="1"/>
+      <c r="B2771" s="1"/>
+    </row>
+    <row r="2772" ht="15.75" customHeight="1">
+      <c r="A2772" s="1"/>
+      <c r="B2772" s="1"/>
+    </row>
+    <row r="2773" ht="15.75" customHeight="1">
+      <c r="A2773" s="1"/>
+      <c r="B2773" s="1"/>
+    </row>
+    <row r="2774" ht="15.75" customHeight="1">
+      <c r="A2774" s="1"/>
+      <c r="B2774" s="1"/>
+    </row>
+    <row r="2775" ht="15.75" customHeight="1">
+      <c r="A2775" s="1"/>
+      <c r="B2775" s="1"/>
+    </row>
+    <row r="2776" ht="15.75" customHeight="1">
+      <c r="A2776" s="1"/>
+      <c r="B2776" s="1"/>
+    </row>
+    <row r="2777" ht="15.75" customHeight="1">
+      <c r="A2777" s="1"/>
+      <c r="B2777" s="1"/>
+    </row>
+    <row r="2778" ht="15.75" customHeight="1">
+      <c r="A2778" s="1"/>
+      <c r="B2778" s="1"/>
+    </row>
+    <row r="2779" ht="15.75" customHeight="1">
+      <c r="A2779" s="1"/>
+      <c r="B2779" s="1"/>
+    </row>
+    <row r="2780" ht="15.75" customHeight="1">
+      <c r="A2780" s="1"/>
+      <c r="B2780" s="1"/>
+    </row>
+    <row r="2781" ht="15.75" customHeight="1">
+      <c r="A2781" s="1"/>
+      <c r="B2781" s="1"/>
+    </row>
+    <row r="2782" ht="15.75" customHeight="1">
+      <c r="A2782" s="1"/>
+      <c r="B2782" s="1"/>
+    </row>
+    <row r="2783" ht="15.75" customHeight="1">
+      <c r="A2783" s="1"/>
+      <c r="B2783" s="1"/>
+    </row>
+    <row r="2784" ht="15.75" customHeight="1">
+      <c r="A2784" s="1"/>
+      <c r="B2784" s="1"/>
+    </row>
+    <row r="2785" ht="15.75" customHeight="1">
+      <c r="A2785" s="1"/>
+      <c r="B2785" s="1"/>
+    </row>
+    <row r="2786" ht="15.75" customHeight="1">
+      <c r="A2786" s="1"/>
+      <c r="B2786" s="1"/>
+    </row>
+    <row r="2787" ht="15.75" customHeight="1">
+      <c r="A2787" s="1"/>
+      <c r="B2787" s="1"/>
+    </row>
+    <row r="2788" ht="15.75" customHeight="1">
+      <c r="A2788" s="1"/>
+      <c r="B2788" s="1"/>
+    </row>
+    <row r="2789" ht="15.75" customHeight="1">
+      <c r="A2789" s="1"/>
+      <c r="B2789" s="1"/>
+    </row>
+    <row r="2790" ht="15.75" customHeight="1">
+      <c r="A2790" s="1"/>
+      <c r="B2790" s="1"/>
+    </row>
+    <row r="2791" ht="15.75" customHeight="1">
+      <c r="A2791" s="1"/>
+      <c r="B2791" s="1"/>
+    </row>
+    <row r="2792" ht="15.75" customHeight="1">
+      <c r="A2792" s="1"/>
+      <c r="B2792" s="1"/>
+    </row>
+    <row r="2793" ht="15.75" customHeight="1">
+      <c r="A2793" s="1"/>
+      <c r="B2793" s="1"/>
+    </row>
+    <row r="2794" ht="15.75" customHeight="1">
+      <c r="A2794" s="1"/>
+      <c r="B2794" s="1"/>
+    </row>
+    <row r="2795" ht="15.75" customHeight="1">
+      <c r="A2795" s="1"/>
+      <c r="B2795" s="1"/>
+    </row>
+    <row r="2796" ht="15.75" customHeight="1">
+      <c r="A2796" s="1"/>
+      <c r="B2796" s="1"/>
+    </row>
+    <row r="2797" ht="15.75" customHeight="1">
+      <c r="A2797" s="1"/>
+      <c r="B2797" s="1"/>
+    </row>
+    <row r="2798" ht="15.75" customHeight="1">
+      <c r="A2798" s="1"/>
+      <c r="B2798" s="1"/>
+    </row>
+    <row r="2799" ht="15.75" customHeight="1">
+      <c r="A2799" s="1"/>
+      <c r="B2799" s="1"/>
+    </row>
+    <row r="2800" ht="15.75" customHeight="1">
+      <c r="A2800" s="1"/>
+      <c r="B2800" s="1"/>
+    </row>
+    <row r="2801" ht="15.75" customHeight="1">
+      <c r="A2801" s="1"/>
+      <c r="B2801" s="1"/>
+    </row>
+    <row r="2802" ht="15.75" customHeight="1">
+      <c r="A2802" s="1"/>
+      <c r="B2802" s="1"/>
+    </row>
+    <row r="2803" ht="15.75" customHeight="1">
+      <c r="A2803" s="1"/>
+      <c r="B2803" s="1"/>
+    </row>
+    <row r="2804" ht="15.75" customHeight="1">
+      <c r="A2804" s="1"/>
+      <c r="B2804" s="1"/>
+    </row>
+    <row r="2805" ht="15.75" customHeight="1">
+      <c r="A2805" s="1"/>
+      <c r="B2805" s="1"/>
+    </row>
+    <row r="2806" ht="15.75" customHeight="1">
+      <c r="A2806" s="1"/>
+      <c r="B2806" s="1"/>
+    </row>
+    <row r="2807" ht="15.75" customHeight="1">
+      <c r="A2807" s="1"/>
+      <c r="B2807" s="1"/>
+    </row>
+    <row r="2808" ht="15.75" customHeight="1">
+      <c r="A2808" s="1"/>
+      <c r="B2808" s="1"/>
+    </row>
+    <row r="2809" ht="15.75" customHeight="1">
+      <c r="A2809" s="1"/>
+      <c r="B2809" s="1"/>
+    </row>
+    <row r="2810" ht="15.75" customHeight="1">
+      <c r="A2810" s="1"/>
+      <c r="B2810" s="1"/>
+    </row>
+    <row r="2811" ht="15.75" customHeight="1">
+      <c r="A2811" s="1"/>
+      <c r="B2811" s="1"/>
+    </row>
+    <row r="2812" ht="15.75" customHeight="1">
+      <c r="A2812" s="1"/>
+      <c r="B2812" s="1"/>
+    </row>
+    <row r="2813" ht="15.75" customHeight="1">
+      <c r="A2813" s="1"/>
+      <c r="B2813" s="1"/>
+    </row>
+    <row r="2814" ht="15.75" customHeight="1">
+      <c r="A2814" s="1"/>
+      <c r="B2814" s="1"/>
+    </row>
+    <row r="2815" ht="15.75" customHeight="1">
+      <c r="A2815" s="1"/>
+      <c r="B2815" s="1"/>
+    </row>
+    <row r="2816" ht="15.75" customHeight="1">
+      <c r="A2816" s="1"/>
+      <c r="B2816" s="1"/>
+    </row>
+    <row r="2817" ht="15.75" customHeight="1">
+      <c r="A2817" s="1"/>
+      <c r="B2817" s="1"/>
+    </row>
+    <row r="2818" ht="15.75" customHeight="1">
+      <c r="A2818" s="1"/>
+      <c r="B2818" s="1"/>
+    </row>
+    <row r="2819" ht="15.75" customHeight="1">
+      <c r="A2819" s="1"/>
+      <c r="B2819" s="1"/>
+    </row>
+    <row r="2820" ht="15.75" customHeight="1">
+      <c r="A2820" s="1"/>
+      <c r="B2820" s="1"/>
+    </row>
+    <row r="2821" ht="15.75" customHeight="1">
+      <c r="A2821" s="1"/>
+      <c r="B2821" s="1"/>
+    </row>
+    <row r="2822" ht="15.75" customHeight="1">
+      <c r="A2822" s="1"/>
+      <c r="B2822" s="1"/>
+    </row>
+    <row r="2823" ht="15.75" customHeight="1">
+      <c r="A2823" s="1"/>
+      <c r="B2823" s="1"/>
+    </row>
+    <row r="2824" ht="15.75" customHeight="1">
+      <c r="A2824" s="1"/>
+      <c r="B2824" s="1"/>
+    </row>
+    <row r="2825" ht="15.75" customHeight="1">
+      <c r="A2825" s="1"/>
+      <c r="B2825" s="1"/>
+    </row>
+    <row r="2826" ht="15.75" customHeight="1">
+      <c r="A2826" s="1"/>
+      <c r="B2826" s="1"/>
+    </row>
+    <row r="2827" ht="15.75" customHeight="1">
+      <c r="A2827" s="1"/>
+      <c r="B2827" s="1"/>
+    </row>
+    <row r="2828" ht="15.75" customHeight="1">
+      <c r="A2828" s="1"/>
+      <c r="B2828" s="1"/>
+    </row>
+    <row r="2829" ht="15.75" customHeight="1">
+      <c r="A2829" s="1"/>
+      <c r="B2829" s="1"/>
+    </row>
+    <row r="2830" ht="15.75" customHeight="1">
+      <c r="A2830" s="1"/>
+      <c r="B2830" s="1"/>
+    </row>
+    <row r="2831" ht="15.75" customHeight="1">
+      <c r="A2831" s="1"/>
+      <c r="B2831" s="1"/>
+    </row>
+    <row r="2832" ht="15.75" customHeight="1">
+      <c r="A2832" s="1"/>
+      <c r="B2832" s="1"/>
+    </row>
+    <row r="2833" ht="15.75" customHeight="1">
+      <c r="A2833" s="1"/>
+      <c r="B2833" s="1"/>
+    </row>
+    <row r="2834" ht="15.75" customHeight="1">
+      <c r="A2834" s="1"/>
+      <c r="B2834" s="1"/>
+    </row>
+    <row r="2835" ht="15.75" customHeight="1">
+      <c r="A2835" s="1"/>
+      <c r="B2835" s="1"/>
+    </row>
+    <row r="2836" ht="15.75" customHeight="1">
+      <c r="A2836" s="1"/>
+      <c r="B2836" s="1"/>
+    </row>
+    <row r="2837" ht="15.75" customHeight="1">
+      <c r="A2837" s="1"/>
+      <c r="B2837" s="1"/>
+    </row>
+    <row r="2838" ht="15.75" customHeight="1">
+      <c r="A2838" s="1"/>
+      <c r="B2838" s="1"/>
+    </row>
+    <row r="2839" ht="15.75" customHeight="1">
+      <c r="A2839" s="1"/>
+      <c r="B2839" s="1"/>
+    </row>
+    <row r="2840" ht="15.75" customHeight="1">
+      <c r="A2840" s="1"/>
+      <c r="B2840" s="1"/>
+    </row>
+    <row r="2841" ht="15.75" customHeight="1">
+      <c r="A2841" s="1"/>
+      <c r="B2841" s="1"/>
+    </row>
+    <row r="2842" ht="15.75" customHeight="1">
+      <c r="A2842" s="1"/>
+      <c r="B2842" s="1"/>
+    </row>
+    <row r="2843" ht="15.75" customHeight="1">
+      <c r="A2843" s="1"/>
+      <c r="B2843" s="1"/>
+    </row>
+    <row r="2844" ht="15.75" customHeight="1">
+      <c r="A2844" s="1"/>
+      <c r="B2844" s="1"/>
+    </row>
+    <row r="2845" ht="15.75" customHeight="1">
+      <c r="A2845" s="1"/>
+      <c r="B2845" s="1"/>
+    </row>
+    <row r="2846" ht="15.75" customHeight="1">
+      <c r="A2846" s="1"/>
+      <c r="B2846" s="1"/>
+    </row>
+    <row r="2847" ht="15.75" customHeight="1">
+      <c r="A2847" s="1"/>
+      <c r="B2847" s="1"/>
+    </row>
+    <row r="2848" ht="15.75" customHeight="1">
+      <c r="A2848" s="1"/>
+      <c r="B2848" s="1"/>
+    </row>
+    <row r="2849" ht="15.75" customHeight="1">
+      <c r="A2849" s="1"/>
+      <c r="B2849" s="1"/>
+    </row>
+    <row r="2850" ht="15.75" customHeight="1">
+      <c r="A2850" s="1"/>
+      <c r="B2850" s="1"/>
+    </row>
+    <row r="2851" ht="15.75" customHeight="1">
+      <c r="A2851" s="1"/>
+      <c r="B2851" s="1"/>
+    </row>
+    <row r="2852" ht="15.75" customHeight="1">
+      <c r="A2852" s="1"/>
+      <c r="B2852" s="1"/>
+    </row>
+    <row r="2853" ht="15.75" customHeight="1">
+      <c r="A2853" s="1"/>
+      <c r="B2853" s="1"/>
+    </row>
+    <row r="2854" ht="15.75" customHeight="1">
+      <c r="A2854" s="1"/>
+      <c r="B2854" s="1"/>
+    </row>
+    <row r="2855" ht="15.75" customHeight="1">
+      <c r="A2855" s="1"/>
+      <c r="B2855" s="1"/>
+    </row>
+    <row r="2856" ht="15.75" customHeight="1">
+      <c r="A2856" s="1"/>
+      <c r="B2856" s="1"/>
+    </row>
+    <row r="2857" ht="15.75" customHeight="1">
+      <c r="A2857" s="1"/>
+      <c r="B2857" s="1"/>
+    </row>
+    <row r="2858" ht="15.75" customHeight="1">
+      <c r="A2858" s="1"/>
+      <c r="B2858" s="1"/>
+    </row>
+    <row r="2859" ht="15.75" customHeight="1">
+      <c r="A2859" s="1"/>
+      <c r="B2859" s="1"/>
+    </row>
+    <row r="2860" ht="15.75" customHeight="1">
+      <c r="A2860" s="1"/>
+      <c r="B2860" s="1"/>
+    </row>
+    <row r="2861" ht="15.75" customHeight="1">
+      <c r="A2861" s="1"/>
+      <c r="B2861" s="1"/>
+    </row>
+    <row r="2862" ht="15.75" customHeight="1">
+      <c r="A2862" s="1"/>
+      <c r="B2862" s="1"/>
+    </row>
+    <row r="2863" ht="15.75" customHeight="1">
+      <c r="A2863" s="1"/>
+      <c r="B2863" s="1"/>
+    </row>
+    <row r="2864" ht="15.75" customHeight="1">
+      <c r="A2864" s="1"/>
+      <c r="B2864" s="1"/>
+    </row>
+    <row r="2865" ht="15.75" customHeight="1">
+      <c r="A2865" s="1"/>
+      <c r="B2865" s="1"/>
+    </row>
+    <row r="2866" ht="15.75" customHeight="1">
+      <c r="A2866" s="1"/>
+      <c r="B2866" s="1"/>
+    </row>
+    <row r="2867" ht="15.75" customHeight="1">
+      <c r="A2867" s="1"/>
+      <c r="B2867" s="1"/>
+    </row>
+    <row r="2868" ht="15.75" customHeight="1">
+      <c r="A2868" s="1"/>
+      <c r="B2868" s="1"/>
+    </row>
+    <row r="2869" ht="15.75" customHeight="1">
+      <c r="A2869" s="1"/>
+      <c r="B2869" s="1"/>
+    </row>
+    <row r="2870" ht="15.75" customHeight="1">
+      <c r="A2870" s="1"/>
+      <c r="B2870" s="1"/>
+    </row>
+    <row r="2871" ht="15.75" customHeight="1">
+      <c r="A2871" s="1"/>
+      <c r="B2871" s="1"/>
+    </row>
+    <row r="2872" ht="15.75" customHeight="1">
+      <c r="A2872" s="1"/>
+      <c r="B2872" s="1"/>
+    </row>
+    <row r="2873" ht="15.75" customHeight="1">
+      <c r="A2873" s="1"/>
+      <c r="B2873" s="1"/>
+    </row>
+    <row r="2874" ht="15.75" customHeight="1">
+      <c r="A2874" s="1"/>
+      <c r="B2874" s="1"/>
+    </row>
+    <row r="2875" ht="15.75" customHeight="1">
+      <c r="A2875" s="1"/>
+      <c r="B2875" s="1"/>
+    </row>
+    <row r="2876" ht="15.75" customHeight="1">
+      <c r="A2876" s="1"/>
+      <c r="B2876" s="1"/>
+    </row>
+    <row r="2877" ht="15.75" customHeight="1">
+      <c r="A2877" s="1"/>
+      <c r="B2877" s="1"/>
+    </row>
+    <row r="2878" ht="15.75" customHeight="1">
+      <c r="A2878" s="1"/>
+      <c r="B2878" s="1"/>
+    </row>
+    <row r="2879" ht="15.75" customHeight="1">
+      <c r="A2879" s="1"/>
+      <c r="B2879" s="1"/>
+    </row>
+    <row r="2880" ht="15.75" customHeight="1">
+      <c r="A2880" s="1"/>
+      <c r="B2880" s="1"/>
+    </row>
+    <row r="2881" ht="15.75" customHeight="1">
+      <c r="A2881" s="1"/>
+      <c r="B2881" s="1"/>
+    </row>
+    <row r="2882" ht="15.75" customHeight="1">
+      <c r="A2882" s="1"/>
+      <c r="B2882" s="1"/>
+    </row>
+    <row r="2883" ht="15.75" customHeight="1">
+      <c r="A2883" s="1"/>
+      <c r="B2883" s="1"/>
+    </row>
+    <row r="2884" ht="15.75" customHeight="1">
+      <c r="A2884" s="1"/>
+      <c r="B2884" s="1"/>
+    </row>
+    <row r="2885" ht="15.75" customHeight="1">
+      <c r="A2885" s="1"/>
+      <c r="B2885" s="1"/>
+    </row>
+    <row r="2886" ht="15.75" customHeight="1">
+      <c r="A2886" s="1"/>
+      <c r="B2886" s="1"/>
+    </row>
+    <row r="2887" ht="15.75" customHeight="1">
+      <c r="A2887" s="1"/>
+      <c r="B2887" s="1"/>
+    </row>
+    <row r="2888" ht="15.75" customHeight="1">
+      <c r="A2888" s="1"/>
+      <c r="B2888" s="1"/>
+    </row>
+    <row r="2889" ht="15.75" customHeight="1">
+      <c r="A2889" s="1"/>
+      <c r="B2889" s="1"/>
+    </row>
+    <row r="2890" ht="15.75" customHeight="1">
+      <c r="A2890" s="1"/>
+      <c r="B2890" s="1"/>
+    </row>
+    <row r="2891" ht="15.75" customHeight="1">
+      <c r="A2891" s="1"/>
+      <c r="B2891" s="1"/>
+    </row>
+    <row r="2892" ht="15.75" customHeight="1">
+      <c r="A2892" s="1"/>
+      <c r="B2892" s="1"/>
+    </row>
+    <row r="2893" ht="15.75" customHeight="1">
+      <c r="A2893" s="1"/>
+      <c r="B2893" s="1"/>
+    </row>
+    <row r="2894" ht="15.75" customHeight="1">
+      <c r="A2894" s="1"/>
+      <c r="B2894" s="1"/>
+    </row>
+    <row r="2895" ht="15.75" customHeight="1">
+      <c r="A2895" s="1"/>
+      <c r="B2895" s="1"/>
+    </row>
+    <row r="2896" ht="15.75" customHeight="1">
+      <c r="A2896" s="1"/>
+      <c r="B2896" s="1"/>
+    </row>
+    <row r="2897" ht="15.75" customHeight="1">
+      <c r="A2897" s="1"/>
+      <c r="B2897" s="1"/>
+    </row>
+    <row r="2898" ht="15.75" customHeight="1">
+      <c r="A2898" s="1"/>
+      <c r="B2898" s="1"/>
+    </row>
+    <row r="2899" ht="15.75" customHeight="1">
+      <c r="A2899" s="1"/>
+      <c r="B2899" s="1"/>
+    </row>
+    <row r="2900" ht="15.75" customHeight="1">
+      <c r="A2900" s="1"/>
+      <c r="B2900" s="1"/>
+    </row>
+    <row r="2901" ht="15.75" customHeight="1">
+      <c r="A2901" s="1"/>
+      <c r="B2901" s="1"/>
+    </row>
+    <row r="2902" ht="15.75" customHeight="1">
+      <c r="A2902" s="1"/>
+      <c r="B2902" s="1"/>
+    </row>
+    <row r="2903" ht="15.75" customHeight="1">
+      <c r="A2903" s="1"/>
+      <c r="B2903" s="1"/>
+    </row>
+    <row r="2904" ht="15.75" customHeight="1">
+      <c r="A2904" s="1"/>
+      <c r="B2904" s="1"/>
+    </row>
+    <row r="2905" ht="15.75" customHeight="1">
+      <c r="A2905" s="1"/>
+      <c r="B2905" s="1"/>
+    </row>
+    <row r="2906" ht="15.75" customHeight="1">
+      <c r="A2906" s="1"/>
+      <c r="B2906" s="1"/>
+    </row>
+    <row r="2907" ht="15.75" customHeight="1">
+      <c r="A2907" s="1"/>
+      <c r="B2907" s="1"/>
+    </row>
+    <row r="2908" ht="15.75" customHeight="1">
+      <c r="A2908" s="1"/>
+      <c r="B2908" s="1"/>
+    </row>
+    <row r="2909" ht="15.75" customHeight="1">
+      <c r="A2909" s="1"/>
+      <c r="B2909" s="1"/>
+    </row>
+    <row r="2910" ht="15.75" customHeight="1">
+      <c r="A2910" s="1"/>
+      <c r="B2910" s="1"/>
+    </row>
+    <row r="2911" ht="15.75" customHeight="1">
+      <c r="A2911" s="1"/>
+      <c r="B2911" s="1"/>
+    </row>
+    <row r="2912" ht="15.75" customHeight="1">
+      <c r="A2912" s="1"/>
+      <c r="B2912" s="1"/>
+    </row>
+    <row r="2913" ht="15.75" customHeight="1">
+      <c r="A2913" s="1"/>
+      <c r="B2913" s="1"/>
+    </row>
+    <row r="2914" ht="15.75" customHeight="1">
+      <c r="A2914" s="1"/>
+      <c r="B2914" s="1"/>
+    </row>
+    <row r="2915" ht="15.75" customHeight="1">
+      <c r="A2915" s="1"/>
+      <c r="B2915" s="1"/>
+    </row>
+    <row r="2916" ht="15.75" customHeight="1">
+      <c r="A2916" s="1"/>
+      <c r="B2916" s="1"/>
+    </row>
+    <row r="2917" ht="15.75" customHeight="1">
+      <c r="A2917" s="1"/>
+      <c r="B2917" s="1"/>
+    </row>
+    <row r="2918" ht="15.75" customHeight="1">
+      <c r="A2918" s="1"/>
+      <c r="B2918" s="1"/>
+    </row>
+    <row r="2919" ht="15.75" customHeight="1">
+      <c r="A2919" s="1"/>
+      <c r="B2919" s="1"/>
+    </row>
+    <row r="2920" ht="15.75" customHeight="1">
+      <c r="A2920" s="1"/>
+      <c r="B2920" s="1"/>
+    </row>
+    <row r="2921" ht="15.75" customHeight="1">
+      <c r="A2921" s="1"/>
+      <c r="B2921" s="1"/>
+    </row>
+    <row r="2922" ht="15.75" customHeight="1">
+      <c r="A2922" s="1"/>
+      <c r="B2922" s="1"/>
+    </row>
+    <row r="2923" ht="15.75" customHeight="1">
+      <c r="A2923" s="1"/>
+      <c r="B2923" s="1"/>
+    </row>
+    <row r="2924" ht="15.75" customHeight="1">
+      <c r="A2924" s="1"/>
+      <c r="B2924" s="1"/>
+    </row>
+    <row r="2925" ht="15.75" customHeight="1">
+      <c r="A2925" s="1"/>
+      <c r="B2925" s="1"/>
+    </row>
+    <row r="2926" ht="15.75" customHeight="1">
+      <c r="A2926" s="1"/>
+      <c r="B2926" s="1"/>
+    </row>
+    <row r="2927" ht="15.75" customHeight="1">
+      <c r="A2927" s="1"/>
+      <c r="B2927" s="1"/>
+    </row>
+    <row r="2928" ht="15.75" customHeight="1">
+      <c r="A2928" s="1"/>
+      <c r="B2928" s="1"/>
+    </row>
+    <row r="2929" ht="15.75" customHeight="1">
+      <c r="A2929" s="1"/>
+      <c r="B2929" s="1"/>
+    </row>
+    <row r="2930" ht="15.75" customHeight="1">
+      <c r="A2930" s="1"/>
+      <c r="B2930" s="1"/>
+    </row>
+    <row r="2931" ht="15.75" customHeight="1">
+      <c r="A2931" s="1"/>
+      <c r="B2931" s="1"/>
+    </row>
+    <row r="2932" ht="15.75" customHeight="1">
+      <c r="A2932" s="1"/>
+      <c r="B2932" s="1"/>
+    </row>
+    <row r="2933" ht="15.75" customHeight="1">
+      <c r="A2933" s="1"/>
+      <c r="B2933" s="1"/>
+    </row>
+    <row r="2934" ht="15.75" customHeight="1">
+      <c r="A2934" s="1"/>
+      <c r="B2934" s="1"/>
+    </row>
+    <row r="2935" ht="15.75" customHeight="1">
+      <c r="A2935" s="1"/>
+      <c r="B2935" s="1"/>
+    </row>
+    <row r="2936" ht="15.75" customHeight="1">
+      <c r="A2936" s="1"/>
+      <c r="B2936" s="1"/>
+    </row>
+    <row r="2937" ht="15.75" customHeight="1">
+      <c r="A2937" s="1"/>
+      <c r="B2937" s="1"/>
+    </row>
+    <row r="2938" ht="15.75" customHeight="1">
+      <c r="A2938" s="1"/>
+      <c r="B2938" s="1"/>
+    </row>
+    <row r="2939" ht="15.75" customHeight="1">
+      <c r="A2939" s="1"/>
+      <c r="B2939" s="1"/>
+    </row>
+    <row r="2940" ht="15.75" customHeight="1">
+      <c r="A2940" s="1"/>
+      <c r="B2940" s="1"/>
+    </row>
+    <row r="2941" ht="15.75" customHeight="1">
+      <c r="A2941" s="1"/>
+      <c r="B2941" s="1"/>
+    </row>
+    <row r="2942" ht="15.75" customHeight="1">
+      <c r="A2942" s="1"/>
+      <c r="B2942" s="1"/>
+    </row>
+    <row r="2943" ht="15.75" customHeight="1">
+      <c r="A2943" s="1"/>
+      <c r="B2943" s="1"/>
+    </row>
+    <row r="2944" ht="15.75" customHeight="1">
+      <c r="A2944" s="1"/>
+      <c r="B2944" s="1"/>
+    </row>
+    <row r="2945" ht="15.75" customHeight="1">
+      <c r="A2945" s="1"/>
+      <c r="B2945" s="1"/>
+    </row>
+    <row r="2946" ht="15.75" customHeight="1">
+      <c r="A2946" s="1"/>
+      <c r="B2946" s="1"/>
+    </row>
+    <row r="2947" ht="15.75" customHeight="1">
+      <c r="A2947" s="1"/>
+      <c r="B2947" s="1"/>
+    </row>
+    <row r="2948" ht="15.75" customHeight="1">
+      <c r="A2948" s="1"/>
+      <c r="B2948" s="1"/>
+    </row>
+    <row r="2949" ht="15.75" customHeight="1">
+      <c r="A2949" s="1"/>
+      <c r="B2949" s="1"/>
+    </row>
+    <row r="2950" ht="15.75" customHeight="1">
+      <c r="A2950" s="1"/>
+      <c r="B2950" s="1"/>
+    </row>
+    <row r="2951" ht="15.75" customHeight="1">
+      <c r="A2951" s="1"/>
+      <c r="B2951" s="1"/>
+    </row>
+    <row r="2952" ht="15.75" customHeight="1">
+      <c r="A2952" s="1"/>
+      <c r="B2952" s="1"/>
+    </row>
+    <row r="2953" ht="15.75" customHeight="1">
+      <c r="A2953" s="1"/>
+      <c r="B2953" s="1"/>
+    </row>
+    <row r="2954" ht="15.75" customHeight="1">
+      <c r="A2954" s="1"/>
+      <c r="B2954" s="1"/>
+    </row>
+    <row r="2955" ht="15.75" customHeight="1">
+      <c r="A2955" s="1"/>
+      <c r="B2955" s="1"/>
+    </row>
+    <row r="2956" ht="15.75" customHeight="1">
+      <c r="A2956" s="1"/>
+      <c r="B2956" s="1"/>
+    </row>
+    <row r="2957" ht="15.75" customHeight="1">
+      <c r="A2957" s="1"/>
+      <c r="B2957" s="1"/>
+    </row>
+    <row r="2958" ht="15.75" customHeight="1">
+      <c r="A2958" s="1"/>
+      <c r="B2958" s="1"/>
+    </row>
+    <row r="2959" ht="15.75" customHeight="1">
+      <c r="A2959" s="1"/>
+      <c r="B2959" s="1"/>
+    </row>
+    <row r="2960" ht="15.75" customHeight="1">
+      <c r="A2960" s="1"/>
+      <c r="B2960" s="1"/>
+    </row>
+    <row r="2961" ht="15.75" customHeight="1">
+      <c r="A2961" s="1"/>
+      <c r="B2961" s="1"/>
+    </row>
+    <row r="2962" ht="15.75" customHeight="1">
+      <c r="A2962" s="1"/>
+      <c r="B2962" s="1"/>
+    </row>
+    <row r="2963" ht="15.75" customHeight="1">
+      <c r="A2963" s="1"/>
+      <c r="B2963" s="1"/>
+    </row>
+    <row r="2964" ht="15.75" customHeight="1">
+      <c r="A2964" s="1"/>
+      <c r="B2964" s="1"/>
+    </row>
+    <row r="2965" ht="15.75" customHeight="1">
+      <c r="A2965" s="1"/>
+      <c r="B2965" s="1"/>
+    </row>
+    <row r="2966" ht="15.75" customHeight="1">
+      <c r="A2966" s="1"/>
+      <c r="B2966" s="1"/>
+    </row>
+    <row r="2967" ht="15.75" customHeight="1">
+      <c r="A2967" s="1"/>
+      <c r="B2967" s="1"/>
+    </row>
+    <row r="2968" ht="15.75" customHeight="1">
+      <c r="A2968" s="1"/>
+      <c r="B2968" s="1"/>
+    </row>
+    <row r="2969" ht="15.75" customHeight="1">
+      <c r="A2969" s="1"/>
+      <c r="B2969" s="1"/>
+    </row>
+    <row r="2970" ht="15.75" customHeight="1">
+      <c r="A2970" s="1"/>
+      <c r="B2970" s="1"/>
+    </row>
+    <row r="2971" ht="15.75" customHeight="1">
+      <c r="A2971" s="1"/>
+      <c r="B2971" s="1"/>
+    </row>
+    <row r="2972" ht="15.75" customHeight="1">
+      <c r="A2972" s="1"/>
+      <c r="B2972" s="1"/>
+    </row>
+    <row r="2973" ht="15.75" customHeight="1">
+      <c r="A2973" s="1"/>
+      <c r="B2973" s="1"/>
+    </row>
+    <row r="2974" ht="15.75" customHeight="1">
+      <c r="A2974" s="1"/>
+      <c r="B2974" s="1"/>
+    </row>
+    <row r="2975" ht="15.75" customHeight="1">
+      <c r="A2975" s="1"/>
+      <c r="B2975" s="1"/>
+    </row>
+    <row r="2976" ht="15.75" customHeight="1">
+      <c r="A2976" s="1"/>
+      <c r="B2976" s="1"/>
+    </row>
+    <row r="2977" ht="15.75" customHeight="1">
+      <c r="A2977" s="1"/>
+      <c r="B2977" s="1"/>
+    </row>
+    <row r="2978" ht="15.75" customHeight="1">
+      <c r="A2978" s="1"/>
+      <c r="B2978" s="1"/>
+    </row>
+    <row r="2979" ht="15.75" customHeight="1">
+      <c r="A2979" s="1"/>
+      <c r="B2979" s="1"/>
+    </row>
+    <row r="2980" ht="15.75" customHeight="1">
+      <c r="A2980" s="1"/>
+      <c r="B2980" s="1"/>
+    </row>
+    <row r="2981" ht="15.75" customHeight="1">
+      <c r="A2981" s="1"/>
+      <c r="B2981" s="1"/>
+    </row>
+    <row r="2982" ht="15.75" customHeight="1">
+      <c r="A2982" s="1"/>
+      <c r="B2982" s="1"/>
+    </row>
+    <row r="2983" ht="15.75" customHeight="1">
+      <c r="A2983" s="1"/>
+      <c r="B2983" s="1"/>
+    </row>
+    <row r="2984" ht="15.75" customHeight="1">
+      <c r="A2984" s="1"/>
+      <c r="B2984" s="1"/>
+    </row>
+    <row r="2985" ht="15.75" customHeight="1">
+      <c r="A2985" s="1"/>
+      <c r="B2985" s="1"/>
+    </row>
+    <row r="2986" ht="15.75" customHeight="1">
+      <c r="A2986" s="1"/>
+      <c r="B2986" s="1"/>
+    </row>
+    <row r="2987" ht="15.75" customHeight="1">
+      <c r="A2987" s="1"/>
+      <c r="B2987" s="1"/>
+    </row>
+    <row r="2988" ht="15.75" customHeight="1">
+      <c r="A2988" s="1"/>
+      <c r="B2988" s="1"/>
+    </row>
+    <row r="2989" ht="15.75" customHeight="1">
+      <c r="A2989" s="1"/>
+      <c r="B2989" s="1"/>
+    </row>
+    <row r="2990" ht="15.75" customHeight="1">
+      <c r="A2990" s="1"/>
+      <c r="B2990" s="1"/>
+    </row>
+    <row r="2991" ht="15.75" customHeight="1">
+      <c r="A2991" s="1"/>
+      <c r="B2991" s="1"/>
+    </row>
+    <row r="2992" ht="15.75" customHeight="1">
+      <c r="A2992" s="1"/>
+      <c r="B2992" s="1"/>
+    </row>
+    <row r="2993" ht="15.75" customHeight="1">
+      <c r="A2993" s="1"/>
+      <c r="B2993" s="1"/>
+    </row>
+    <row r="2994" ht="15.75" customHeight="1">
+      <c r="A2994" s="1"/>
+      <c r="B2994" s="1"/>
+    </row>
+    <row r="2995" ht="15.75" customHeight="1">
+      <c r="A2995" s="1"/>
+      <c r="B2995" s="1"/>
+    </row>
+    <row r="2996" ht="15.75" customHeight="1">
+      <c r="A2996" s="1"/>
+      <c r="B2996" s="1"/>
+    </row>
+    <row r="2997" ht="15.75" customHeight="1">
+      <c r="A2997" s="1"/>
+      <c r="B2997" s="1"/>
+    </row>
+    <row r="2998" ht="15.75" customHeight="1">
+      <c r="A2998" s="1"/>
+      <c r="B2998" s="1"/>
+    </row>
+    <row r="2999" ht="15.75" customHeight="1">
+      <c r="A2999" s="1"/>
+      <c r="B2999" s="1"/>
+    </row>
+    <row r="3000" ht="15.75" customHeight="1">
+      <c r="A3000" s="1"/>
+      <c r="B3000" s="1"/>
+    </row>
+    <row r="3001" ht="15.75" customHeight="1">
+      <c r="A3001" s="1"/>
+      <c r="B3001" s="1"/>
+    </row>
+    <row r="3002" ht="15.75" customHeight="1">
+      <c r="A3002" s="1"/>
+      <c r="B3002" s="1"/>
+    </row>
+    <row r="3003" ht="15.75" customHeight="1">
+      <c r="A3003" s="1"/>
+      <c r="B3003" s="1"/>
+    </row>
+    <row r="3004" ht="15.75" customHeight="1">
+      <c r="A3004" s="1"/>
+      <c r="B3004" s="1"/>
+    </row>
+    <row r="3005" ht="15.75" customHeight="1">
+      <c r="A3005" s="1"/>
+      <c r="B3005" s="1"/>
+    </row>
+    <row r="3006" ht="15.75" customHeight="1">
+      <c r="A3006" s="1"/>
+      <c r="B3006" s="1"/>
+    </row>
+    <row r="3007" ht="15.75" customHeight="1">
+      <c r="A3007" s="1"/>
+      <c r="B3007" s="1"/>
+    </row>
+    <row r="3008" ht="15.75" customHeight="1">
+      <c r="A3008" s="1"/>
+      <c r="B3008" s="1"/>
+    </row>
+    <row r="3009" ht="15.75" customHeight="1">
+      <c r="A3009" s="1"/>
+      <c r="B3009" s="1"/>
+    </row>
+    <row r="3010" ht="15.75" customHeight="1">
+      <c r="A3010" s="1"/>
+      <c r="B3010" s="1"/>
+    </row>
+    <row r="3011" ht="15.75" customHeight="1">
+      <c r="A3011" s="1"/>
+      <c r="B3011" s="1"/>
+    </row>
+    <row r="3012" ht="15.75" customHeight="1">
+      <c r="A3012" s="1"/>
+      <c r="B3012" s="1"/>
+    </row>
+    <row r="3013" ht="15.75" customHeight="1">
+      <c r="A3013" s="1"/>
+      <c r="B3013" s="1"/>
+    </row>
+    <row r="3014" ht="15.75" customHeight="1">
+      <c r="A3014" s="1"/>
+      <c r="B3014" s="1"/>
+    </row>
+    <row r="3015" ht="15.75" customHeight="1">
+      <c r="A3015" s="1"/>
+      <c r="B3015" s="1"/>
+    </row>
+    <row r="3016" ht="15.75" customHeight="1">
+      <c r="A3016" s="1"/>
+      <c r="B3016" s="1"/>
+    </row>
+    <row r="3017" ht="15.75" customHeight="1">
+      <c r="A3017" s="1"/>
+      <c r="B3017" s="1"/>
+    </row>
+    <row r="3018" ht="15.75" customHeight="1">
+      <c r="A3018" s="1"/>
+      <c r="B3018" s="1"/>
+    </row>
+    <row r="3019" ht="15.75" customHeight="1">
+      <c r="A3019" s="1"/>
+      <c r="B3019" s="1"/>
+    </row>
+    <row r="3020" ht="15.75" customHeight="1">
+      <c r="A3020" s="1"/>
+      <c r="B3020" s="1"/>
+    </row>
+    <row r="3021" ht="15.75" customHeight="1">
+      <c r="A3021" s="1"/>
+      <c r="B3021" s="1"/>
+    </row>
+    <row r="3022" ht="15.75" customHeight="1">
+      <c r="A3022" s="1"/>
+      <c r="B3022" s="1"/>
+    </row>
+    <row r="3023" ht="15.75" customHeight="1">
+      <c r="A3023" s="1"/>
+      <c r="B3023" s="1"/>
+    </row>
+    <row r="3024" ht="15.75" customHeight="1">
+      <c r="A3024" s="1"/>
+      <c r="B3024" s="1"/>
+    </row>
+    <row r="3025" ht="15.75" customHeight="1">
+      <c r="A3025" s="1"/>
+      <c r="B3025" s="1"/>
+    </row>
+    <row r="3026" ht="15.75" customHeight="1">
+      <c r="A3026" s="1"/>
+      <c r="B3026" s="1"/>
+    </row>
+    <row r="3027" ht="15.75" customHeight="1">
+      <c r="A3027" s="1"/>
+      <c r="B3027" s="1"/>
+    </row>
+    <row r="3028" ht="15.75" customHeight="1">
+      <c r="A3028" s="1"/>
+      <c r="B3028" s="1"/>
+    </row>
+    <row r="3029" ht="15.75" customHeight="1">
+      <c r="A3029" s="1"/>
+      <c r="B3029" s="1"/>
+    </row>
+    <row r="3030" ht="15.75" customHeight="1">
+      <c r="A3030" s="1"/>
+      <c r="B3030" s="1"/>
+    </row>
+    <row r="3031" ht="15.75" customHeight="1">
+      <c r="A3031" s="1"/>
+      <c r="B3031" s="1"/>
+    </row>
+    <row r="3032" ht="15.75" customHeight="1">
+      <c r="A3032" s="1"/>
+      <c r="B3032" s="1"/>
+    </row>
+    <row r="3033" ht="15.75" customHeight="1">
+      <c r="A3033" s="1"/>
+      <c r="B3033" s="1"/>
+    </row>
+    <row r="3034" ht="15.75" customHeight="1">
+      <c r="A3034" s="1"/>
+      <c r="B3034" s="1"/>
+    </row>
+    <row r="3035" ht="15.75" customHeight="1">
+      <c r="A3035" s="1"/>
+      <c r="B3035" s="1"/>
+    </row>
+    <row r="3036" ht="15.75" customHeight="1">
+      <c r="A3036" s="1"/>
+      <c r="B3036" s="1"/>
+    </row>
+    <row r="3037" ht="15.75" customHeight="1">
+      <c r="A3037" s="1"/>
+      <c r="B3037" s="1"/>
+    </row>
+    <row r="3038" ht="15.75" customHeight="1">
+      <c r="A3038" s="1"/>
+      <c r="B3038" s="1"/>
+    </row>
+    <row r="3039" ht="15.75" customHeight="1">
+      <c r="A3039" s="1"/>
+      <c r="B3039" s="1"/>
+    </row>
+    <row r="3040" ht="15.75" customHeight="1">
+      <c r="A3040" s="1"/>
+      <c r="B3040" s="1"/>
+    </row>
+    <row r="3041" ht="15.75" customHeight="1">
+      <c r="A3041" s="1"/>
+      <c r="B3041" s="1"/>
+    </row>
+    <row r="3042" ht="15.75" customHeight="1">
+      <c r="A3042" s="1"/>
+      <c r="B3042" s="1"/>
+    </row>
+    <row r="3043" ht="15.75" customHeight="1">
+      <c r="A3043" s="1"/>
+      <c r="B3043" s="1"/>
+    </row>
+    <row r="3044" ht="15.75" customHeight="1">
+      <c r="A3044" s="1"/>
+      <c r="B3044" s="1"/>
+    </row>
+    <row r="3045" ht="15.75" customHeight="1">
+      <c r="A3045" s="1"/>
+      <c r="B3045" s="1"/>
+    </row>
+    <row r="3046" ht="15.75" customHeight="1">
+      <c r="A3046" s="1"/>
+      <c r="B3046" s="1"/>
+    </row>
+    <row r="3047" ht="15.75" customHeight="1">
+      <c r="A3047" s="1"/>
+      <c r="B3047" s="1"/>
+    </row>
+    <row r="3048" ht="15.75" customHeight="1">
+      <c r="A3048" s="1"/>
+      <c r="B3048" s="1"/>
+    </row>
+    <row r="3049" ht="15.75" customHeight="1">
+      <c r="A3049" s="1"/>
+      <c r="B3049" s="1"/>
+    </row>
+    <row r="3050" ht="15.75" customHeight="1">
+      <c r="A3050" s="1"/>
+      <c r="B3050" s="1"/>
+    </row>
+    <row r="3051" ht="15.75" customHeight="1">
+      <c r="A3051" s="1"/>
+      <c r="B3051" s="1"/>
+    </row>
+    <row r="3052" ht="15.75" customHeight="1">
+      <c r="A3052" s="1"/>
+      <c r="B3052" s="1"/>
+    </row>
+    <row r="3053" ht="15.75" customHeight="1">
+      <c r="A3053" s="1"/>
+      <c r="B3053" s="1"/>
+    </row>
+    <row r="3054" ht="15.75" customHeight="1">
+      <c r="A3054" s="1"/>
+      <c r="B3054" s="1"/>
+    </row>
+    <row r="3055" ht="15.75" customHeight="1">
+      <c r="A3055" s="1"/>
+      <c r="B3055" s="1"/>
+    </row>
+    <row r="3056" ht="15.75" customHeight="1">
+      <c r="A3056" s="1"/>
+      <c r="B3056" s="1"/>
+    </row>
+    <row r="3057" ht="15.75" customHeight="1">
+      <c r="A3057" s="1"/>
+      <c r="B3057" s="1"/>
+    </row>
+    <row r="3058" ht="15.75" customHeight="1">
+      <c r="A3058" s="1"/>
+      <c r="B3058" s="1"/>
+    </row>
+    <row r="3059" ht="15.75" customHeight="1">
+      <c r="A3059" s="1"/>
+      <c r="B3059" s="1"/>
+    </row>
+    <row r="3060" ht="15.75" customHeight="1">
+      <c r="A3060" s="1"/>
+      <c r="B3060" s="1"/>
+    </row>
+    <row r="3061" ht="15.75" customHeight="1">
+      <c r="A3061" s="1"/>
+      <c r="B3061" s="1"/>
+    </row>
+    <row r="3062" ht="15.75" customHeight="1">
+      <c r="A3062" s="1"/>
+      <c r="B3062" s="1"/>
+    </row>
+    <row r="3063" ht="15.75" customHeight="1">
+      <c r="A3063" s="1"/>
+      <c r="B3063" s="1"/>
+    </row>
+    <row r="3064" ht="15.75" customHeight="1">
+      <c r="A3064" s="1"/>
+      <c r="B3064" s="1"/>
+    </row>
+    <row r="3065" ht="15.75" customHeight="1">
+      <c r="A3065" s="1"/>
+      <c r="B3065" s="1"/>
+    </row>
+    <row r="3066" ht="15.75" customHeight="1">
+      <c r="A3066" s="1"/>
+      <c r="B3066" s="1"/>
+    </row>
+    <row r="3067" ht="15.75" customHeight="1">
+      <c r="A3067" s="1"/>
+      <c r="B3067" s="1"/>
+    </row>
+    <row r="3068" ht="15.75" customHeight="1">
+      <c r="A3068" s="1"/>
+      <c r="B3068" s="1"/>
+    </row>
+    <row r="3069" ht="15.75" customHeight="1">
+      <c r="A3069" s="1"/>
+      <c r="B3069" s="1"/>
+    </row>
+    <row r="3070" ht="15.75" customHeight="1">
+      <c r="A3070" s="1"/>
+      <c r="B3070" s="1"/>
+    </row>
+    <row r="3071" ht="15.75" customHeight="1">
+      <c r="A3071" s="1"/>
+      <c r="B3071" s="1"/>
+    </row>
+    <row r="3072" ht="15.75" customHeight="1">
+      <c r="A3072" s="1"/>
+      <c r="B3072" s="1"/>
+    </row>
+    <row r="3073" ht="15.75" customHeight="1">
+      <c r="A3073" s="1"/>
+      <c r="B3073" s="1"/>
+    </row>
+    <row r="3074" ht="15.75" customHeight="1">
+      <c r="A3074" s="1"/>
+      <c r="B3074" s="1"/>
+    </row>
+    <row r="3075" ht="15.75" customHeight="1">
+      <c r="A3075" s="1"/>
+      <c r="B3075" s="1"/>
+    </row>
+    <row r="3076" ht="15.75" customHeight="1">
+      <c r="A3076" s="1"/>
+      <c r="B3076" s="1"/>
+    </row>
+    <row r="3077" ht="15.75" customHeight="1">
+      <c r="A3077" s="1"/>
+      <c r="B3077" s="1"/>
+    </row>
+    <row r="3078" ht="15.75" customHeight="1">
+      <c r="A3078" s="1"/>
+      <c r="B3078" s="1"/>
+    </row>
+    <row r="3079" ht="15.75" customHeight="1">
+      <c r="A3079" s="1"/>
+      <c r="B3079" s="1"/>
+    </row>
+    <row r="3080" ht="15.75" customHeight="1">
+      <c r="A3080" s="1"/>
+      <c r="B3080" s="1"/>
+    </row>
+    <row r="3081" ht="15.75" customHeight="1">
+      <c r="A3081" s="1"/>
+      <c r="B3081" s="1"/>
+    </row>
+    <row r="3082" ht="15.75" customHeight="1">
+      <c r="A3082" s="1"/>
+      <c r="B3082" s="1"/>
+    </row>
+    <row r="3083" ht="15.75" customHeight="1">
+      <c r="A3083" s="1"/>
+      <c r="B3083" s="1"/>
+    </row>
+    <row r="3084" ht="15.75" customHeight="1">
+      <c r="A3084" s="1"/>
+      <c r="B3084" s="1"/>
+    </row>
+    <row r="3085" ht="15.75" customHeight="1">
+      <c r="A3085" s="1"/>
+      <c r="B3085" s="1"/>
+    </row>
+    <row r="3086" ht="15.75" customHeight="1">
+      <c r="A3086" s="1"/>
+      <c r="B3086" s="1"/>
+    </row>
+    <row r="3087" ht="15.75" customHeight="1">
+      <c r="A3087" s="1"/>
+      <c r="B3087" s="1"/>
+    </row>
+    <row r="3088" ht="15.75" customHeight="1">
+      <c r="A3088" s="1"/>
+      <c r="B3088" s="1"/>
+    </row>
+    <row r="3089" ht="15.75" customHeight="1">
+      <c r="A3089" s="1"/>
+      <c r="B3089" s="1"/>
+    </row>
+    <row r="3090" ht="15.75" customHeight="1">
+      <c r="A3090" s="1"/>
+      <c r="B3090" s="1"/>
+    </row>
+    <row r="3091" ht="15.75" customHeight="1">
+      <c r="A3091" s="1"/>
+      <c r="B3091" s="1"/>
+    </row>
+    <row r="3092" ht="15.75" customHeight="1">
+      <c r="A3092" s="1"/>
+      <c r="B3092" s="1"/>
+    </row>
+    <row r="3093" ht="15.75" customHeight="1">
+      <c r="A3093" s="1"/>
+      <c r="B3093" s="1"/>
+    </row>
+    <row r="3094" ht="15.75" customHeight="1">
+      <c r="A3094" s="1"/>
+      <c r="B3094" s="1"/>
+    </row>
+    <row r="3095" ht="15.75" customHeight="1">
+      <c r="A3095" s="1"/>
+      <c r="B3095" s="1"/>
+    </row>
+    <row r="3096" ht="15.75" customHeight="1">
+      <c r="A3096" s="1"/>
+      <c r="B3096" s="1"/>
+    </row>
+    <row r="3097" ht="15.75" customHeight="1">
+      <c r="A3097" s="1"/>
+      <c r="B3097" s="1"/>
+    </row>
+    <row r="3098" ht="15.75" customHeight="1">
+      <c r="A3098" s="1"/>
+      <c r="B3098" s="1"/>
+    </row>
+    <row r="3099" ht="15.75" customHeight="1">
+      <c r="A3099" s="1"/>
+      <c r="B3099" s="1"/>
+    </row>
+    <row r="3100" ht="15.75" customHeight="1">
+      <c r="A3100" s="1"/>
+      <c r="B3100" s="1"/>
+    </row>
+    <row r="3101" ht="15.75" customHeight="1">
+      <c r="A3101" s="1"/>
+      <c r="B3101" s="1"/>
+    </row>
+    <row r="3102" ht="15.75" customHeight="1">
+      <c r="A3102" s="1"/>
+      <c r="B3102" s="1"/>
+    </row>
+    <row r="3103" ht="15.75" customHeight="1">
+      <c r="A3103" s="1"/>
+      <c r="B3103" s="1"/>
+    </row>
+    <row r="3104" ht="15.75" customHeight="1">
+      <c r="A3104" s="1"/>
+      <c r="B3104" s="1"/>
+    </row>
+    <row r="3105" ht="15.75" customHeight="1">
+      <c r="A3105" s="1"/>
+      <c r="B3105" s="1"/>
+    </row>
+    <row r="3106" ht="15.75" customHeight="1">
+      <c r="A3106" s="1"/>
+      <c r="B3106" s="1"/>
+    </row>
+    <row r="3107" ht="15.75" customHeight="1">
+      <c r="A3107" s="1"/>
+      <c r="B3107" s="1"/>
+    </row>
+    <row r="3108" ht="15.75" customHeight="1">
+      <c r="A3108" s="1"/>
+      <c r="B3108" s="1"/>
+    </row>
+    <row r="3109" ht="15.75" customHeight="1">
+      <c r="A3109" s="1"/>
+      <c r="B3109" s="1"/>
+    </row>
+    <row r="3110" ht="15.75" customHeight="1">
+      <c r="A3110" s="1"/>
+      <c r="B3110" s="1"/>
+    </row>
+    <row r="3111" ht="15.75" customHeight="1">
+      <c r="A3111" s="1"/>
+      <c r="B3111" s="1"/>
+    </row>
+    <row r="3112" ht="15.75" customHeight="1">
+      <c r="A3112" s="1"/>
+      <c r="B3112" s="1"/>
+    </row>
+    <row r="3113" ht="15.75" customHeight="1">
+      <c r="A3113" s="1"/>
+      <c r="B3113" s="1"/>
+    </row>
+    <row r="3114" ht="15.75" customHeight="1">
+      <c r="A3114" s="1"/>
+      <c r="B3114" s="1"/>
+    </row>
+    <row r="3115" ht="15.75" customHeight="1">
+      <c r="A3115" s="1"/>
+      <c r="B3115" s="1"/>
+    </row>
+    <row r="3116" ht="15.75" customHeight="1">
+      <c r="A3116" s="1"/>
+      <c r="B3116" s="1"/>
+    </row>
+    <row r="3117" ht="15.75" customHeight="1">
+      <c r="A3117" s="1"/>
+      <c r="B3117" s="1"/>
+    </row>
+    <row r="3118" ht="15.75" customHeight="1">
+      <c r="A3118" s="1"/>
+      <c r="B3118" s="1"/>
+    </row>
+    <row r="3119" ht="15.75" customHeight="1">
+      <c r="A3119" s="1"/>
+      <c r="B3119" s="1"/>
+    </row>
+    <row r="3120" ht="15.75" customHeight="1">
+      <c r="A3120" s="1"/>
+      <c r="B3120" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
